--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="322">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T10:27:30+00:00</t>
+    <t>2023-06-30T12:07:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -351,7 +351,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiant de l'essai clinique</t>
+    <t>Business Identifier for study</t>
   </si>
   <si>
     <t>Identifiers assigned to this research study by the sponsor or other systems.</t>
@@ -360,14 +360,258 @@
     <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
-    <t>ResearchStudy.title</t>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
+    <t>Slicing pour les différents identifiants de l'essai clinique</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire</t>
+  </si>
+  <si>
+    <t>idPrimaire</t>
+  </si>
+  <si>
+    <t>Identifiant primaire de l'essai clinique / Primary Registry and Trial Identifying Number</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Name for this study</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.use</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.assigner</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire</t>
+  </si>
+  <si>
+    <t>idSecondaire</t>
+  </si>
+  <si>
+    <t>identifiants secondaires / Secondary Identifying Numbers (e.g., protocol number) if available.  Also include other trial registries that have issued an identifying number to this trial. There is no limit on the number of Secondary identifying numbers that can be provided.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.use</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.assigner</t>
+  </si>
+  <si>
+    <t>ResearchStudy.title</t>
+  </si>
+  <si>
+    <t>Nom de l'étude / Public Title</t>
   </si>
   <si>
     <t>A short, descriptive user-friendly label for the study.</t>
@@ -392,10 +636,6 @@
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>ResearchStudy.partOf</t>
   </si>
   <si>
@@ -419,15 +659,12 @@
     <t>ResearchStudy.status</t>
   </si>
   <si>
-    <t>active | administratively-completed | approved | closed-to-accrual | closed-to-accrual-and-intervention | completed | disapproved | in-review | temporarily-closed-to-accrual | temporarily-closed-to-accrual-and-intervention | withdrawn</t>
+    <t>Statut du recrutement / Recruitment Status</t>
   </si>
   <si>
     <t>The current state of the study.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Codes that convey the current status of the research study.</t>
   </si>
   <si>
@@ -437,10 +674,6 @@
     <t>ResearchStudy.primaryPurposeType</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
   </si>
   <si>
@@ -450,9 +683,6 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes for the main intent of the study.</t>
   </si>
   <si>
@@ -504,7 +734,7 @@
     <t>ResearchStudy.condition</t>
   </si>
   <si>
-    <t>Condition being studied</t>
+    <t>Sujet concerné /  Problem(s) Studied</t>
   </si>
   <si>
     <t>The condition that is the focus of the study.  For example, In a study to examine risk factors for Lupus, might have as an inclusion criterion "healthy volunteer", but the target condition code would be a Lupus SNOMED code.</t>
@@ -579,7 +809,7 @@
 </t>
   </si>
   <si>
-    <t>What this is study doing</t>
+    <t>Résumé de l'essai / Summary Results</t>
   </si>
   <si>
     <t>A full description of how the study is being conducted.</t>
@@ -599,7 +829,7 @@
 </t>
   </si>
   <si>
-    <t>Inclusion &amp; exclusion criteria</t>
+    <t>Critères d'inclusion et d'exclusion / Inclusion &amp; exclusion criteria</t>
   </si>
   <si>
     <t>Reference to a Group that defines the criteria for and quantity of subjects participating in the study.  E.g. " 200 female Europeans between the ages of 20 and 45 with early onset diabetes".</t>
@@ -615,32 +845,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>When the study began and ended</t>
   </si>
   <si>
     <t>Identifies the start date and the expected (or actual, depending on status) end date for the study.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>ResearchStudy.sponsor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that initiates and is legally responsible for the study</t>
+    <t>promoteur / primary Sponsor</t>
   </si>
   <si>
     <t>An organization that initiates the investigation and is legally responsible for the study.</t>
@@ -719,22 +933,7 @@
     <t>ResearchStudy.arm.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>ResearchStudy.arm.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ResearchStudy.arm.modifierExtension</t>
@@ -1123,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK44"/>
+  <dimension ref="A1:AK62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1133,8 +1332,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.78515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="41.0234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -1148,8 +1348,8 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="10.54296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -1157,13 +1357,12 @@
     <col min="26" max="26" width="124.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="54.97265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="10.26171875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="11.08203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="52.18359375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" hidden="true" width="8.0" customWidth="false"/>
     <col min="18" max="18" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -2129,10 +2328,10 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>39</v>
@@ -2191,16 +2390,16 @@
         <v>39</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>104</v>
@@ -2223,12 +2422,14 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="E11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2249,18 +2450,18 @@
         <v>46</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P11" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="Q11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2308,13 +2509,13 @@
         <v>39</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>57</v>
@@ -2331,7 +2532,7 @@
         <v>114</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2342,7 +2543,7 @@
         <v>37</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>39</v>
@@ -2351,20 +2552,18 @@
         <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O12" t="s" s="2">
         <v>118</v>
       </c>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
         <v>39</v>
@@ -2413,19 +2612,19 @@
         <v>39</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -2436,11 +2635,11 @@
         <v>120</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
@@ -2456,23 +2655,21 @@
         <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="O13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>39</v>
       </c>
@@ -2508,19 +2705,19 @@
         <v>39</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -2532,7 +2729,7 @@
         <v>57</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -2540,10 +2737,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2569,15 +2766,17 @@
         <v>66</v>
       </c>
       <c r="M14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="Q14" t="s" s="2">
         <v>39</v>
       </c>
@@ -2586,7 +2785,7 @@
         <v>39</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="U14" t="s" s="2">
         <v>39</v>
@@ -2601,13 +2800,13 @@
         <v>39</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AB14" t="s" s="2">
         <v>39</v>
@@ -2625,10 +2824,10 @@
         <v>39</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>45</v>
@@ -2645,10 +2844,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2671,18 +2870,20 @@
         <v>46</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="P15" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="Q15" t="s" s="2">
         <v>39</v>
       </c>
@@ -2706,13 +2907,13 @@
         <v>39</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>39</v>
@@ -2730,7 +2931,7 @@
         <v>39</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2750,10 +2951,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2776,18 +2977,20 @@
         <v>46</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="P16" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="Q16" t="s" s="2">
         <v>39</v>
       </c>
@@ -2799,7 +3002,7 @@
         <v>39</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="V16" t="s" s="2">
         <v>39</v>
@@ -2811,13 +3014,13 @@
         <v>39</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>39</v>
@@ -2835,7 +3038,7 @@
         <v>39</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2855,10 +3058,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2869,7 +3072,7 @@
         <v>37</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>39</v>
@@ -2881,16 +3084,16 @@
         <v>46</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
@@ -2904,7 +3107,7 @@
         <v>39</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="V17" t="s" s="2">
         <v>39</v>
@@ -2916,10 +3119,10 @@
         <v>39</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>39</v>
@@ -2940,13 +3143,13 @@
         <v>39</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>57</v>
@@ -2960,10 +3163,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2974,7 +3177,7 @@
         <v>37</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>39</v>
@@ -2986,16 +3189,16 @@
         <v>46</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
@@ -3021,10 +3224,10 @@
         <v>39</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>39</v>
@@ -3045,19 +3248,19 @@
         <v>39</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -3065,10 +3268,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3079,7 +3282,7 @@
         <v>37</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>39</v>
@@ -3091,16 +3294,16 @@
         <v>46</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -3126,13 +3329,13 @@
         <v>39</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>39</v>
@@ -3150,19 +3353,19 @@
         <v>39</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>58</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -3170,12 +3373,14 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="E20" t="s" s="2">
         <v>39</v>
       </c>
@@ -3196,16 +3401,18 @@
         <v>46</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="Q20" t="s" s="2">
         <v>39</v>
       </c>
@@ -3253,7 +3460,7 @@
         <v>39</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
@@ -3273,10 +3480,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3287,7 +3494,7 @@
         <v>37</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>39</v>
@@ -3299,17 +3506,15 @@
         <v>39</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>39</v>
@@ -3358,19 +3563,19 @@
         <v>39</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -3378,14 +3583,14 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
@@ -3401,19 +3606,19 @@
         <v>39</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -3439,10 +3644,10 @@
         <v>39</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>39</v>
@@ -3451,19 +3656,19 @@
         <v>39</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>37</v>
@@ -3475,7 +3680,7 @@
         <v>57</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>58</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -3483,10 +3688,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3494,33 +3699,35 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="P23" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="Q23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3529,7 +3736,7 @@
         <v>39</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>39</v>
@@ -3544,13 +3751,13 @@
         <v>39</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>39</v>
@@ -3568,13 +3775,13 @@
         <v>39</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>57</v>
@@ -3588,10 +3795,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3611,21 +3818,23 @@
         <v>39</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="P24" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="Q24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3649,13 +3858,13 @@
         <v>39</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>39</v>
@@ -3673,7 +3882,7 @@
         <v>39</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>37</v>
@@ -3693,21 +3902,21 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>39</v>
@@ -3719,18 +3928,20 @@
         <v>46</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="P25" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="Q25" t="s" s="2">
         <v>39</v>
       </c>
@@ -3742,7 +3953,7 @@
         <v>39</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="V25" t="s" s="2">
         <v>39</v>
@@ -3778,19 +3989,19 @@
         <v>39</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>119</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
@@ -3798,14 +4009,14 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -3824,16 +4035,16 @@
         <v>46</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -3847,7 +4058,7 @@
         <v>39</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="V26" t="s" s="2">
         <v>39</v>
@@ -3883,7 +4094,7 @@
         <v>39</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>37</v>
@@ -3895,7 +4106,7 @@
         <v>57</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>194</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -3903,10 +4114,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3929,16 +4140,16 @@
         <v>46</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
@@ -3988,7 +4199,7 @@
         <v>39</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>37</v>
@@ -4000,7 +4211,7 @@
         <v>57</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
@@ -4008,10 +4219,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4034,16 +4245,16 @@
         <v>46</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -4093,7 +4304,7 @@
         <v>39</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>37</v>
@@ -4105,7 +4316,7 @@
         <v>57</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>119</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29">
@@ -4113,10 +4324,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4127,7 +4338,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>39</v>
@@ -4139,16 +4350,16 @@
         <v>46</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -4198,19 +4409,19 @@
         <v>39</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>119</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -4218,10 +4429,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4232,7 +4443,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>39</v>
@@ -4244,16 +4455,16 @@
         <v>46</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -4279,13 +4490,13 @@
         <v>39</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>39</v>
@@ -4303,19 +4514,19 @@
         <v>39</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>58</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31">
@@ -4323,14 +4534,14 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
@@ -4346,21 +4557,23 @@
         <v>39</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="P31" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="Q31" t="s" s="2">
         <v>39</v>
       </c>
@@ -4408,7 +4621,7 @@
         <v>39</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>37</v>
@@ -4420,7 +4633,7 @@
         <v>57</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>58</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
@@ -4428,10 +4641,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4439,30 +4652,32 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>39</v>
@@ -4487,13 +4702,13 @@
         <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>39</v>
@@ -4511,13 +4726,13 @@
         <v>39</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>57</v>
@@ -4531,10 +4746,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4554,18 +4769,20 @@
         <v>39</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>39</v>
@@ -4590,13 +4807,13 @@
         <v>39</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>39</v>
@@ -4614,7 +4831,7 @@
         <v>39</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>37</v>
@@ -4623,10 +4840,10 @@
         <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34">
@@ -4634,21 +4851,21 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>39</v>
@@ -4657,19 +4874,19 @@
         <v>39</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
@@ -4695,43 +4912,43 @@
         <v>39</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -4739,14 +4956,14 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
@@ -4759,26 +4976,24 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>39</v>
       </c>
@@ -4802,10 +5017,10 @@
         <v>39</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>39</v>
@@ -4826,7 +5041,7 @@
         <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>37</v>
@@ -4838,7 +5053,7 @@
         <v>57</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
@@ -4846,10 +5061,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4857,10 +5072,10 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>39</v>
@@ -4869,19 +5084,19 @@
         <v>39</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
@@ -4907,10 +5122,10 @@
         <v>39</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>39</v>
@@ -4931,13 +5146,13 @@
         <v>39</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>57</v>
@@ -4951,10 +5166,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -4965,7 +5180,7 @@
         <v>37</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>39</v>
@@ -4974,19 +5189,19 @@
         <v>39</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
@@ -5012,13 +5227,13 @@
         <v>39</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>39</v>
@@ -5036,13 +5251,13 @@
         <v>39</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>57</v>
@@ -5056,10 +5271,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5070,7 +5285,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>39</v>
@@ -5079,20 +5294,18 @@
         <v>39</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>39</v>
@@ -5141,13 +5354,13 @@
         <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>57</v>
@@ -5161,10 +5374,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5187,15 +5400,17 @@
         <v>39</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>39</v>
@@ -5244,7 +5459,7 @@
         <v>39</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>37</v>
@@ -5264,10 +5479,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5278,7 +5493,7 @@
         <v>37</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>39</v>
@@ -5287,18 +5502,20 @@
         <v>39</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
         <v>39</v>
@@ -5323,10 +5540,10 @@
         <v>39</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>39</v>
@@ -5347,19 +5564,19 @@
         <v>39</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
@@ -5367,14 +5584,14 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="s" s="2">
@@ -5390,19 +5607,19 @@
         <v>39</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
@@ -5428,31 +5645,31 @@
         <v>39</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="AB41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>37</v>
@@ -5464,7 +5681,7 @@
         <v>57</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
@@ -5472,46 +5689,44 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5559,19 +5774,19 @@
         <v>39</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43">
@@ -5579,21 +5794,21 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>39</v>
@@ -5602,19 +5817,19 @@
         <v>39</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
@@ -5664,19 +5879,19 @@
         <v>39</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>58</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44">
@@ -5684,14 +5899,14 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
@@ -5707,19 +5922,19 @@
         <v>39</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
@@ -5745,13 +5960,13 @@
         <v>39</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="AB44" t="s" s="2">
         <v>39</v>
@@ -5769,7 +5984,7 @@
         <v>39</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>37</v>
@@ -5781,6 +5996,1892 @@
         <v>57</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="Q53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="Q60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>58</v>
       </c>
     </row>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>eclaire-review-date</t>
+    <t>eclaire-secondary-sponsor</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-review-date</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-secondary-sponsor</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,7 +42,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>ECLAIREReviewDate</t>
+    <t>ECLAIRESecondarySponsor</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-05T10:10:38+00:00</t>
+    <t>2023-07-10T12:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout d'une date de révision fonctionnelle lorque que l'on souhaite indiquer la date de la dernière modification substancielle</t>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -211,20 +211,89 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>eclaire-therapeutic-area</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-therapeutic-area</t>
+  </si>
+  <si>
+    <t>ECLAIRETherapeuticArea</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout du domaine thérapeutique concerné par l'essai</t>
+  </si>
+  <si>
+    <t>eclaire-recruitment-period</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-period</t>
+  </si>
+  <si>
+    <t>ECLAIRERecruitmentPeriod</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de la période prévisionnelle de recrutement l'essai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>eclaire-review-date</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-review-date</t>
+  </si>
+  <si>
+    <t>ECLAIREReviewDate</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout d'une date de révision fonctionnelle lorque que l'on souhaite indiquer la date de la dernière modification substancielle</t>
+  </si>
+  <si>
     <t xml:space="preserve">date
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>eclaire-contact-type</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-type</t>
+  </si>
+  <si>
+    <t>ECLAIREContactType</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact : Public ou Scientific</t>
+  </si>
+  <si>
+    <t>element:ResearchStudy.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-type-contact-vs</t>
+  </si>
+  <si>
     <t>eclaire-condition-details</t>
   </si>
   <si>
@@ -235,34 +304,6 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de précisions sur le sujet concerné par l'essai</t>
-  </si>
-  <si>
-    <t>eclaire-therapeutic-area</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-therapeutic-area</t>
-  </si>
-  <si>
-    <t>ECLAIRETherapeuticArea</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout du domaine thérapeutique concerné par l'essai</t>
-  </si>
-  <si>
-    <t>eclaire-secondary-sponsor</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-secondary-sponsor</t>
-  </si>
-  <si>
-    <t>ECLAIRESecondarySponsor</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>eclaire-researchstudy</t>
@@ -478,9 +519,6 @@
     <t>ResearchStudy.extension:eclaire-recruitment-period</t>
   </si>
   <si>
-    <t>eclaire-recruitment-period</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-period}
 </t>
   </si>
@@ -488,9 +526,6 @@
     <t>Période prévisionnelle de recrutement</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de la période prévisionnelle de recrutement l'essai</t>
-  </si>
-  <si>
     <t>ResearchStudy.extension:eclaire-secondary-sponsor</t>
   </si>
   <si>
@@ -585,9 +620,6 @@
     <t>usual</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
@@ -603,10 +635,6 @@
     <t>ResearchStudy.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -680,10 +708,6 @@
   </si>
   <si>
     <t>ResearchStudy.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Time period when id is/was valid for use</t>
@@ -812,7 +836,7 @@
     <t>ResearchStudy.status</t>
   </si>
   <si>
-    <t>Statut du recrutement / Recruitment Status</t>
+    <t>Statut de l'essai / Study Status</t>
   </si>
   <si>
     <t>The current state of the study.</t>
@@ -921,9 +945,6 @@
     <t>ResearchStudy.contact.extension:eclaire-contact-type</t>
   </si>
   <si>
-    <t>eclaire-contact-type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-type}
 </t>
   </si>
@@ -931,9 +952,6 @@
     <t>type de contact : Public ou Scientific</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact : Public ou Scientific</t>
-  </si>
-  <si>
     <t>ResearchStudy.contact.name</t>
   </si>
   <si>
@@ -1230,24 +1248,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/research-study-objective-type</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-type</t>
-  </si>
-  <si>
-    <t>ECLAIREContactType</t>
-  </si>
-  <si>
-    <t>element:ResearchStudy.contact</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-type-contact-vs</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-period</t>
-  </si>
-  <si>
-    <t>ECLAIRERecruitmentPeriod</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
@@ -1892,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
@@ -1960,7 +1960,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
@@ -2044,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
@@ -2052,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
@@ -2068,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90">
@@ -2120,7 +2120,7 @@
         <v>20</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
@@ -2148,7 +2148,7 @@
         <v>26</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
@@ -2156,7 +2156,7 @@
         <v>28</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -2164,7 +2164,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -2184,323 +2184,323 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="1">
+      <c r="A105" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B105" t="s" s="1">
+      <c r="B106" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>389</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>390</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B110" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>293</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B117" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B125" t="s" s="2">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="1">
+      <c r="B126" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B126" t="s" s="1">
+      <c r="B127" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>393</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>394</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B131" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B133" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B138" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>96</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>33</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4034,7 +4034,7 @@
         <v>38</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>64</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>29</v>
@@ -4143,7 +4143,7 @@
         <v>29</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>43</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>49</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>57</v>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="R19" s="2"/>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>38</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>62</v>
@@ -4551,7 +4551,7 @@
         <v>38</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>64</v>
@@ -4625,17 +4625,17 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
@@ -4657,14 +4657,12 @@
         <v>41</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>38</v>
@@ -4713,7 +4711,7 @@
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -4722,7 +4720,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -4730,13 +4728,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4756,20 +4754,18 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>38</v>
@@ -4818,7 +4814,7 @@
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -4835,13 +4831,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4852,7 +4848,7 @@
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
@@ -4861,16 +4857,16 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4909,42 +4905,42 @@
         <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4952,7 +4948,7 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>44</v>
@@ -4961,22 +4957,22 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -4984,7 +4980,7 @@
       </c>
       <c r="R24" s="2"/>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>38</v>
@@ -5026,30 +5022,30 @@
         <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5072,17 +5068,15 @@
         <v>38</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
         <v>38</v>
@@ -5107,13 +5101,11 @@
         <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="Z25" s="2"/>
       <c r="AA25" t="s" s="2">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>38</v>
@@ -5131,7 +5123,7 @@
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -5148,24 +5140,24 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
@@ -5177,17 +5169,15 @@
         <v>38</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
         <v>38</v>
@@ -5236,41 +5226,41 @@
         <v>38</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>38</v>
@@ -5282,17 +5272,15 @@
         <v>38</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>38</v>
@@ -5341,13 +5329,13 @@
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>38</v>
@@ -5358,24 +5346,24 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>38</v>
@@ -5390,14 +5378,12 @@
         <v>50</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>38</v>
@@ -5446,7 +5432,7 @@
         <v>54</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -5463,23 +5449,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>44</v>
@@ -5494,22 +5478,24 @@
         <v>38</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>38</v>
@@ -5551,34 +5537,32 @@
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>38</v>
       </c>
@@ -5599,13 +5583,13 @@
         <v>38</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5656,43 +5640,41 @@
         <v>38</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
@@ -5704,15 +5686,17 @@
         <v>38</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>38</v>
@@ -5761,7 +5745,7 @@
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -5770,25 +5754,23 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>38</v>
       </c>
@@ -5806,18 +5788,20 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>38</v>
@@ -5866,34 +5850,32 @@
         <v>38</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>38</v>
       </c>
@@ -5902,7 +5884,7 @@
         <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>38</v>
@@ -5911,16 +5893,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5971,66 +5953,64 @@
         <v>38</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>38</v>
       </c>
@@ -6066,42 +6046,42 @@
         <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6112,7 +6092,7 @@
         <v>39</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
@@ -6121,21 +6101,21 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>38</v>
       </c>
@@ -6159,37 +6139,37 @@
         <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>42</v>
@@ -6200,19 +6180,17 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
@@ -6222,27 +6200,27 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>38</v>
       </c>
@@ -6290,13 +6268,13 @@
         <v>38</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>42</v>
@@ -6307,24 +6285,24 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
@@ -6336,15 +6314,17 @@
         <v>38</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>38</v>
@@ -6393,13 +6373,13 @@
         <v>38</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>38</v>
@@ -6410,17 +6390,17 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
@@ -6442,13 +6422,13 @@
         <v>50</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
@@ -6498,7 +6478,7 @@
         <v>54</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
@@ -6515,21 +6495,23 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="E39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
@@ -6538,26 +6520,22 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>38</v>
       </c>
@@ -6566,7 +6544,7 @@
         <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>38</v>
@@ -6581,13 +6559,13 @@
         <v>38</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>38</v>
@@ -6605,32 +6583,34 @@
         <v>38</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="E40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6648,23 +6628,19 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>191</v>
-      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6688,13 +6664,13 @@
         <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>38</v>
@@ -6712,32 +6688,34 @@
         <v>38</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="E41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6755,23 +6733,19 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6783,7 +6757,7 @@
         <v>38</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="V41" t="s" s="2">
         <v>38</v>
@@ -6819,32 +6793,34 @@
         <v>38</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="E42" t="s" s="2">
         <v>38</v>
       </c>
@@ -6862,20 +6838,18 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>38</v>
@@ -6888,7 +6862,7 @@
         <v>38</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="V42" t="s" s="2">
         <v>38</v>
@@ -6924,32 +6898,34 @@
         <v>38</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E43" t="s" s="2">
         <v>38</v>
       </c>
@@ -6958,7 +6934,7 @@
         <v>39</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>38</v>
@@ -6967,20 +6943,18 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>38</v>
@@ -7029,64 +7003,66 @@
         <v>38</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>218</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="P44" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="Q44" t="s" s="2">
         <v>38</v>
       </c>
@@ -7122,46 +7098,44 @@
         <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>225</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>38</v>
       </c>
@@ -7173,26 +7147,26 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>38</v>
@@ -7229,19 +7203,19 @@
         <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -7258,15 +7232,17 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="E46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7278,25 +7254,27 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7344,41 +7322,41 @@
         <v>38</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>38</v>
@@ -7390,17 +7368,15 @@
         <v>38</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>38</v>
@@ -7437,78 +7413,76 @@
         <v>38</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>38</v>
       </c>
@@ -7517,7 +7491,7 @@
         <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>38</v>
@@ -7532,51 +7506,51 @@
         <v>38</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>186</v>
@@ -7587,7 +7561,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
@@ -7596,25 +7570,25 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="O49" t="s" s="2">
+      <c r="P49" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>38</v>
@@ -7624,7 +7598,7 @@
         <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>38</v>
@@ -7639,31 +7613,31 @@
         <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z49" t="s" s="2">
+      <c r="AA49" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AA49" t="s" s="2">
+      <c r="AB49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG49" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -7680,13 +7654,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7706,22 +7680,22 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="O50" t="s" s="2">
+      <c r="P50" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>38</v>
@@ -7734,25 +7708,25 @@
         <v>38</v>
       </c>
       <c r="U50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="V50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AA50" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>38</v>
@@ -7770,7 +7744,7 @@
         <v>38</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -7787,13 +7761,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7813,21 +7787,23 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="P51" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="Q51" t="s" s="2">
         <v>38</v>
       </c>
@@ -7839,7 +7815,7 @@
         <v>38</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="V51" t="s" s="2">
         <v>38</v>
@@ -7875,7 +7851,7 @@
         <v>38</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -7892,13 +7868,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7918,19 +7894,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
@@ -7944,7 +7920,7 @@
         <v>38</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="V52" t="s" s="2">
         <v>38</v>
@@ -7980,7 +7956,7 @@
         <v>38</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
@@ -7992,18 +7968,18 @@
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>218</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8023,19 +7999,19 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
@@ -8085,7 +8061,7 @@
         <v>38</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
@@ -8097,18 +8073,18 @@
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8128,19 +8104,19 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -8190,7 +8166,7 @@
         <v>38</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -8202,20 +8178,22 @@
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="E55" t="s" s="2">
         <v>38</v>
       </c>
@@ -8227,27 +8205,27 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P55" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>38</v>
       </c>
@@ -8295,7 +8273,7 @@
         <v>38</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
@@ -8307,29 +8285,29 @@
         <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>225</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>38</v>
@@ -8338,23 +8316,19 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>38</v>
       </c>
@@ -8402,62 +8376,62 @@
         <v>38</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>225</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
@@ -8483,54 +8457,54 @@
         <v>38</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="AB57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>253</v>
+        <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8538,7 +8512,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
@@ -8547,24 +8521,26 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="P58" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="Q58" t="s" s="2">
         <v>38</v>
       </c>
@@ -8573,7 +8549,7 @@
         <v>38</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>38</v>
@@ -8588,13 +8564,13 @@
         <v>38</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="AA58" t="s" s="2">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="AB58" t="s" s="2">
         <v>38</v>
@@ -8612,7 +8588,7 @@
         <v>38</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -8629,13 +8605,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8655,21 +8631,23 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="P59" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="Q59" t="s" s="2">
         <v>38</v>
       </c>
@@ -8693,13 +8671,13 @@
         <v>38</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="AB59" t="s" s="2">
         <v>38</v>
@@ -8717,7 +8695,7 @@
         <v>38</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -8734,13 +8712,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8751,7 +8729,7 @@
         <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>38</v>
@@ -8760,21 +8738,23 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="P60" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="Q60" t="s" s="2">
         <v>38</v>
       </c>
@@ -8786,7 +8766,7 @@
         <v>38</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="V60" t="s" s="2">
         <v>38</v>
@@ -8798,10 +8778,10 @@
         <v>38</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
@@ -8822,13 +8802,13 @@
         <v>38</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>42</v>
@@ -8839,13 +8819,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8856,7 +8836,7 @@
         <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>38</v>
@@ -8865,19 +8845,19 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8891,7 +8871,7 @@
         <v>38</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="V61" t="s" s="2">
         <v>38</v>
@@ -8903,10 +8883,10 @@
         <v>38</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -8927,13 +8907,13 @@
         <v>38</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>42</v>
@@ -8944,13 +8924,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8961,7 +8941,7 @@
         <v>39</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>38</v>
@@ -8970,19 +8950,19 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
@@ -9008,13 +8988,13 @@
         <v>38</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="AB62" t="s" s="2">
         <v>38</v>
@@ -9032,30 +9012,30 @@
         <v>38</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>66</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9066,7 +9046,7 @@
         <v>39</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>38</v>
@@ -9075,18 +9055,20 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>284</v>
+        <v>63</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>38</v>
@@ -9135,30 +9117,30 @@
         <v>38</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9178,18 +9160,20 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>38</v>
@@ -9238,7 +9222,7 @@
         <v>38</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
@@ -9247,25 +9231,25 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9281,19 +9265,19 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
@@ -9331,19 +9315,19 @@
         <v>38</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -9355,31 +9339,29 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>56</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="D66" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
@@ -9388,19 +9370,23 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="Q66" t="s" s="2">
         <v>38</v>
       </c>
@@ -9448,7 +9434,7 @@
         <v>38</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
@@ -9460,18 +9446,18 @@
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>56</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9479,7 +9465,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>44</v>
@@ -9488,22 +9474,22 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9529,13 +9515,13 @@
         <v>38</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="AB67" t="s" s="2">
         <v>38</v>
@@ -9553,10 +9539,10 @@
         <v>38</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>44</v>
@@ -9570,13 +9556,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9587,7 +9573,7 @@
         <v>39</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>38</v>
@@ -9596,18 +9582,20 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>38</v>
@@ -9632,13 +9620,13 @@
         <v>38</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="AB68" t="s" s="2">
         <v>38</v>
@@ -9656,30 +9644,30 @@
         <v>38</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>304</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9690,7 +9678,7 @@
         <v>39</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>38</v>
@@ -9699,19 +9687,19 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>306</v>
+        <v>86</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -9737,13 +9725,13 @@
         <v>38</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="AB69" t="s" s="2">
         <v>38</v>
@@ -9761,13 +9749,13 @@
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>42</v>
@@ -9778,13 +9766,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9804,19 +9792,19 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -9842,10 +9830,10 @@
         <v>38</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -9866,7 +9854,7 @@
         <v>38</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
@@ -9883,13 +9871,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9909,19 +9897,19 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
@@ -9947,13 +9935,13 @@
         <v>38</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>318</v>
+        <v>38</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>38</v>
@@ -9971,7 +9959,7 @@
         <v>38</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
@@ -9988,13 +9976,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10005,7 +9993,7 @@
         <v>39</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>38</v>
@@ -10014,19 +10002,19 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>320</v>
+        <v>86</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
@@ -10052,13 +10040,13 @@
         <v>38</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AB72" t="s" s="2">
         <v>38</v>
@@ -10076,13 +10064,13 @@
         <v>38</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>42</v>
@@ -10093,17 +10081,17 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
@@ -10119,20 +10107,18 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
         <v>38</v>
@@ -10181,7 +10167,7 @@
         <v>38</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
@@ -10193,22 +10179,22 @@
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>225</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -10224,20 +10210,18 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>332</v>
+        <v>46</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
         <v>38</v>
@@ -10286,7 +10270,7 @@
         <v>38</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>330</v>
+        <v>48</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
@@ -10295,32 +10279,32 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>38</v>
@@ -10329,19 +10313,19 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>335</v>
+        <v>146</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>336</v>
+        <v>184</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
@@ -10379,44 +10363,46 @@
         <v>38</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>334</v>
+        <v>55</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>225</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="D76" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="E76" t="s" s="2">
         <v>38</v>
       </c>
@@ -10434,20 +10420,18 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>38</v>
@@ -10496,30 +10480,30 @@
         <v>38</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>337</v>
+        <v>55</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>225</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10530,7 +10514,7 @@
         <v>39</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>38</v>
@@ -10539,19 +10523,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10601,30 +10585,30 @@
         <v>38</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>225</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10635,7 +10619,7 @@
         <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>38</v>
@@ -10644,20 +10628,18 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>38</v>
@@ -10682,13 +10664,13 @@
         <v>38</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>348</v>
+        <v>38</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>349</v>
+        <v>38</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>38</v>
@@ -10706,30 +10688,30 @@
         <v>38</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>66</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10752,16 +10734,16 @@
         <v>38</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10811,7 +10793,7 @@
         <v>38</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>39</v>
@@ -10828,13 +10810,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10854,18 +10836,20 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>356</v>
+        <v>86</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
         <v>38</v>
@@ -10890,10 +10874,10 @@
         <v>38</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>38</v>
@@ -10914,7 +10898,7 @@
         <v>38</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>39</v>
@@ -10931,13 +10915,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10948,7 +10932,7 @@
         <v>39</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>38</v>
@@ -10957,18 +10941,20 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>46</v>
+        <v>321</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>38</v>
@@ -10993,13 +10979,13 @@
         <v>38</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>38</v>
@@ -11017,41 +11003,41 @@
         <v>38</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
@@ -11063,16 +11049,16 @@
         <v>38</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>135</v>
+        <v>329</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -11110,46 +11096,46 @@
         <v>38</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>55</v>
+        <v>325</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" t="s" s="2">
@@ -11162,26 +11148,24 @@
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>50</v>
+        <v>332</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>38</v>
       </c>
@@ -11229,7 +11213,7 @@
         <v>38</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>39</v>
@@ -11241,26 +11225,26 @@
         <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>56</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>44</v>
@@ -11272,19 +11256,19 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -11334,10 +11318,10 @@
         <v>38</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>44</v>
@@ -11346,18 +11330,18 @@
         <v>42</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>66</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11377,19 +11361,19 @@
         <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
@@ -11439,7 +11423,7 @@
         <v>38</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>39</v>
@@ -11451,18 +11435,18 @@
         <v>42</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11482,19 +11466,19 @@
         <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11544,7 +11528,7 @@
         <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
@@ -11556,18 +11540,18 @@
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11587,18 +11571,20 @@
         <v>38</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
         <v>38</v>
@@ -11647,7 +11633,7 @@
         <v>38</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
@@ -11659,18 +11645,18 @@
         <v>42</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11690,18 +11676,20 @@
         <v>38</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>46</v>
+        <v>352</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
         <v>38</v>
@@ -11726,13 +11714,13 @@
         <v>38</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>38</v>
+        <v>354</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="AB88" t="s" s="2">
         <v>38</v>
@@ -11750,7 +11738,7 @@
         <v>38</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>48</v>
+        <v>351</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
@@ -11759,25 +11747,25 @@
         <v>44</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
@@ -11796,16 +11784,16 @@
         <v>38</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>133</v>
+        <v>358</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -11843,19 +11831,19 @@
         <v>38</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>55</v>
+        <v>356</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
@@ -11867,22 +11855,22 @@
         <v>42</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -11895,13 +11883,13 @@
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>50</v>
+        <v>362</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>363</v>
@@ -11909,12 +11897,8 @@
       <c r="N90" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="O90" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
         <v>38</v>
       </c>
@@ -11962,7 +11946,7 @@
         <v>38</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>39</v>
@@ -11974,18 +11958,18 @@
         <v>42</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12011,14 +11995,12 @@
         <v>45</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>382</v>
+        <v>46</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>38</v>
@@ -12067,7 +12049,7 @@
         <v>38</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>381</v>
+        <v>48</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>39</v>
@@ -12076,32 +12058,32 @@
         <v>44</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>38</v>
@@ -12113,16 +12095,16 @@
         <v>38</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>385</v>
+        <v>146</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>386</v>
+        <v>184</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -12148,58 +12130,58 @@
         <v>38</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>387</v>
+        <v>38</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>384</v>
+        <v>55</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
@@ -12212,22 +12194,26 @@
         <v>38</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="Q93" t="s" s="2">
         <v>38</v>
       </c>
@@ -12275,7 +12261,7 @@
         <v>38</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>29</v>
+        <v>371</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
@@ -12287,18 +12273,18 @@
         <v>42</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12306,7 +12292,7 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>44</v>
@@ -12324,12 +12310,14 @@
         <v>45</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>38</v>
@@ -12378,30 +12366,30 @@
         <v>38</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>48</v>
+        <v>372</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>49</v>
+        <v>375</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>49</v>
+        <v>375</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12412,7 +12400,7 @@
         <v>39</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>38</v>
@@ -12424,15 +12412,17 @@
         <v>38</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>38</v>
@@ -12469,42 +12459,42 @@
         <v>38</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>55</v>
+        <v>375</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12512,7 +12502,7 @@
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>44</v>
@@ -12527,16 +12517,16 @@
         <v>38</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>59</v>
+        <v>379</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12544,7 +12534,7 @@
       </c>
       <c r="R96" s="2"/>
       <c r="S96" t="s" s="2">
-        <v>389</v>
+        <v>38</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>38</v>
@@ -12586,30 +12576,30 @@
         <v>38</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12620,7 +12610,7 @@
         <v>39</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>38</v>
@@ -12632,13 +12622,13 @@
         <v>38</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>187</v>
+        <v>362</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>64</v>
+        <v>382</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>65</v>
+        <v>383</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -12665,11 +12655,13 @@
         <v>38</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Z97" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA97" t="s" s="2">
-        <v>392</v>
+        <v>38</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>38</v>
@@ -12687,13 +12679,13 @@
         <v>38</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>42</v>
@@ -12704,13 +12696,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>29</v>
+        <v>384</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>29</v>
+        <v>384</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12721,7 +12713,7 @@
         <v>39</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>38</v>
@@ -12733,13 +12725,13 @@
         <v>38</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12790,16 +12782,16 @@
         <v>38</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>38</v>
@@ -12807,24 +12799,24 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>38</v>
@@ -12836,15 +12828,17 @@
         <v>38</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>38</v>
@@ -12881,74 +12875,78 @@
         <v>38</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>49</v>
+        <v>386</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>49</v>
+        <v>386</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="Q100" t="s" s="2">
         <v>38</v>
       </c>
@@ -12984,19 +12982,19 @@
         <v>38</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>55</v>
+        <v>371</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>39</v>
@@ -13013,13 +13011,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13027,7 +13025,7 @@
       </c>
       <c r="F101" s="2"/>
       <c r="G101" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>44</v>
@@ -13042,16 +13040,16 @@
         <v>38</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>60</v>
+        <v>389</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -13059,7 +13057,7 @@
       </c>
       <c r="R101" s="2"/>
       <c r="S101" t="s" s="2">
-        <v>393</v>
+        <v>38</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>38</v>
@@ -13101,30 +13099,30 @@
         <v>38</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>62</v>
+        <v>390</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>62</v>
+        <v>390</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13147,15 +13145,17 @@
         <v>38</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>64</v>
+        <v>391</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
         <v>38</v>
@@ -13180,13 +13180,13 @@
         <v>38</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>38</v>
+        <v>393</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="AB102" t="s" s="2">
         <v>38</v>
@@ -13204,7 +13204,7 @@
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>62</v>
+        <v>390</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>39</v>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T12:01:19+00:00</t>
+    <t>2023-07-12T08:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:58:08+00:00</t>
+    <t>2023-07-13T07:04:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T07:04:15+00:00</t>
+    <t>2023-07-21T09:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T09:40:10+00:00</t>
+    <t>2023-07-21T12:39:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="421">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T12:39:50+00:00</t>
+    <t>2023-07-26T16:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,96 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout du domaine thérapeutique concerné par l'essai</t>
   </si>
   <si>
+    <t>eclaire-label</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-label</t>
+  </si>
+  <si>
+    <t>ECLAIRELabel</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de plusieurs titres pour l'essai</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelType</t>
+  </si>
+  <si>
+    <t>labelType</t>
+  </si>
+  <si>
+    <t>primary | official | plain-language | subtitle | short-title | acronym | earlier-title | language | auto-translated | human-use | machine-use</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelType.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelType.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelType.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelType.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/title-type</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelValue</t>
+  </si>
+  <si>
+    <t>labelValue</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelValue.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelValue.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelValue.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelValue.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
     <t>eclaire-recruitment-period</t>
   </si>
   <si>
@@ -284,10 +374,6 @@
     <t>element:ResearchStudy.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -470,17 +556,7 @@
     <t>ResearchStudy.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -536,6 +612,16 @@
     <t>Promoteur(s) secondaire(s) / Secondary Sponsor(s)</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-label}
+</t>
+  </si>
+  <si>
+    <t>autres titres et acronyme / Additional names for the study</t>
+  </si>
+  <si>
     <t>ResearchStudy.modifierExtension</t>
   </si>
   <si>
@@ -596,9 +682,6 @@
     <t>ResearchStudy.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>ResearchStudy.identifier:idPrimary.use</t>
   </si>
   <si>
@@ -617,7 +700,7 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>usual</t>
+    <t>official</t>
   </si>
   <si>
     <t>Identifies the purpose for this identifier, if known .</t>
@@ -645,9 +728,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -788,7 +868,7 @@
     <t>ResearchStudy.title</t>
   </si>
   <si>
-    <t>Nom de l'étude / Public Title</t>
+    <t>Nom scientifique de l'étude / Scientific Title</t>
   </si>
   <si>
     <t>A short, descriptive user-friendly label for the study.</t>
@@ -1381,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1884,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
@@ -1892,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67">
@@ -1908,7 +1988,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
@@ -1960,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76">
@@ -2044,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87">
@@ -2052,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88">
@@ -2068,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90">
@@ -2120,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97">
@@ -2188,7 +2268,7 @@
         <v>36</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106">
@@ -2204,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
@@ -2212,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
@@ -2228,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
@@ -2280,7 +2360,7 @@
         <v>20</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
@@ -2348,7 +2428,7 @@
         <v>36</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>37</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127">
@@ -2364,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
@@ -2372,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
@@ -2388,7 +2468,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>95</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
@@ -2440,7 +2520,7 @@
         <v>20</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139">
@@ -2468,7 +2548,7 @@
         <v>26</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>97</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
@@ -2476,7 +2556,7 @@
         <v>28</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
@@ -2484,7 +2564,7 @@
         <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -2500,6 +2580,166 @@
         <v>34</v>
       </c>
       <c r="B146" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B167" t="s" s="2">
         <v>35</v>
       </c>
     </row>
@@ -2510,7 +2750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK102"/>
+  <dimension ref="A1:AK118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3807,14 +4047,14 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>38</v>
@@ -3829,12 +4069,14 @@
         <v>50</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>38</v>
@@ -3903,18 +4145,20 @@
         <v>71</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="E14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>44</v>
@@ -3929,24 +4173,22 @@
         <v>38</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>38</v>
@@ -3988,19 +4230,19 @@
         <v>38</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -4008,10 +4250,10 @@
         <v>71</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -4034,13 +4276,13 @@
         <v>38</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4091,7 +4333,7 @@
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -4100,21 +4342,21 @@
         <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4125,7 +4367,7 @@
         <v>39</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>38</v>
@@ -4137,13 +4379,13 @@
         <v>38</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4182,19 +4424,19 @@
         <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
@@ -4206,18 +4448,18 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4225,7 +4467,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>44</v>
@@ -4240,22 +4482,24 @@
         <v>38</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>38</v>
@@ -4297,10 +4541,10 @@
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>44</v>
@@ -4314,13 +4558,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4331,7 +4575,7 @@
         <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>38</v>
@@ -4343,13 +4587,13 @@
         <v>38</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4376,62 +4620,62 @@
         <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="Z18" s="2"/>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="E19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>44</v>
@@ -4446,24 +4690,22 @@
         <v>38</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>38</v>
@@ -4505,30 +4747,30 @@
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4551,13 +4793,13 @@
         <v>38</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -4608,7 +4850,7 @@
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -4617,21 +4859,21 @@
         <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4642,7 +4884,7 @@
         <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>38</v>
@@ -4654,13 +4896,13 @@
         <v>38</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4699,19 +4941,19 @@
         <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -4723,18 +4965,18 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4742,7 +4984,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>44</v>
@@ -4757,22 +4999,24 @@
         <v>38</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>38</v>
@@ -4814,10 +5058,10 @@
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>44</v>
@@ -4831,13 +5075,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4848,7 +5092,7 @@
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
@@ -4860,13 +5104,13 @@
         <v>38</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4905,36 +5149,36 @@
         <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>57</v>
@@ -4980,7 +5224,7 @@
       </c>
       <c r="R24" s="2"/>
       <c r="S24" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>38</v>
@@ -5039,7 +5283,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>62</v>
@@ -5056,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>38</v>
@@ -5068,7 +5312,7 @@
         <v>38</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>64</v>
@@ -5101,11 +5345,13 @@
         <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="Z25" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA25" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>38</v>
@@ -5140,7 +5386,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>29</v>
@@ -5175,7 +5421,7 @@
         <v>29</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -5243,7 +5489,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>43</v>
@@ -5346,7 +5592,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>49</v>
@@ -5449,7 +5695,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>57</v>
@@ -5495,7 +5741,7 @@
       </c>
       <c r="R29" s="2"/>
       <c r="S29" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>38</v>
@@ -5554,7 +5800,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>62</v>
@@ -5583,7 +5829,7 @@
         <v>38</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>64</v>
@@ -5657,17 +5903,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
@@ -5689,14 +5935,12 @@
         <v>41</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>38</v>
@@ -5745,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -5754,7 +5998,7 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5762,13 +6006,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5788,20 +6032,18 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>38</v>
@@ -5850,7 +6092,7 @@
         <v>38</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -5867,13 +6109,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5884,7 +6126,7 @@
         <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>38</v>
@@ -5893,16 +6135,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5941,42 +6183,42 @@
         <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5984,7 +6226,7 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>44</v>
@@ -5993,22 +6235,22 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
@@ -6016,7 +6258,7 @@
       </c>
       <c r="R34" s="2"/>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>38</v>
@@ -6058,30 +6300,30 @@
         <v>38</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6104,17 +6346,15 @@
         <v>38</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>38</v>
@@ -6139,13 +6379,13 @@
         <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>38</v>
@@ -6163,7 +6403,7 @@
         <v>38</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
@@ -6180,24 +6420,24 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>38</v>
@@ -6209,17 +6449,15 @@
         <v>38</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>38</v>
@@ -6268,41 +6506,41 @@
         <v>38</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
@@ -6314,17 +6552,15 @@
         <v>38</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>38</v>
@@ -6373,13 +6609,13 @@
         <v>38</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>38</v>
@@ -6390,24 +6626,24 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
@@ -6422,14 +6658,12 @@
         <v>50</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>38</v>
@@ -6478,7 +6712,7 @@
         <v>54</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
@@ -6495,23 +6729,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
@@ -6526,22 +6758,24 @@
         <v>38</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>38</v>
@@ -6583,34 +6817,32 @@
         <v>38</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6631,13 +6863,13 @@
         <v>38</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6664,13 +6896,11 @@
         <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Z40" s="2"/>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>38</v>
@@ -6688,34 +6918,32 @@
         <v>38</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6724,7 +6952,7 @@
         <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>38</v>
@@ -6736,13 +6964,13 @@
         <v>38</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6793,7 +7021,7 @@
         <v>38</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
@@ -6805,22 +7033,20 @@
         <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>38</v>
       </c>
@@ -6841,13 +7067,13 @@
         <v>38</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -6898,34 +7124,32 @@
         <v>38</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>38</v>
       </c>
@@ -6934,7 +7158,7 @@
         <v>39</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>38</v>
@@ -6946,13 +7170,13 @@
         <v>38</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -6991,19 +7215,19 @@
         <v>38</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
@@ -7020,55 +7244,53 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>38</v>
@@ -7098,42 +7320,42 @@
         <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7144,7 +7366,7 @@
         <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>38</v>
@@ -7153,21 +7375,19 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>38</v>
       </c>
@@ -7203,25 +7423,25 @@
         <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>42</v>
@@ -7232,49 +7452,47 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7322,7 +7540,7 @@
         <v>38</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
@@ -7331,21 +7549,21 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7365,18 +7583,20 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>38</v>
@@ -7425,7 +7645,7 @@
         <v>38</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -7442,24 +7662,24 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>38</v>
@@ -7468,20 +7688,18 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>38</v>
@@ -7518,42 +7736,42 @@
         <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7561,7 +7779,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
@@ -7570,26 +7788,24 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7598,7 +7814,7 @@
         <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>38</v>
@@ -7613,13 +7829,13 @@
         <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>38</v>
@@ -7637,7 +7853,7 @@
         <v>38</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -7654,13 +7870,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7680,23 +7896,21 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
         <v>38</v>
       </c>
@@ -7720,13 +7934,13 @@
         <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>38</v>
@@ -7744,7 +7958,7 @@
         <v>38</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -7761,17 +7975,17 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
@@ -7787,23 +8001,21 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
         <v>38</v>
       </c>
@@ -7815,7 +8027,7 @@
         <v>38</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="V51" t="s" s="2">
         <v>38</v>
@@ -7851,7 +8063,7 @@
         <v>38</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -7868,24 +8080,24 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>38</v>
@@ -7894,19 +8106,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
@@ -7920,7 +8132,7 @@
         <v>38</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="V52" t="s" s="2">
         <v>38</v>
@@ -7956,41 +8168,41 @@
         <v>38</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>38</v>
@@ -7999,19 +8211,19 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
@@ -8049,44 +8261,46 @@
         <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>226</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E54" t="s" s="2">
         <v>38</v>
       </c>
@@ -8104,20 +8318,18 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>38</v>
@@ -8166,33 +8378,33 @@
         <v>38</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>233</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="E55" t="s" s="2">
         <v>38</v>
@@ -8202,30 +8414,28 @@
         <v>39</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>38</v>
       </c>
@@ -8273,7 +8483,7 @@
         <v>38</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
@@ -8285,20 +8495,22 @@
         <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="E56" t="s" s="2">
         <v>38</v>
       </c>
@@ -8319,13 +8531,13 @@
         <v>38</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8376,41 +8588,43 @@
         <v>38</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="E57" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>38</v>
@@ -8422,17 +8636,15 @@
         <v>38</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>38</v>
@@ -8469,19 +8681,19 @@
         <v>38</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -8498,49 +8710,47 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="D58" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>38</v>
       </c>
@@ -8549,7 +8759,7 @@
         <v>38</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>38</v>
@@ -8564,13 +8774,13 @@
         <v>38</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="AB58" t="s" s="2">
         <v>38</v>
@@ -8588,32 +8798,34 @@
         <v>38</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="E59" t="s" s="2">
         <v>38</v>
       </c>
@@ -8622,7 +8834,7 @@
         <v>39</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>38</v>
@@ -8631,23 +8843,19 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
         <v>38</v>
       </c>
@@ -8671,13 +8879,13 @@
         <v>38</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="AB59" t="s" s="2">
         <v>38</v>
@@ -8695,65 +8903,65 @@
         <v>38</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="Q60" t="s" s="2">
         <v>38</v>
@@ -8766,7 +8974,7 @@
         <v>38</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="V60" t="s" s="2">
         <v>38</v>
@@ -8790,42 +8998,42 @@
         <v>38</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8836,7 +9044,7 @@
         <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>38</v>
@@ -8845,21 +9053,21 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="P61" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="Q61" t="s" s="2">
         <v>38</v>
       </c>
@@ -8871,7 +9079,7 @@
         <v>38</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="V61" t="s" s="2">
         <v>38</v>
@@ -8895,25 +9103,25 @@
         <v>38</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>42</v>
@@ -8924,15 +9132,17 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="E62" t="s" s="2">
         <v>38</v>
       </c>
@@ -8944,27 +9154,27 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="P62" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="Q62" t="s" s="2">
         <v>38</v>
       </c>
@@ -9012,30 +9222,30 @@
         <v>38</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>226</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9055,20 +9265,18 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>38</v>
@@ -9117,7 +9325,7 @@
         <v>38</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
@@ -9126,32 +9334,32 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>38</v>
@@ -9160,19 +9368,19 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -9210,42 +9418,42 @@
         <v>38</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9253,33 +9461,35 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="P65" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="Q65" t="s" s="2">
         <v>38</v>
       </c>
@@ -9288,7 +9498,7 @@
         <v>38</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>38</v>
@@ -9303,13 +9513,13 @@
         <v>38</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AB65" t="s" s="2">
         <v>38</v>
@@ -9327,41 +9537,41 @@
         <v>38</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
@@ -9370,22 +9580,22 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>257</v>
+        <v>90</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="P66" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="Q66" t="s" s="2">
         <v>38</v>
@@ -9410,13 +9620,13 @@
         <v>38</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>38</v>
@@ -9434,30 +9644,30 @@
         <v>38</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9465,7 +9675,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>44</v>
@@ -9474,24 +9684,26 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="P67" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="Q67" t="s" s="2">
         <v>38</v>
       </c>
@@ -9503,7 +9715,7 @@
         <v>38</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="V67" t="s" s="2">
         <v>38</v>
@@ -9515,13 +9727,13 @@
         <v>38</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="AB67" t="s" s="2">
         <v>38</v>
@@ -9539,10 +9751,10 @@
         <v>38</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>44</v>
@@ -9556,13 +9768,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9582,19 +9794,19 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
@@ -9608,7 +9820,7 @@
         <v>38</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="V68" t="s" s="2">
         <v>38</v>
@@ -9620,13 +9832,13 @@
         <v>38</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="AB68" t="s" s="2">
         <v>38</v>
@@ -9644,7 +9856,7 @@
         <v>38</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
@@ -9661,13 +9873,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9687,19 +9899,19 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -9725,13 +9937,13 @@
         <v>38</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AB69" t="s" s="2">
         <v>38</v>
@@ -9749,7 +9961,7 @@
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
@@ -9761,18 +9973,18 @@
         <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>66</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9783,7 +9995,7 @@
         <v>39</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>38</v>
@@ -9792,19 +10004,19 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -9830,10 +10042,10 @@
         <v>38</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -9854,32 +10066,34 @@
         <v>38</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>66</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="E71" t="s" s="2">
         <v>38</v>
       </c>
@@ -9891,27 +10105,27 @@
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="P71" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="Q71" t="s" s="2">
         <v>38</v>
       </c>
@@ -9935,10 +10149,10 @@
         <v>38</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>38</v>
@@ -9959,7 +10173,7 @@
         <v>38</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>282</v>
+        <v>198</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
@@ -9976,13 +10190,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9993,7 +10207,7 @@
         <v>39</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>38</v>
@@ -10002,20 +10216,18 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
         <v>38</v>
@@ -10040,13 +10252,13 @@
         <v>38</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AB72" t="s" s="2">
         <v>38</v>
@@ -10064,34 +10276,34 @@
         <v>38</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>286</v>
+        <v>48</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
@@ -10107,18 +10319,20 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>292</v>
+        <v>50</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
         <v>38</v>
@@ -10155,19 +10369,19 @@
         <v>38</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
@@ -10179,18 +10393,18 @@
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10198,7 +10412,7 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
@@ -10207,22 +10421,26 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="Q74" t="s" s="2">
         <v>38</v>
       </c>
@@ -10231,7 +10449,7 @@
         <v>38</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>38</v>
@@ -10246,13 +10464,13 @@
         <v>38</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AB74" t="s" s="2">
         <v>38</v>
@@ -10270,7 +10488,7 @@
         <v>38</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>221</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
@@ -10279,32 +10497,32 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>38</v>
@@ -10313,21 +10531,23 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P75" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="Q75" t="s" s="2">
         <v>38</v>
       </c>
@@ -10351,58 +10571,56 @@
         <v>38</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="AB75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>38</v>
       </c>
@@ -10420,19 +10638,23 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>298</v>
+        <v>58</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="Q76" t="s" s="2">
         <v>38</v>
       </c>
@@ -10444,7 +10666,7 @@
         <v>38</v>
       </c>
       <c r="U76" t="s" s="2">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="V76" t="s" s="2">
         <v>38</v>
@@ -10480,30 +10702,30 @@
         <v>38</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10523,19 +10745,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10549,7 +10771,7 @@
         <v>38</v>
       </c>
       <c r="U77" t="s" s="2">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="V77" t="s" s="2">
         <v>38</v>
@@ -10585,7 +10807,7 @@
         <v>38</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
@@ -10602,13 +10824,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10619,7 +10841,7 @@
         <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>38</v>
@@ -10628,18 +10850,20 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>38</v>
@@ -10688,30 +10912,30 @@
         <v>38</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>310</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10722,7 +10946,7 @@
         <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>38</v>
@@ -10731,19 +10955,19 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>312</v>
+        <v>63</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10793,30 +11017,30 @@
         <v>38</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>66</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10827,7 +11051,7 @@
         <v>39</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>38</v>
@@ -10836,19 +11060,19 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -10874,10 +11098,10 @@
         <v>38</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>319</v>
+        <v>38</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>38</v>
@@ -10898,13 +11122,13 @@
         <v>38</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>42</v>
@@ -10915,13 +11139,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10941,19 +11165,19 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
@@ -10979,13 +11203,13 @@
         <v>38</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>38</v>
@@ -11003,7 +11227,7 @@
         <v>38</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>39</v>
@@ -11015,29 +11239,29 @@
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>66</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
@@ -11046,21 +11270,23 @@
         <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="P82" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="Q82" t="s" s="2">
         <v>38</v>
       </c>
@@ -11108,62 +11334,62 @@
         <v>38</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>66</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
@@ -11189,13 +11415,13 @@
         <v>38</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>38</v>
@@ -11213,34 +11439,34 @@
         <v>38</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" t="s" s="2">
@@ -11256,19 +11482,19 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -11294,13 +11520,13 @@
         <v>38</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AB84" t="s" s="2">
         <v>38</v>
@@ -11318,7 +11544,7 @@
         <v>38</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>39</v>
@@ -11330,18 +11556,18 @@
         <v>42</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>226</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11361,19 +11587,19 @@
         <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
@@ -11399,13 +11625,13 @@
         <v>38</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>38</v>
@@ -11423,7 +11649,7 @@
         <v>38</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>39</v>
@@ -11435,18 +11661,18 @@
         <v>42</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11457,7 +11683,7 @@
         <v>39</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>38</v>
@@ -11466,19 +11692,19 @@
         <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11504,10 +11730,10 @@
         <v>38</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>38</v>
@@ -11528,30 +11754,30 @@
         <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11571,19 +11797,19 @@
         <v>38</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>348</v>
+        <v>90</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -11609,10 +11835,10 @@
         <v>38</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>38</v>
+        <v>311</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>38</v>
@@ -11633,7 +11859,7 @@
         <v>38</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
@@ -11645,18 +11871,18 @@
         <v>42</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11667,7 +11893,7 @@
         <v>39</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>38</v>
@@ -11676,19 +11902,19 @@
         <v>38</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11714,13 +11940,13 @@
         <v>38</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="AB88" t="s" s="2">
         <v>38</v>
@@ -11738,13 +11964,13 @@
         <v>38</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>42</v>
@@ -11755,13 +11981,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11781,20 +12007,18 @@
         <v>38</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>38</v>
@@ -11843,7 +12067,7 @@
         <v>38</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
@@ -11860,13 +12084,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11877,7 +12101,7 @@
         <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>38</v>
@@ -11889,13 +12113,13 @@
         <v>38</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>363</v>
+        <v>46</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>364</v>
+        <v>47</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11946,41 +12170,41 @@
         <v>38</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>361</v>
+        <v>48</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>38</v>
@@ -11992,15 +12216,17 @@
         <v>38</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>38</v>
@@ -12037,53 +12263,55 @@
         <v>38</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="D92" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="E92" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>38</v>
@@ -12095,17 +12323,15 @@
         <v>38</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
         <v>38</v>
@@ -12142,16 +12368,16 @@
         <v>38</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>55</v>
@@ -12171,49 +12397,47 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>368</v>
+        <v>38</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>38</v>
       </c>
@@ -12261,30 +12485,30 @@
         <v>38</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12292,10 +12516,10 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>38</v>
@@ -12304,20 +12528,18 @@
         <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>38</v>
@@ -12366,30 +12588,30 @@
         <v>38</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>66</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12400,7 +12622,7 @@
         <v>39</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>38</v>
@@ -12412,16 +12634,16 @@
         <v>38</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -12471,13 +12693,13 @@
         <v>38</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>42</v>
@@ -12488,13 +12710,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12505,7 +12727,7 @@
         <v>39</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>38</v>
@@ -12514,19 +12736,19 @@
         <v>38</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12552,10 +12774,10 @@
         <v>38</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>38</v>
+        <v>345</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>38</v>
@@ -12576,13 +12798,13 @@
         <v>38</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>42</v>
@@ -12593,13 +12815,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12619,18 +12841,20 @@
         <v>38</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>362</v>
+        <v>90</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>38</v>
@@ -12655,13 +12879,13 @@
         <v>38</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>38</v>
@@ -12679,7 +12903,7 @@
         <v>38</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
@@ -12696,13 +12920,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12725,15 +12949,17 @@
         <v>38</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>38</v>
@@ -12782,7 +13008,7 @@
         <v>38</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>48</v>
+        <v>351</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
@@ -12791,25 +13017,25 @@
         <v>44</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>145</v>
+        <v>357</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
@@ -12825,19 +13051,19 @@
         <v>38</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>146</v>
+        <v>359</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>184</v>
+        <v>360</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
@@ -12875,19 +13101,19 @@
         <v>38</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>55</v>
+        <v>356</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>39</v>
@@ -12899,54 +13125,52 @@
         <v>42</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>56</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
         <v>38</v>
       </c>
@@ -12994,30 +13218,30 @@
         <v>38</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>56</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13037,19 +13261,19 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -13099,7 +13323,7 @@
         <v>38</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>39</v>
@@ -13111,18 +13335,18 @@
         <v>42</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>66</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13142,19 +13366,19 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>86</v>
+        <v>370</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -13180,13 +13404,13 @@
         <v>38</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>393</v>
+        <v>38</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="AB102" t="s" s="2">
         <v>38</v>
@@ -13204,7 +13428,7 @@
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>39</v>
@@ -13216,6 +13440,1682 @@
         <v>42</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Q109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R112" s="2"/>
+      <c r="S112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R113" s="2"/>
+      <c r="S113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R114" s="2"/>
+      <c r="S114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R115" s="2"/>
+      <c r="S115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Q116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R116" s="2"/>
+      <c r="S116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R118" s="2"/>
+      <c r="S118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK118" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T16:31:52+00:00</t>
+    <t>2023-07-27T08:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T08:05:38+00:00</t>
+    <t>2023-07-27T08:46:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1098,7 +1098,7 @@
     <t>ResearchStudy.location</t>
   </si>
   <si>
-    <t>Geographic region(s) for study</t>
+    <t>Pays de recrutement / Countries of Recruitment</t>
   </si>
   <si>
     <t>Indicates a country, state or other region where the study is taking place.</t>
@@ -1162,7 +1162,7 @@
     <t>ResearchStudy.sponsor</t>
   </si>
   <si>
-    <t>promoteur / primary Sponsor</t>
+    <t>Promoteur / primary Sponsor</t>
   </si>
   <si>
     <t>An organization that initiates the investigation and is legally responsible for the study.</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T08:46:09+00:00</t>
+    <t>2023-07-27T08:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T08:48:31+00:00</t>
+    <t>2023-07-27T13:16:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:16:51+00:00</t>
+    <t>2023-07-27T15:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5953" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="590">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T08:09:21+00:00</t>
+    <t>2023-07-28T15:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1493,10 +1493,7 @@
     <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
   </si>
   <si>
-    <t>Codes for the stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-phase</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-phase-vs</t>
   </si>
   <si>
     <t>ResearchStudy.category</t>
@@ -3438,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="191">
@@ -3454,7 +3451,7 @@
         <v>8</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="193">
@@ -3574,7 +3571,7 @@
         <v>36</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3613,7 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="124.69140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="106.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="71.38671875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="11.08203125" customWidth="true" bestFit="true"/>
@@ -17402,13 +17399,11 @@
         <v>38</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Z132" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z132" s="2"/>
+      <c r="AA132" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AB132" t="s" s="2">
         <v>38</v>
@@ -17446,10 +17441,10 @@
         <v>343</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17475,10 +17470,10 @@
         <v>170</v>
       </c>
       <c r="M133" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N133" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>173</v>
@@ -17510,7 +17505,7 @@
         <v>232</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>38</v>
@@ -17531,7 +17526,7 @@
         <v>38</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>39</v>
@@ -17551,10 +17546,10 @@
         <v>343</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17580,10 +17575,10 @@
         <v>170</v>
       </c>
       <c r="M134" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>173</v>
@@ -17615,7 +17610,7 @@
         <v>232</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>38</v>
@@ -17636,7 +17631,7 @@
         <v>38</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>39</v>
@@ -17656,10 +17651,10 @@
         <v>343</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17685,10 +17680,10 @@
         <v>170</v>
       </c>
       <c r="M135" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>173</v>
@@ -17720,11 +17715,11 @@
         <v>232</v>
       </c>
       <c r="Z135" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AA135" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AA135" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="AB135" t="s" s="2">
         <v>38</v>
       </c>
@@ -17741,7 +17736,7 @@
         <v>38</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>39</v>
@@ -17761,10 +17756,10 @@
         <v>343</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17787,13 +17782,13 @@
         <v>81</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -17844,7 +17839,7 @@
         <v>38</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>39</v>
@@ -17864,10 +17859,10 @@
         <v>343</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17967,10 +17962,10 @@
         <v>343</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18072,10 +18067,10 @@
         <v>343</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>333</v>
@@ -18100,10 +18095,10 @@
         <v>38</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N139" t="s" s="2">
         <v>336</v>
@@ -18177,10 +18172,10 @@
         <v>343</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18206,13 +18201,13 @@
         <v>45</v>
       </c>
       <c r="M140" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="N140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
@@ -18262,7 +18257,7 @@
         <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
@@ -18282,10 +18277,10 @@
         <v>343</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18311,10 +18306,10 @@
         <v>177</v>
       </c>
       <c r="M141" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -18365,7 +18360,7 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
@@ -18377,7 +18372,7 @@
         <v>42</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="142">
@@ -18385,10 +18380,10 @@
         <v>343</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18411,16 +18406,16 @@
         <v>38</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="N142" t="s" s="2">
+      <c r="O142" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
@@ -18470,7 +18465,7 @@
         <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
@@ -18490,10 +18485,10 @@
         <v>343</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18519,10 +18514,10 @@
         <v>170</v>
       </c>
       <c r="M143" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>173</v>
@@ -18554,7 +18549,7 @@
         <v>232</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>38</v>
@@ -18575,7 +18570,7 @@
         <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
@@ -18595,10 +18590,10 @@
         <v>343</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18624,10 +18619,10 @@
         <v>170</v>
       </c>
       <c r="M144" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N144" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>173</v>
@@ -18659,11 +18654,11 @@
         <v>174</v>
       </c>
       <c r="Z144" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AA144" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AA144" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AB144" t="s" s="2">
         <v>38</v>
       </c>
@@ -18680,7 +18675,7 @@
         <v>38</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>39</v>
@@ -18700,10 +18695,10 @@
         <v>343</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18726,16 +18721,16 @@
         <v>38</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="N145" t="s" s="2">
+      <c r="O145" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
@@ -18785,7 +18780,7 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>39</v>
@@ -18805,14 +18800,14 @@
         <v>343</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" t="s" s="2">
@@ -18831,16 +18826,16 @@
         <v>81</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
@@ -18890,7 +18885,7 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>39</v>
@@ -18910,14 +18905,14 @@
         <v>343</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
@@ -18939,10 +18934,10 @@
         <v>216</v>
       </c>
       <c r="M147" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>219</v>
@@ -18995,7 +18990,7 @@
         <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>39</v>
@@ -19015,10 +19010,10 @@
         <v>343</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19044,10 +19039,10 @@
         <v>63</v>
       </c>
       <c r="M148" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>268</v>
@@ -19100,7 +19095,7 @@
         <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
@@ -19120,10 +19115,10 @@
         <v>343</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19146,13 +19141,13 @@
         <v>81</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>268</v>
@@ -19205,7 +19200,7 @@
         <v>38</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>39</v>
@@ -19225,10 +19220,10 @@
         <v>343</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19254,10 +19249,10 @@
         <v>265</v>
       </c>
       <c r="M150" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>268</v>
@@ -19310,7 +19305,7 @@
         <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
@@ -19330,10 +19325,10 @@
         <v>343</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19359,10 +19354,10 @@
         <v>170</v>
       </c>
       <c r="M151" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>173</v>
@@ -19394,11 +19389,11 @@
         <v>232</v>
       </c>
       <c r="Z151" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AA151" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="AA151" t="s" s="2">
-        <v>552</v>
-      </c>
       <c r="AB151" t="s" s="2">
         <v>38</v>
       </c>
@@ -19415,7 +19410,7 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
@@ -19435,10 +19430,10 @@
         <v>343</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19461,16 +19456,16 @@
         <v>38</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="N152" t="s" s="2">
+      <c r="O152" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
@@ -19520,7 +19515,7 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
@@ -19540,10 +19535,10 @@
         <v>343</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19569,10 +19564,10 @@
         <v>236</v>
       </c>
       <c r="M153" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -19623,7 +19618,7 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
@@ -19643,10 +19638,10 @@
         <v>343</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19746,10 +19741,10 @@
         <v>343</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19851,10 +19846,10 @@
         <v>343</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19958,10 +19953,10 @@
         <v>343</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19987,10 +19982,10 @@
         <v>45</v>
       </c>
       <c r="M157" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>139</v>
@@ -20043,7 +20038,7 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>44</v>
@@ -20063,10 +20058,10 @@
         <v>343</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20092,10 +20087,10 @@
         <v>170</v>
       </c>
       <c r="M158" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>173</v>
@@ -20148,7 +20143,7 @@
         <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>39</v>
@@ -20168,10 +20163,10 @@
         <v>343</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20197,10 +20192,10 @@
         <v>45</v>
       </c>
       <c r="M159" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>139</v>
@@ -20253,7 +20248,7 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>39</v>
@@ -20273,10 +20268,10 @@
         <v>343</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20302,10 +20297,10 @@
         <v>236</v>
       </c>
       <c r="M160" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -20356,7 +20351,7 @@
         <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>39</v>
@@ -20376,10 +20371,10 @@
         <v>343</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20479,10 +20474,10 @@
         <v>343</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20584,10 +20579,10 @@
         <v>343</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20691,10 +20686,10 @@
         <v>343</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20720,10 +20715,10 @@
         <v>45</v>
       </c>
       <c r="M164" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>139</v>
@@ -20776,7 +20771,7 @@
         <v>38</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>39</v>
@@ -20796,10 +20791,10 @@
         <v>343</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20825,10 +20820,10 @@
         <v>170</v>
       </c>
       <c r="M165" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>173</v>
@@ -20860,11 +20855,11 @@
         <v>102</v>
       </c>
       <c r="Z165" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AA165" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AA165" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="AB165" t="s" s="2">
         <v>38</v>
       </c>
@@ -20881,7 +20876,7 @@
         <v>38</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>39</v>
@@ -21253,7 +21248,7 @@
       </c>
       <c r="R169" s="2"/>
       <c r="S169" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>38</v>
@@ -21341,7 +21336,7 @@
         <v>38</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>64</v>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:52+00:00</t>
+    <t>2023-07-28T15:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:47:29+00:00</t>
+    <t>2023-07-28T15:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:48:20+00:00</t>
+    <t>2023-07-28T15:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:56:18+00:00</t>
+    <t>2023-07-28T15:56:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:56:48+00:00</t>
+    <t>2023-08-03T06:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T06:47:21+00:00</t>
+    <t>2023-08-03T06:58:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T15:47:22+00:00</t>
+    <t>2023-08-05T16:48:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T16:48:40+00:00</t>
+    <t>2023-08-05T17:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T17:00:40+00:00</t>
+    <t>2023-08-05T17:09:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T17:09:05+00:00</t>
+    <t>2023-08-06T13:17:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T14:17:04+00:00</t>
+    <t>2023-08-30T13:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T13:32:08+00:00</t>
+    <t>2023-09-01T08:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:48:57+00:00</t>
+    <t>2023-09-01T14:26:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1815,7 +1815,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/title-type</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-title-type-vs</t>
   </si>
   <si>
     <t>Extension.extension:labelValue</t>
@@ -3618,7 +3618,7 @@
     <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="106.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="71.38671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="73.859375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="11.08203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="52.18359375" customWidth="true" bestFit="true"/>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:26:19+00:00</t>
+    <t>2023-09-01T14:41:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:41:02+00:00</t>
+    <t>2023-09-04T08:22:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T08:22:22+00:00</t>
+    <t>2023-09-04T12:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T14:08:50+00:00</t>
+    <t>2023-09-15T14:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T14:15:22+00:00</t>
+    <t>2023-09-20T09:41:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:41:37+00:00</t>
+    <t>2023-09-20T10:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T10:01:10+00:00</t>
+    <t>2023-09-22T15:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T13:47:44+00:00</t>
+    <t>2023-10-05T16:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6750" uniqueCount="637">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:23:11+00:00</t>
+    <t>2023-10-09T13:24:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1062,22 +1062,6 @@
     <t>Date de dernière modification substancielle</t>
   </si>
   <si>
-    <t>ResearchStudy.extension:eclaire-condition-details</t>
-  </si>
-  <si>
-    <t>eclaire-condition-details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-condition-details}
-</t>
-  </si>
-  <si>
-    <t>Précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de précisions sur le sujet concerné par l'essai</t>
-  </si>
-  <si>
     <t>ResearchStudy.extension:eclaire-therapeutic-area</t>
   </si>
   <si>
@@ -1473,6 +1457,103 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
+    <t xml:space="preserve">value:id}
+</t>
+  </si>
+  <si>
+    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition</t>
+  </si>
+  <si>
+    <t>medDRACondition</t>
+  </si>
+  <si>
+    <t>code MedDRA / MedDRA condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.id</t>
+  </si>
+  <si>
+    <t>meddra-condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.text</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition</t>
+  </si>
+  <si>
+    <t>diseaseCondition</t>
+  </si>
+  <si>
+    <t>condition de la pathologie / Disease Condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.id</t>
+  </si>
+  <si>
+    <t>disease-condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.text</t>
+  </si>
+  <si>
     <t>ResearchStudy.contact</t>
   </si>
   <si>
@@ -1810,12 +1891,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/research-study-objective-type</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-condition-details</t>
-  </si>
-  <si>
-    <t>ECLAIREConditionDetails</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-name</t>
@@ -2050,7 +2125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B271"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3017,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>335</v>
+        <v>513</v>
       </c>
     </row>
     <row r="127">
@@ -3025,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>577</v>
+        <v>604</v>
       </c>
     </row>
     <row r="128">
@@ -3041,7 +3116,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>578</v>
+        <v>605</v>
       </c>
     </row>
     <row r="130">
@@ -3093,7 +3168,7 @@
         <v>20</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>338</v>
+        <v>516</v>
       </c>
     </row>
     <row r="137">
@@ -3161,7 +3236,7 @@
         <v>36</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146">
@@ -3177,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>486</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148">
@@ -3185,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>579</v>
+        <v>607</v>
       </c>
     </row>
     <row r="149">
@@ -3201,7 +3276,7 @@
         <v>8</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>580</v>
+        <v>608</v>
       </c>
     </row>
     <row r="151">
@@ -3253,7 +3328,7 @@
         <v>20</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>489</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158">
@@ -3321,7 +3396,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167">
@@ -3345,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>582</v>
+        <v>609</v>
       </c>
     </row>
     <row r="170">
@@ -3361,7 +3436,7 @@
         <v>8</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>583</v>
+        <v>610</v>
       </c>
     </row>
     <row r="172">
@@ -3497,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>348</v>
+        <v>508</v>
       </c>
     </row>
     <row r="190">
@@ -3505,7 +3580,7 @@
         <v>4</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>584</v>
+        <v>611</v>
       </c>
     </row>
     <row r="191">
@@ -3521,7 +3596,7 @@
         <v>8</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>585</v>
+        <v>612</v>
       </c>
     </row>
     <row r="193">
@@ -3573,7 +3648,7 @@
         <v>20</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>351</v>
+        <v>511</v>
       </c>
     </row>
     <row r="200">
@@ -3641,7 +3716,7 @@
         <v>36</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="209">
@@ -3657,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>481</v>
+        <v>193</v>
       </c>
     </row>
     <row r="211">
@@ -3665,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>586</v>
+        <v>613</v>
       </c>
     </row>
     <row r="212">
@@ -3681,7 +3756,7 @@
         <v>8</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>587</v>
+        <v>614</v>
       </c>
     </row>
     <row r="214">
@@ -3733,7 +3808,7 @@
         <v>20</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>484</v>
+        <v>196</v>
       </c>
     </row>
     <row r="221">
@@ -3801,7 +3876,7 @@
         <v>36</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>71</v>
+        <v>615</v>
       </c>
     </row>
     <row r="230">
@@ -3817,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>193</v>
+        <v>348</v>
       </c>
     </row>
     <row r="232">
@@ -3825,7 +3900,7 @@
         <v>4</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>588</v>
+        <v>616</v>
       </c>
     </row>
     <row r="233">
@@ -3841,7 +3916,7 @@
         <v>8</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>589</v>
+        <v>617</v>
       </c>
     </row>
     <row r="235">
@@ -3893,7 +3968,7 @@
         <v>20</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>196</v>
+        <v>351</v>
       </c>
     </row>
     <row r="242">
@@ -3961,166 +4036,6 @@
         <v>36</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B251" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B252" t="s" s="2">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B253" t="s" s="2">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B254" t="s" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B255" t="s" s="2">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B256" s="2"/>
-    </row>
-    <row r="257">
-      <c r="A257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B257" t="s" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B258" s="2"/>
-    </row>
-    <row r="259">
-      <c r="A259" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B259" t="s" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B260" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B261" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B262" t="s" s="2">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B263" s="2"/>
-    </row>
-    <row r="264">
-      <c r="A264" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B264" s="2"/>
-    </row>
-    <row r="265">
-      <c r="A265" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B265" t="s" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B266" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B267" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B268" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B269" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B270" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B271" t="s" s="2">
         <v>37</v>
       </c>
     </row>
@@ -4131,7 +4046,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK188"/>
+  <dimension ref="A1:AK192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4157,7 +4072,7 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="10.54296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.30078125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -4167,7 +4082,7 @@
     <col min="27" max="27" width="73.859375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="11.08203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="52.18359375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="84.87890625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -12139,7 +12054,7 @@
         <v>330</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="E77" t="s" s="2">
         <v>38</v>
@@ -12161,13 +12076,13 @@
         <v>38</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M77" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="N77" t="s" s="2">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -12238,13 +12153,13 @@
         <v>314</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>330</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="E78" t="s" s="2">
         <v>38</v>
@@ -12266,13 +12181,13 @@
         <v>38</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -12359,7 +12274,7 @@
         <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>91</v>
@@ -12556,13 +12471,11 @@
         <v>352</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D81" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
@@ -12572,25 +12485,29 @@
         <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J81" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J81" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="K81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>354</v>
+        <v>51</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>355</v>
+        <v>137</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="Q81" t="s" s="2">
         <v>38</v>
       </c>
@@ -12626,19 +12543,19 @@
         <v>38</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>39</v>
@@ -12658,14 +12575,14 @@
         <v>314</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
@@ -12678,25 +12595,23 @@
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K82" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="L82" t="s" s="2">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>137</v>
+        <v>354</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
-        <v>139</v>
+        <v>356</v>
       </c>
       <c r="Q82" t="s" s="2">
         <v>38</v>
@@ -12733,10 +12648,10 @@
         <v>38</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>54</v>
+        <v>358</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>38</v>
@@ -12745,7 +12660,7 @@
         <v>55</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
@@ -12757,7 +12672,7 @@
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83">
@@ -12765,12 +12680,14 @@
         <v>314</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="D83" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="E83" t="s" s="2">
         <v>38</v>
       </c>
@@ -12779,10 +12696,10 @@
         <v>39</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>38</v>
@@ -12794,14 +12711,14 @@
         <v>142</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Q83" t="s" s="2">
         <v>38</v>
@@ -12838,19 +12755,19 @@
         <v>38</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="AE83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>39</v>
@@ -12870,14 +12787,12 @@
         <v>314</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>38</v>
       </c>
@@ -12889,27 +12804,25 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>360</v>
+        <v>48</v>
       </c>
       <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>38</v>
       </c>
@@ -12957,19 +12870,19 @@
         <v>38</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>358</v>
+        <v>49</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
@@ -12977,21 +12890,21 @@
         <v>314</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>38</v>
@@ -13003,15 +12916,17 @@
         <v>38</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
         <v>38</v>
@@ -13048,31 +12963,31 @@
         <v>38</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86">
@@ -13080,44 +12995,46 @@
         <v>314</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>132</v>
+        <v>368</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="P86" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="Q86" t="s" s="2">
         <v>38</v>
       </c>
@@ -13126,7 +13043,7 @@
         <v>38</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>38</v>
+        <v>372</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>38</v>
@@ -13141,43 +13058,43 @@
         <v>38</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>38</v>
+        <v>373</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>56</v>
+        <v>375</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87">
@@ -13185,10 +13102,10 @@
         <v>314</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -13196,7 +13113,7 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>45</v>
@@ -13205,25 +13122,25 @@
         <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>38</v>
@@ -13233,7 +13150,7 @@
         <v>38</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>38</v>
@@ -13248,13 +13165,13 @@
         <v>38</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AB87" t="s" s="2">
         <v>38</v>
@@ -13272,7 +13189,7 @@
         <v>38</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
@@ -13292,10 +13209,10 @@
         <v>314</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -13318,19 +13235,19 @@
         <v>91</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P88" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q88" t="s" s="2">
         <v>38</v>
@@ -13343,7 +13260,7 @@
         <v>38</v>
       </c>
       <c r="U88" t="s" s="2">
-        <v>38</v>
+        <v>391</v>
       </c>
       <c r="V88" t="s" s="2">
         <v>38</v>
@@ -13355,13 +13272,13 @@
         <v>38</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>387</v>
+        <v>38</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="AB88" t="s" s="2">
         <v>38</v>
@@ -13379,7 +13296,7 @@
         <v>38</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
@@ -13399,10 +13316,10 @@
         <v>314</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -13425,20 +13342,18 @@
         <v>91</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>38</v>
       </c>
@@ -13450,7 +13365,7 @@
         <v>38</v>
       </c>
       <c r="U89" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="V89" t="s" s="2">
         <v>38</v>
@@ -13486,7 +13401,7 @@
         <v>38</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
@@ -13506,10 +13421,10 @@
         <v>314</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -13532,16 +13447,16 @@
         <v>91</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>402</v>
+        <v>228</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -13555,7 +13470,7 @@
         <v>38</v>
       </c>
       <c r="U90" t="s" s="2">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="V90" t="s" s="2">
         <v>38</v>
@@ -13603,7 +13518,7 @@
         <v>42</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>66</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91">
@@ -13637,7 +13552,7 @@
         <v>91</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>407</v>
@@ -13646,7 +13561,7 @@
         <v>408</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>228</v>
+        <v>409</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -13696,7 +13611,7 @@
         <v>38</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>39</v>
@@ -13708,7 +13623,7 @@
         <v>42</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>230</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92">
@@ -13716,12 +13631,14 @@
         <v>314</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="D92" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="E92" t="s" s="2">
         <v>38</v>
       </c>
@@ -13730,10 +13647,10 @@
         <v>39</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>38</v>
@@ -13742,18 +13659,18 @@
         <v>91</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>267</v>
+        <v>142</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="P92" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="Q92" t="s" s="2">
         <v>38</v>
       </c>
@@ -13801,19 +13718,19 @@
         <v>38</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>272</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93">
@@ -13821,14 +13738,12 @@
         <v>314</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="D93" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>38</v>
       </c>
@@ -13837,30 +13752,28 @@
         <v>39</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>418</v>
+        <v>47</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>360</v>
+        <v>48</v>
       </c>
       <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>38</v>
       </c>
@@ -13908,19 +13821,19 @@
         <v>38</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>358</v>
+        <v>49</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
@@ -13928,21 +13841,21 @@
         <v>314</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>38</v>
@@ -13954,15 +13867,17 @@
         <v>38</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>38</v>
@@ -13999,31 +13914,31 @@
         <v>38</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95">
@@ -14031,44 +13946,46 @@
         <v>314</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>132</v>
+        <v>368</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="P95" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="Q95" t="s" s="2">
         <v>38</v>
       </c>
@@ -14077,7 +13994,7 @@
         <v>38</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>38</v>
@@ -14092,43 +14009,43 @@
         <v>38</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>38</v>
+        <v>373</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>56</v>
+        <v>375</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96">
@@ -14136,10 +14053,10 @@
         <v>314</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -14147,7 +14064,7 @@
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>45</v>
@@ -14156,25 +14073,25 @@
         <v>38</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="P96" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q96" t="s" s="2">
         <v>38</v>
@@ -14184,7 +14101,7 @@
         <v>38</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>422</v>
+        <v>38</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>38</v>
@@ -14199,13 +14116,13 @@
         <v>38</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AB96" t="s" s="2">
         <v>38</v>
@@ -14223,7 +14140,7 @@
         <v>38</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>39</v>
@@ -14243,10 +14160,10 @@
         <v>314</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -14269,19 +14186,19 @@
         <v>91</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P97" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q97" t="s" s="2">
         <v>38</v>
@@ -14294,7 +14211,7 @@
         <v>38</v>
       </c>
       <c r="U97" t="s" s="2">
-        <v>38</v>
+        <v>391</v>
       </c>
       <c r="V97" t="s" s="2">
         <v>38</v>
@@ -14306,13 +14223,13 @@
         <v>38</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>387</v>
+        <v>38</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>38</v>
@@ -14330,7 +14247,7 @@
         <v>38</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
@@ -14350,10 +14267,10 @@
         <v>314</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -14376,20 +14293,18 @@
         <v>91</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="P98" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>38</v>
       </c>
@@ -14401,7 +14316,7 @@
         <v>38</v>
       </c>
       <c r="U98" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="V98" t="s" s="2">
         <v>38</v>
@@ -14437,7 +14352,7 @@
         <v>38</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
@@ -14457,10 +14372,10 @@
         <v>314</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -14483,16 +14398,16 @@
         <v>91</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>402</v>
+        <v>228</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
@@ -14506,7 +14421,7 @@
         <v>38</v>
       </c>
       <c r="U99" t="s" s="2">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="V99" t="s" s="2">
         <v>38</v>
@@ -14554,7 +14469,7 @@
         <v>42</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>66</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100">
@@ -14562,7 +14477,7 @@
         <v>314</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>406</v>
@@ -14588,7 +14503,7 @@
         <v>91</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>407</v>
@@ -14597,7 +14512,7 @@
         <v>408</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>228</v>
+        <v>409</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
@@ -14647,7 +14562,7 @@
         <v>38</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>39</v>
@@ -14659,7 +14574,7 @@
         <v>42</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>230</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101">
@@ -14667,10 +14582,10 @@
         <v>314</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -14684,7 +14599,7 @@
         <v>45</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>38</v>
@@ -14693,16 +14608,16 @@
         <v>91</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>414</v>
+        <v>149</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -14752,7 +14667,7 @@
         <v>38</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>39</v>
@@ -14764,7 +14679,7 @@
         <v>42</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>272</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102">
@@ -14772,10 +14687,10 @@
         <v>314</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14786,10 +14701,10 @@
         <v>39</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J102" t="s" s="2">
         <v>38</v>
@@ -14798,16 +14713,16 @@
         <v>91</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>46</v>
+        <v>427</v>
       </c>
       <c r="M102" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N102" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="O102" t="s" s="2">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -14857,19 +14772,19 @@
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>66</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103">
@@ -14877,14 +14792,14 @@
         <v>314</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" t="s" s="2">
@@ -14914,7 +14829,9 @@
       <c r="O103" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="P103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="Q103" t="s" s="2">
         <v>38</v>
       </c>
@@ -14962,7 +14879,7 @@
         <v>38</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>39</v>
@@ -14982,46 +14899,44 @@
         <v>314</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>436</v>
+        <v>38</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="N104" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="O104" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
         <v>38</v>
       </c>
@@ -15045,13 +14960,13 @@
         <v>38</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>38</v>
@@ -15069,19 +14984,19 @@
         <v>38</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>272</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105">
@@ -15100,22 +15015,22 @@
       </c>
       <c r="F105" s="2"/>
       <c r="G105" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>442</v>
@@ -15124,7 +15039,7 @@
         <v>443</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
@@ -15150,7 +15065,7 @@
         <v>38</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>444</v>
@@ -15177,7 +15092,7 @@
         <v>441</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>45</v>
@@ -15211,7 +15126,7 @@
         <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>38</v>
@@ -15257,11 +15172,9 @@
       <c r="Y106" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z106" t="s" s="2">
+      <c r="Z106" s="2"/>
+      <c r="AA106" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AB106" t="s" s="2">
         <v>38</v>
@@ -15299,10 +15212,10 @@
         <v>314</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -15313,7 +15226,7 @@
         <v>39</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>91</v>
@@ -15328,10 +15241,10 @@
         <v>72</v>
       </c>
       <c r="M107" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>181</v>
@@ -15360,11 +15273,13 @@
         <v>38</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Z107" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="AA107" t="s" s="2">
-        <v>454</v>
+        <v>38</v>
       </c>
       <c r="AB107" t="s" s="2">
         <v>38</v>
@@ -15382,13 +15297,13 @@
         <v>38</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>42</v>
@@ -15402,10 +15317,10 @@
         <v>314</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -15419,7 +15334,7 @@
         <v>40</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>38</v>
@@ -15431,10 +15346,10 @@
         <v>72</v>
       </c>
       <c r="M108" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>181</v>
@@ -15466,7 +15381,7 @@
         <v>240</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>38</v>
@@ -15487,7 +15402,7 @@
         <v>38</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>39</v>
@@ -15507,10 +15422,10 @@
         <v>314</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -15524,7 +15439,7 @@
         <v>40</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>38</v>
@@ -15536,10 +15451,10 @@
         <v>72</v>
       </c>
       <c r="M109" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>181</v>
@@ -15571,28 +15486,28 @@
         <v>240</v>
       </c>
       <c r="Z109" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AA109" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AA109" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AB109" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>38</v>
+        <v>463</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>38</v>
+        <v>464</v>
       </c>
       <c r="AE109" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>39</v>
@@ -15612,12 +15527,14 @@
         <v>314</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="D110" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="E110" t="s" s="2">
         <v>38</v>
       </c>
@@ -15641,10 +15558,10 @@
         <v>72</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>181</v>
@@ -15676,10 +15593,10 @@
         <v>240</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AB110" t="s" s="2">
         <v>38</v>
@@ -15697,7 +15614,7 @@
         <v>38</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>39</v>
@@ -15720,7 +15637,7 @@
         <v>468</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15728,28 +15645,28 @@
       </c>
       <c r="F111" s="2"/>
       <c r="G111" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>469</v>
+        <v>46</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>470</v>
+        <v>47</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>471</v>
+        <v>48</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -15761,7 +15678,7 @@
         <v>38</v>
       </c>
       <c r="T111" t="s" s="2">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="U111" t="s" s="2">
         <v>38</v>
@@ -15800,19 +15717,19 @@
         <v>38</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>468</v>
+        <v>49</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112">
@@ -15820,21 +15737,21 @@
         <v>314</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>472</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>38</v>
@@ -15846,15 +15763,17 @@
         <v>38</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
         <v>38</v>
@@ -15891,31 +15810,31 @@
         <v>38</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE112" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113">
@@ -15926,11 +15845,11 @@
         <v>473</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s" s="2">
@@ -15946,21 +15865,23 @@
         <v>38</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>191</v>
+        <v>476</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="P113" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="Q113" t="s" s="2">
         <v>38</v>
       </c>
@@ -15996,19 +15917,19 @@
         <v>38</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE113" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>56</v>
+        <v>479</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>39</v>
@@ -16020,7 +15941,7 @@
         <v>42</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114">
@@ -16028,14 +15949,12 @@
         <v>314</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="D114" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>38</v>
       </c>
@@ -16047,25 +15966,29 @@
         <v>45</v>
       </c>
       <c r="I114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K114" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="L114" t="s" s="2">
-        <v>475</v>
+        <v>46</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="Q114" t="s" s="2">
         <v>38</v>
       </c>
@@ -16113,19 +16036,19 @@
         <v>38</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>56</v>
+        <v>486</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115">
@@ -16133,13 +16056,13 @@
         <v>314</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>75</v>
+        <v>488</v>
       </c>
       <c r="E115" t="s" s="2">
         <v>38</v>
@@ -16149,7 +16072,7 @@
         <v>39</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>91</v>
@@ -16158,18 +16081,20 @@
         <v>38</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>478</v>
+        <v>72</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>38</v>
@@ -16194,13 +16119,13 @@
         <v>38</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>38</v>
+        <v>461</v>
       </c>
       <c r="AA115" t="s" s="2">
-        <v>38</v>
+        <v>462</v>
       </c>
       <c r="AB115" t="s" s="2">
         <v>38</v>
@@ -16218,7 +16143,7 @@
         <v>38</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>56</v>
+        <v>458</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>39</v>
@@ -16230,7 +16155,7 @@
         <v>42</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116">
@@ -16238,26 +16163,24 @@
         <v>314</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="D116" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J116" t="s" s="2">
         <v>38</v>
@@ -16266,13 +16189,13 @@
         <v>38</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>482</v>
+        <v>46</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>483</v>
+        <v>47</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>484</v>
+        <v>48</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -16284,7 +16207,7 @@
         <v>38</v>
       </c>
       <c r="T116" t="s" s="2">
-        <v>38</v>
+        <v>491</v>
       </c>
       <c r="U116" t="s" s="2">
         <v>38</v>
@@ -16323,19 +16246,19 @@
         <v>38</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117">
@@ -16343,23 +16266,21 @@
         <v>314</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="D117" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>38</v>
@@ -16371,15 +16292,17 @@
         <v>38</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>487</v>
+        <v>51</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>488</v>
+        <v>132</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O117" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
         <v>38</v>
@@ -16416,16 +16339,16 @@
         <v>38</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE117" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>56</v>
@@ -16448,10 +16371,10 @@
         <v>314</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -16462,7 +16385,7 @@
         <v>39</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>38</v>
@@ -16474,18 +16397,20 @@
         <v>91</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="P118" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="Q118" t="s" s="2">
         <v>38</v>
       </c>
@@ -16533,13 +16458,13 @@
         <v>38</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>42</v>
@@ -16553,10 +16478,10 @@
         <v>314</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -16567,7 +16492,7 @@
         <v>39</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>38</v>
@@ -16579,16 +16504,20 @@
         <v>91</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="Q119" t="s" s="2">
         <v>38</v>
       </c>
@@ -16636,19 +16565,19 @@
         <v>38</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>188</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120">
@@ -16656,10 +16585,10 @@
         <v>314</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -16673,26 +16602,24 @@
         <v>40</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
         <v>38</v>
@@ -16741,7 +16668,7 @@
         <v>38</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>39</v>
@@ -16761,10 +16688,10 @@
         <v>314</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16775,7 +16702,7 @@
         <v>39</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>38</v>
@@ -16784,20 +16711,18 @@
         <v>38</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>505</v>
+        <v>47</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O121" s="2"/>
       <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
         <v>38</v>
@@ -16822,10 +16747,10 @@
         <v>38</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>507</v>
+        <v>38</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>38</v>
@@ -16846,19 +16771,19 @@
         <v>38</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>504</v>
+        <v>49</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122">
@@ -16866,14 +16791,14 @@
         <v>314</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" t="s" s="2">
@@ -16883,25 +16808,25 @@
         <v>40</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J122" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>509</v>
+        <v>132</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>510</v>
+        <v>191</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
@@ -16927,31 +16852,31 @@
         <v>38</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>511</v>
+        <v>38</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>512</v>
+        <v>38</v>
       </c>
       <c r="AB122" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC122" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE122" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>508</v>
+        <v>56</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>39</v>
@@ -16963,7 +16888,7 @@
         <v>42</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123">
@@ -16971,12 +16896,14 @@
         <v>314</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="D123" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="E123" t="s" s="2">
         <v>38</v>
       </c>
@@ -16997,17 +16924,15 @@
         <v>38</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O123" s="2"/>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
         <v>38</v>
@@ -17056,19 +16981,19 @@
         <v>38</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>513</v>
+        <v>56</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124">
@@ -17076,21 +17001,23 @@
         <v>314</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="D124" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="E124" t="s" s="2">
-        <v>519</v>
+        <v>38</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>91</v>
@@ -17099,20 +17026,18 @@
         <v>38</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
         <v>38</v>
@@ -17161,7 +17086,7 @@
         <v>38</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>518</v>
+        <v>56</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>39</v>
@@ -17173,7 +17098,7 @@
         <v>42</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>272</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125">
@@ -17181,14 +17106,16 @@
         <v>314</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="D125" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="E125" t="s" s="2">
-        <v>525</v>
+        <v>38</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" t="s" s="2">
@@ -17198,26 +17125,24 @@
         <v>45</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
         <v>38</v>
@@ -17266,19 +17191,19 @@
         <v>38</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>524</v>
+        <v>56</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>230</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126">
@@ -17286,12 +17211,14 @@
         <v>314</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="E126" t="s" s="2">
         <v>38</v>
       </c>
@@ -17303,26 +17230,24 @@
         <v>45</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J126" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>267</v>
+        <v>514</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="O126" s="2"/>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
         <v>38</v>
@@ -17371,19 +17296,19 @@
         <v>38</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>272</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127">
@@ -17391,10 +17316,10 @@
         <v>314</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17417,16 +17342,16 @@
         <v>91</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>532</v>
+        <v>46</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>277</v>
+        <v>520</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
@@ -17476,7 +17401,7 @@
         <v>38</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>39</v>
@@ -17488,7 +17413,7 @@
         <v>42</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>272</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128">
@@ -17496,10 +17421,10 @@
         <v>314</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17513,7 +17438,7 @@
         <v>40</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>38</v>
@@ -17522,17 +17447,15 @@
         <v>91</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="O128" s="2"/>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
         <v>38</v>
@@ -17581,7 +17504,7 @@
         <v>38</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>39</v>
@@ -17593,7 +17516,7 @@
         <v>42</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>272</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129">
@@ -17601,10 +17524,10 @@
         <v>314</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17615,7 +17538,7 @@
         <v>39</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>38</v>
@@ -17624,19 +17547,19 @@
         <v>38</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>72</v>
+        <v>527</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>181</v>
+        <v>530</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
@@ -17662,13 +17585,13 @@
         <v>38</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>541</v>
+        <v>38</v>
       </c>
       <c r="AA129" t="s" s="2">
-        <v>542</v>
+        <v>38</v>
       </c>
       <c r="AB129" t="s" s="2">
         <v>38</v>
@@ -17686,13 +17609,13 @@
         <v>38</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>42</v>
@@ -17706,10 +17629,10 @@
         <v>314</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17729,19 +17652,19 @@
         <v>38</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>544</v>
+        <v>72</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>547</v>
+        <v>181</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
@@ -17767,10 +17690,10 @@
         <v>38</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>38</v>
+        <v>534</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>38</v>
@@ -17791,7 +17714,7 @@
         <v>38</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>39</v>
@@ -17811,10 +17734,10 @@
         <v>314</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17828,24 +17751,26 @@
         <v>40</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
         <v>38</v>
@@ -17870,13 +17795,13 @@
         <v>38</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>38</v>
+        <v>538</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>38</v>
+        <v>539</v>
       </c>
       <c r="AB131" t="s" s="2">
         <v>38</v>
@@ -17894,7 +17819,7 @@
         <v>38</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>39</v>
@@ -17914,10 +17839,10 @@
         <v>314</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17931,7 +17856,7 @@
         <v>45</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>38</v>
@@ -17940,15 +17865,17 @@
         <v>38</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>46</v>
+        <v>541</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>47</v>
+        <v>542</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
         <v>38</v>
@@ -17997,7 +17924,7 @@
         <v>38</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>49</v>
+        <v>540</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>39</v>
@@ -18006,10 +17933,10 @@
         <v>45</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133">
@@ -18017,14 +17944,14 @@
         <v>314</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>131</v>
+        <v>546</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" t="s" s="2">
@@ -18034,25 +17961,25 @@
         <v>40</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J133" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>51</v>
+        <v>547</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>132</v>
+        <v>548</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>191</v>
+        <v>549</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>134</v>
+        <v>550</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
@@ -18090,19 +18017,19 @@
         <v>38</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD133" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE133" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>56</v>
+        <v>545</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>39</v>
@@ -18114,7 +18041,7 @@
         <v>42</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>43</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134">
@@ -18122,46 +18049,44 @@
         <v>314</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>251</v>
+        <v>552</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>252</v>
+        <v>553</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>253</v>
+        <v>554</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="P134" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
         <v>38</v>
       </c>
@@ -18209,19 +18134,19 @@
         <v>38</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>254</v>
+        <v>551</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>43</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135">
@@ -18229,10 +18154,10 @@
         <v>314</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -18240,31 +18165,31 @@
       </c>
       <c r="F135" s="2"/>
       <c r="G135" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
@@ -18314,10 +18239,10 @@
         <v>38</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>45</v>
@@ -18326,7 +18251,7 @@
         <v>42</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>66</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136">
@@ -18334,10 +18259,10 @@
         <v>314</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18357,19 +18282,19 @@
         <v>38</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>72</v>
+        <v>559</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -18419,7 +18344,7 @@
         <v>38</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>39</v>
@@ -18431,7 +18356,7 @@
         <v>42</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>66</v>
+        <v>272</v>
       </c>
     </row>
     <row r="137">
@@ -18439,10 +18364,10 @@
         <v>314</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18453,28 +18378,28 @@
         <v>39</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J137" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
@@ -18524,19 +18449,19 @@
         <v>38</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>66</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138">
@@ -18544,10 +18469,10 @@
         <v>314</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18558,7 +18483,7 @@
         <v>39</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>38</v>
@@ -18567,18 +18492,20 @@
         <v>38</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O138" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>38</v>
@@ -18603,13 +18530,13 @@
         <v>38</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>38</v>
+        <v>568</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>38</v>
+        <v>569</v>
       </c>
       <c r="AB138" t="s" s="2">
         <v>38</v>
@@ -18627,13 +18554,13 @@
         <v>38</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>42</v>
@@ -18647,10 +18574,10 @@
         <v>314</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18661,7 +18588,7 @@
         <v>39</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>38</v>
@@ -18673,15 +18600,17 @@
         <v>38</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>46</v>
+        <v>571</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>47</v>
+        <v>572</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O139" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
         <v>38</v>
@@ -18730,19 +18659,19 @@
         <v>38</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>49</v>
+        <v>570</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140">
@@ -18750,14 +18679,14 @@
         <v>314</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
@@ -18776,17 +18705,15 @@
         <v>38</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>132</v>
+        <v>576</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>38</v>
@@ -18823,19 +18750,19 @@
         <v>38</v>
       </c>
       <c r="AC140" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD140" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE140" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>56</v>
+        <v>575</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
@@ -18847,7 +18774,7 @@
         <v>42</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141">
@@ -18855,46 +18782,42 @@
         <v>314</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I141" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>252</v>
+        <v>47</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>38</v>
       </c>
@@ -18942,19 +18865,19 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142">
@@ -18962,21 +18885,21 @@
         <v>314</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>38</v>
@@ -18988,16 +18911,16 @@
         <v>38</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>570</v>
+        <v>132</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>571</v>
+        <v>191</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
@@ -19035,31 +18958,31 @@
         <v>38</v>
       </c>
       <c r="AC142" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD142" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE142" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>569</v>
+        <v>56</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143">
@@ -19067,44 +18990,46 @@
         <v>314</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>573</v>
+        <v>252</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>574</v>
+        <v>253</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="P143" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="P143" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="Q143" t="s" s="2">
         <v>38</v>
       </c>
@@ -19128,13 +19053,13 @@
         <v>38</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>575</v>
+        <v>38</v>
       </c>
       <c r="AA143" t="s" s="2">
-        <v>576</v>
+        <v>38</v>
       </c>
       <c r="AB143" t="s" s="2">
         <v>38</v>
@@ -19152,30 +19077,30 @@
         <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>572</v>
+        <v>254</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>29</v>
+        <v>581</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>29</v>
+        <v>581</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19183,10 +19108,10 @@
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>38</v>
@@ -19198,15 +19123,17 @@
         <v>38</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>29</v>
+        <v>582</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O144" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
         <v>38</v>
@@ -19255,30 +19182,30 @@
         <v>38</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>29</v>
+        <v>581</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>44</v>
+        <v>584</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>44</v>
+        <v>584</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19301,15 +19228,17 @@
         <v>38</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>47</v>
+        <v>585</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O145" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
         <v>38</v>
@@ -19358,7 +19287,7 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>49</v>
+        <v>584</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>39</v>
@@ -19367,21 +19296,21 @@
         <v>45</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>50</v>
+        <v>587</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>50</v>
+        <v>587</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19392,7 +19321,7 @@
         <v>39</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I146" t="s" s="2">
         <v>38</v>
@@ -19404,15 +19333,17 @@
         <v>38</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>29</v>
+        <v>588</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
         <v>38</v>
@@ -19449,42 +19380,42 @@
         <v>38</v>
       </c>
       <c r="AC146" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD146" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE146" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>56</v>
+        <v>587</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>57</v>
+        <v>590</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>57</v>
+        <v>590</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19492,10 +19423,10 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>38</v>
@@ -19507,24 +19438,22 @@
         <v>38</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>59</v>
+        <v>591</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="O147" s="2"/>
       <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R147" s="2"/>
       <c r="S147" t="s" s="2">
-        <v>577</v>
+        <v>38</v>
       </c>
       <c r="T147" t="s" s="2">
         <v>38</v>
@@ -19566,30 +19495,30 @@
         <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>57</v>
+        <v>590</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>62</v>
+        <v>593</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>62</v>
+        <v>593</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19615,10 +19544,10 @@
         <v>46</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -19669,7 +19598,7 @@
         <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
@@ -19678,25 +19607,25 @@
         <v>45</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>486</v>
+        <v>314</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
@@ -19715,15 +19644,17 @@
         <v>38</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O149" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
         <v>38</v>
@@ -19760,19 +19691,19 @@
         <v>38</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>39</v>
@@ -19789,45 +19720,49 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>486</v>
+        <v>314</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>44</v>
+        <v>595</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>44</v>
+        <v>595</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="P150" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="Q150" t="s" s="2">
         <v>38</v>
       </c>
@@ -19875,30 +19810,30 @@
         <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>486</v>
+        <v>314</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>50</v>
+        <v>596</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>50</v>
+        <v>596</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19909,7 +19844,7 @@
         <v>39</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>38</v>
@@ -19921,15 +19856,17 @@
         <v>38</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>29</v>
+        <v>597</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O151" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
         <v>38</v>
@@ -19966,42 +19903,42 @@
         <v>38</v>
       </c>
       <c r="AC151" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE151" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>56</v>
+        <v>596</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>486</v>
+        <v>314</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>57</v>
+        <v>599</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>57</v>
+        <v>599</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20009,7 +19946,7 @@
       </c>
       <c r="F152" s="2"/>
       <c r="G152" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>45</v>
@@ -20024,16 +19961,16 @@
         <v>38</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>59</v>
+        <v>600</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>60</v>
+        <v>601</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
@@ -20041,7 +19978,7 @@
       </c>
       <c r="R152" s="2"/>
       <c r="S152" t="s" s="2">
-        <v>579</v>
+        <v>38</v>
       </c>
       <c r="T152" t="s" s="2">
         <v>38</v>
@@ -20059,13 +19996,13 @@
         <v>38</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>38</v>
+        <v>602</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>38</v>
+        <v>603</v>
       </c>
       <c r="AB152" t="s" s="2">
         <v>38</v>
@@ -20083,30 +20020,30 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>57</v>
+        <v>599</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20117,7 +20054,7 @@
         <v>39</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>38</v>
@@ -20129,13 +20066,13 @@
         <v>38</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>581</v>
+        <v>41</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>65</v>
+        <v>516</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -20186,30 +20123,30 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>343</v>
+        <v>513</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20220,7 +20157,7 @@
         <v>39</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>38</v>
@@ -20232,13 +20169,13 @@
         <v>38</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>346</v>
+        <v>48</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -20289,30 +20226,30 @@
         <v>38</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>343</v>
+        <v>513</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20323,7 +20260,7 @@
         <v>39</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>38</v>
@@ -20335,13 +20272,13 @@
         <v>38</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -20380,42 +20317,42 @@
         <v>38</v>
       </c>
       <c r="AC155" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD155" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE155" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>343</v>
+        <v>513</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20423,10 +20360,10 @@
       </c>
       <c r="F156" s="2"/>
       <c r="G156" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I156" t="s" s="2">
         <v>38</v>
@@ -20438,22 +20375,24 @@
         <v>38</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O156" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R156" s="2"/>
       <c r="S156" t="s" s="2">
-        <v>38</v>
+        <v>604</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>38</v>
@@ -20483,42 +20422,42 @@
         <v>38</v>
       </c>
       <c r="AC156" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE156" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>343</v>
+        <v>513</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20526,7 +20465,7 @@
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>45</v>
@@ -20541,24 +20480,22 @@
         <v>38</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>58</v>
+        <v>606</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O157" s="2"/>
       <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R157" s="2"/>
       <c r="S157" t="s" s="2">
-        <v>582</v>
+        <v>38</v>
       </c>
       <c r="T157" t="s" s="2">
         <v>38</v>
@@ -20600,30 +20537,30 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20634,7 +20571,7 @@
         <v>39</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>38</v>
@@ -20646,13 +20583,13 @@
         <v>38</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>65</v>
+        <v>341</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -20703,30 +20640,30 @@
         <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20737,7 +20674,7 @@
         <v>39</v>
       </c>
       <c r="H159" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I159" t="s" s="2">
         <v>38</v>
@@ -20749,13 +20686,13 @@
         <v>38</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>351</v>
+        <v>48</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -20806,30 +20743,30 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20840,7 +20777,7 @@
         <v>39</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>38</v>
@@ -20852,13 +20789,13 @@
         <v>38</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -20897,42 +20834,42 @@
         <v>38</v>
       </c>
       <c r="AC160" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE160" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20940,10 +20877,10 @@
       </c>
       <c r="F161" s="2"/>
       <c r="G161" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I161" t="s" s="2">
         <v>38</v>
@@ -20955,22 +20892,24 @@
         <v>38</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O161" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R161" s="2"/>
       <c r="S161" t="s" s="2">
-        <v>38</v>
+        <v>607</v>
       </c>
       <c r="T161" t="s" s="2">
         <v>38</v>
@@ -21000,42 +20939,42 @@
         <v>38</v>
       </c>
       <c r="AC161" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD161" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE161" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21043,7 +20982,7 @@
       </c>
       <c r="F162" s="2"/>
       <c r="G162" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>45</v>
@@ -21058,24 +20997,22 @@
         <v>38</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O162" s="2"/>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R162" s="2"/>
       <c r="S162" t="s" s="2">
-        <v>584</v>
+        <v>38</v>
       </c>
       <c r="T162" t="s" s="2">
         <v>38</v>
@@ -21117,30 +21054,30 @@
         <v>38</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21151,7 +21088,7 @@
         <v>39</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>38</v>
@@ -21163,13 +21100,13 @@
         <v>38</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>65</v>
+        <v>346</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -21220,30 +21157,30 @@
         <v>38</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>481</v>
+        <v>343</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21254,7 +21191,7 @@
         <v>39</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>38</v>
@@ -21266,13 +21203,13 @@
         <v>38</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>484</v>
+        <v>48</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -21323,30 +21260,30 @@
         <v>38</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>481</v>
+        <v>343</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21357,7 +21294,7 @@
         <v>39</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>38</v>
@@ -21369,13 +21306,13 @@
         <v>38</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
@@ -21414,42 +21351,42 @@
         <v>38</v>
       </c>
       <c r="AC165" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD165" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE165" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>481</v>
+        <v>343</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21457,10 +21394,10 @@
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>38</v>
@@ -21472,22 +21409,24 @@
         <v>38</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O166" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O166" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R166" s="2"/>
       <c r="S166" t="s" s="2">
-        <v>38</v>
+        <v>609</v>
       </c>
       <c r="T166" t="s" s="2">
         <v>38</v>
@@ -21517,42 +21456,42 @@
         <v>38</v>
       </c>
       <c r="AC166" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD166" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE166" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>481</v>
+        <v>343</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21560,7 +21499,7 @@
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>45</v>
@@ -21575,24 +21514,22 @@
         <v>38</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>58</v>
+        <v>267</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O167" s="2"/>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R167" s="2"/>
       <c r="S167" t="s" s="2">
-        <v>586</v>
+        <v>38</v>
       </c>
       <c r="T167" t="s" s="2">
         <v>38</v>
@@ -21634,30 +21571,30 @@
         <v>38</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21668,7 +21605,7 @@
         <v>39</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I168" t="s" s="2">
         <v>38</v>
@@ -21680,13 +21617,13 @@
         <v>38</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>65</v>
+        <v>511</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -21737,30 +21674,30 @@
         <v>38</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21771,7 +21708,7 @@
         <v>39</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I169" t="s" s="2">
         <v>38</v>
@@ -21783,13 +21720,13 @@
         <v>38</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
@@ -21840,30 +21777,30 @@
         <v>38</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -21874,7 +21811,7 @@
         <v>39</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I170" t="s" s="2">
         <v>38</v>
@@ -21886,13 +21823,13 @@
         <v>38</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -21931,42 +21868,42 @@
         <v>38</v>
       </c>
       <c r="AC170" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE170" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -21974,10 +21911,10 @@
       </c>
       <c r="F171" s="2"/>
       <c r="G171" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H171" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I171" t="s" s="2">
         <v>38</v>
@@ -21989,22 +21926,24 @@
         <v>38</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O171" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R171" s="2"/>
       <c r="S171" t="s" s="2">
-        <v>38</v>
+        <v>611</v>
       </c>
       <c r="T171" t="s" s="2">
         <v>38</v>
@@ -22034,42 +21973,42 @@
         <v>38</v>
       </c>
       <c r="AC171" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE171" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22077,7 +22016,7 @@
       </c>
       <c r="F172" s="2"/>
       <c r="G172" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>45</v>
@@ -22092,24 +22031,22 @@
         <v>38</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O172" s="2"/>
       <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R172" s="2"/>
       <c r="S172" t="s" s="2">
-        <v>588</v>
+        <v>38</v>
       </c>
       <c r="T172" t="s" s="2">
         <v>38</v>
@@ -22151,19 +22088,19 @@
         <v>38</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH172" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI172" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="173">
@@ -22171,10 +22108,10 @@
         <v>193</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22185,7 +22122,7 @@
         <v>39</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I173" t="s" s="2">
         <v>38</v>
@@ -22197,13 +22134,13 @@
         <v>38</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>581</v>
+        <v>41</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -22254,30 +22191,30 @@
         <v>38</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22288,7 +22225,7 @@
         <v>39</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>38</v>
@@ -22300,13 +22237,13 @@
         <v>38</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>356</v>
+        <v>48</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
@@ -22357,30 +22294,30 @@
         <v>38</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -22391,7 +22328,7 @@
         <v>39</v>
       </c>
       <c r="H175" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I175" t="s" s="2">
         <v>38</v>
@@ -22403,13 +22340,13 @@
         <v>38</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
@@ -22448,53 +22385,53 @@
         <v>38</v>
       </c>
       <c r="AC175" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD175" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE175" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H176" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I176" t="s" s="2">
         <v>38</v>
@@ -22506,16 +22443,16 @@
         <v>38</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" t="s" s="2">
@@ -22523,7 +22460,7 @@
       </c>
       <c r="R176" s="2"/>
       <c r="S176" t="s" s="2">
-        <v>38</v>
+        <v>613</v>
       </c>
       <c r="T176" t="s" s="2">
         <v>38</v>
@@ -22553,46 +22490,44 @@
         <v>38</v>
       </c>
       <c r="AC176" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD176" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE176" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH176" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>593</v>
+        <v>62</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D177" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>38</v>
       </c>
@@ -22613,13 +22548,13 @@
         <v>38</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>51</v>
+        <v>606</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>595</v>
+        <v>64</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -22670,30 +22605,30 @@
         <v>38</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>596</v>
+        <v>29</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>597</v>
+        <v>29</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -22704,7 +22639,7 @@
         <v>39</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>38</v>
@@ -22716,13 +22651,13 @@
         <v>38</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>48</v>
+        <v>351</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -22773,30 +22708,30 @@
         <v>38</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>598</v>
+        <v>44</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>599</v>
+        <v>44</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -22807,7 +22742,7 @@
         <v>39</v>
       </c>
       <c r="H179" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I179" t="s" s="2">
         <v>38</v>
@@ -22819,13 +22754,13 @@
         <v>38</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -22864,53 +22799,53 @@
         <v>38</v>
       </c>
       <c r="AC179" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD179" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE179" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>601</v>
+        <v>50</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>38</v>
@@ -22922,16 +22857,16 @@
         <v>38</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="P180" s="2"/>
       <c r="Q180" t="s" s="2">
@@ -22939,7 +22874,7 @@
       </c>
       <c r="R180" s="2"/>
       <c r="S180" t="s" s="2">
-        <v>594</v>
+        <v>38</v>
       </c>
       <c r="T180" t="s" s="2">
         <v>38</v>
@@ -22969,44 +22904,46 @@
         <v>38</v>
       </c>
       <c r="AC180" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD180" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE180" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH180" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="D181" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>619</v>
+      </c>
       <c r="E181" t="s" s="2">
         <v>38</v>
       </c>
@@ -23027,13 +22964,13 @@
         <v>38</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>64</v>
+        <v>620</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
@@ -23060,11 +22997,13 @@
         <v>38</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Z181" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA181" t="s" s="2">
-        <v>604</v>
+        <v>38</v>
       </c>
       <c r="AB181" t="s" s="2">
         <v>38</v>
@@ -23082,34 +23021,32 @@
         <v>38</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D182" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
         <v>38</v>
       </c>
@@ -23130,13 +23067,13 @@
         <v>38</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -23187,30 +23124,30 @@
         <v>38</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23221,7 +23158,7 @@
         <v>39</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>38</v>
@@ -23233,13 +23170,13 @@
         <v>38</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
@@ -23278,42 +23215,42 @@
         <v>38</v>
       </c>
       <c r="AC183" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD183" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE183" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -23321,10 +23258,10 @@
       </c>
       <c r="F184" s="2"/>
       <c r="G184" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I184" t="s" s="2">
         <v>38</v>
@@ -23336,22 +23273,24 @@
         <v>38</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O184" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R184" s="2"/>
       <c r="S184" t="s" s="2">
-        <v>38</v>
+        <v>619</v>
       </c>
       <c r="T184" t="s" s="2">
         <v>38</v>
@@ -23381,42 +23320,42 @@
         <v>38</v>
       </c>
       <c r="AC184" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD184" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE184" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH184" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -23424,7 +23363,7 @@
       </c>
       <c r="F185" s="2"/>
       <c r="G185" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>45</v>
@@ -23439,24 +23378,22 @@
         <v>38</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O185" s="2"/>
       <c r="P185" s="2"/>
       <c r="Q185" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R185" s="2"/>
       <c r="S185" t="s" s="2">
-        <v>606</v>
+        <v>38</v>
       </c>
       <c r="T185" t="s" s="2">
         <v>38</v>
@@ -23474,13 +23411,11 @@
         <v>38</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z185" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Z185" s="2"/>
       <c r="AA185" t="s" s="2">
-        <v>38</v>
+        <v>629</v>
       </c>
       <c r="AB185" t="s" s="2">
         <v>38</v>
@@ -23498,32 +23433,34 @@
         <v>38</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH185" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI185" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="D186" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D186" t="s" s="2">
+        <v>631</v>
+      </c>
       <c r="E186" t="s" s="2">
         <v>38</v>
       </c>
@@ -23544,13 +23481,13 @@
         <v>38</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -23601,30 +23538,30 @@
         <v>38</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>57</v>
+        <v>632</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>57</v>
+        <v>622</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -23632,7 +23569,7 @@
       </c>
       <c r="F187" s="2"/>
       <c r="G187" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H187" t="s" s="2">
         <v>45</v>
@@ -23647,24 +23584,22 @@
         <v>38</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R187" s="2"/>
       <c r="S187" t="s" s="2">
-        <v>591</v>
+        <v>38</v>
       </c>
       <c r="T187" t="s" s="2">
         <v>38</v>
@@ -23706,10 +23641,10 @@
         <v>38</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI187" t="s" s="2">
         <v>45</v>
@@ -23723,13 +23658,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>62</v>
+        <v>633</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>62</v>
+        <v>624</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -23752,13 +23687,13 @@
         <v>38</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>611</v>
+        <v>51</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
@@ -23797,30 +23732,446 @@
         <v>38</v>
       </c>
       <c r="AC188" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD188" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE188" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK188" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N189" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O189" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P189" s="2"/>
+      <c r="Q189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R189" s="2"/>
+      <c r="S189" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F190" s="2"/>
+      <c r="G190" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R190" s="2"/>
+      <c r="S190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F191" s="2"/>
+      <c r="G191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O191" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P191" s="2"/>
+      <c r="Q191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R191" s="2"/>
+      <c r="S191" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F192" s="2"/>
+      <c r="G192" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R192" s="2"/>
+      <c r="S192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK192" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T10:31:55+00:00</t>
+    <t>2023-10-17T10:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7851" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8085" uniqueCount="781">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T10:04:53+00:00</t>
+    <t>2023-10-19T15:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1869,11 +1869,8 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
-    <t xml:space="preserve">value:id}
-</t>
-  </si>
-  <si>
-    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
+    <t xml:space="preserve">Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel.
+Ainsi la slice medDRACondition contient un code meddra, la slice diseaseCondition contient un texte libre. </t>
   </si>
   <si>
     <t>ResearchStudy.condition:medDRACondition</t>
@@ -1919,6 +1916,117 @@
   </si>
   <si>
     <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/mdr</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.version</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.display</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
   </si>
   <si>
     <t>ResearchStudy.condition:medDRACondition.text</t>
@@ -3902,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>735</v>
+        <v>771</v>
       </c>
     </row>
     <row r="190">
@@ -3918,7 +4026,7 @@
         <v>8</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>736</v>
+        <v>772</v>
       </c>
     </row>
     <row r="192">
@@ -4062,7 +4170,7 @@
         <v>4</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>738</v>
+        <v>774</v>
       </c>
     </row>
     <row r="211">
@@ -4078,7 +4186,7 @@
         <v>8</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>739</v>
+        <v>775</v>
       </c>
     </row>
     <row r="213">
@@ -4222,7 +4330,7 @@
         <v>4</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="232">
@@ -4238,7 +4346,7 @@
         <v>8</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="234">
@@ -4358,7 +4466,7 @@
         <v>36</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>742</v>
+        <v>778</v>
       </c>
     </row>
     <row r="250">
@@ -4382,7 +4490,7 @@
         <v>4</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>743</v>
+        <v>779</v>
       </c>
     </row>
     <row r="253">
@@ -4398,7 +4506,7 @@
         <v>8</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>744</v>
+        <v>780</v>
       </c>
     </row>
     <row r="255">
@@ -4528,7 +4636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK224"/>
+  <dimension ref="A1:AK231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4538,8 +4646,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.40234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="60.55078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="43.16796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -4555,7 +4663,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.30078125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="41.23046875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -4565,7 +4673,7 @@
     <col min="27" max="27" width="75.2734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="11.08203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="84.87890625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="244.98046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -21427,10 +21535,10 @@
         <v>38</v>
       </c>
       <c r="AC161" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD161" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="AE161" t="s" s="2">
         <v>38</v>
@@ -21459,13 +21567,13 @@
         <v>449</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C162" t="s" s="2">
         <v>593</v>
       </c>
       <c r="D162" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E162" t="s" s="2">
         <v>38</v>
@@ -21490,7 +21598,7 @@
         <v>80</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N162" t="s" s="2">
         <v>595</v>
@@ -21566,10 +21674,10 @@
         <v>449</v>
       </c>
       <c r="B163" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C163" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="C163" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21577,7 +21685,7 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>45</v>
@@ -21610,7 +21718,7 @@
         <v>38</v>
       </c>
       <c r="T163" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U163" t="s" s="2">
         <v>38</v>
@@ -21669,10 +21777,10 @@
         <v>449</v>
       </c>
       <c r="B164" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C164" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="C164" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21774,10 +21882,10 @@
         <v>449</v>
       </c>
       <c r="B165" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C165" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="C165" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21803,16 +21911,16 @@
         <v>303</v>
       </c>
       <c r="M165" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="O165" t="s" s="2">
+      <c r="P165" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="P165" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="Q165" t="s" s="2">
         <v>38</v>
@@ -21861,7 +21969,7 @@
         <v>38</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>39</v>
@@ -21881,10 +21989,10 @@
         <v>449</v>
       </c>
       <c r="B166" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C166" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="C166" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21904,23 +22012,19 @@
         <v>38</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L166" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>617</v>
+        <v>47</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="P166" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
         <v>38</v>
       </c>
@@ -21968,7 +22072,7 @@
         <v>38</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>621</v>
+        <v>49</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>39</v>
@@ -21977,10 +22081,10 @@
         <v>45</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167">
@@ -21988,16 +22092,14 @@
         <v>449</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="D167" t="s" s="2">
-        <v>623</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
@@ -22007,25 +22109,25 @@
         <v>40</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>624</v>
+        <v>136</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>595</v>
+        <v>199</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
@@ -22051,31 +22153,31 @@
         <v>38</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>596</v>
+        <v>38</v>
       </c>
       <c r="AA167" t="s" s="2">
-        <v>597</v>
+        <v>38</v>
       </c>
       <c r="AB167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC167" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD167" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>593</v>
+        <v>56</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>39</v>
@@ -22087,7 +22189,7 @@
         <v>42</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168">
@@ -22095,10 +22197,10 @@
         <v>449</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22106,7 +22208,7 @@
       </c>
       <c r="F168" s="2"/>
       <c r="G168" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>45</v>
@@ -22118,19 +22220,23 @@
         <v>38</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>47</v>
+        <v>620</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="P168" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="Q168" t="s" s="2">
         <v>38</v>
       </c>
@@ -22139,7 +22245,7 @@
         <v>38</v>
       </c>
       <c r="T168" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="U168" t="s" s="2">
         <v>38</v>
@@ -22178,7 +22284,7 @@
         <v>38</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>49</v>
+        <v>625</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>39</v>
@@ -22187,10 +22293,10 @@
         <v>45</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="169">
@@ -22198,21 +22304,21 @@
         <v>449</v>
       </c>
       <c r="B169" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C169" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I169" t="s" s="2">
         <v>38</v>
@@ -22221,19 +22327,19 @@
         <v>38</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>136</v>
+        <v>628</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>199</v>
+        <v>629</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>138</v>
+        <v>630</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" t="s" s="2">
@@ -22271,31 +22377,31 @@
         <v>38</v>
       </c>
       <c r="AC169" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD169" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE169" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>56</v>
+        <v>631</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170">
@@ -22303,10 +22409,10 @@
         <v>449</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22317,7 +22423,7 @@
         <v>39</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I170" t="s" s="2">
         <v>38</v>
@@ -22329,19 +22435,19 @@
         <v>95</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>612</v>
+        <v>177</v>
       </c>
       <c r="P170" t="s" s="2">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="Q170" t="s" s="2">
         <v>38</v>
@@ -22390,13 +22496,13 @@
         <v>38</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>42</v>
@@ -22410,10 +22516,10 @@
         <v>449</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22439,16 +22545,16 @@
         <v>46</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>619</v>
+        <v>177</v>
       </c>
       <c r="P171" t="s" s="2">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="Q171" t="s" s="2">
         <v>38</v>
@@ -22497,7 +22603,7 @@
         <v>38</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>39</v>
@@ -22517,10 +22623,10 @@
         <v>449</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22531,10 +22637,10 @@
         <v>39</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J172" t="s" s="2">
         <v>38</v>
@@ -22543,16 +22649,20 @@
         <v>95</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>631</v>
+        <v>151</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="O172" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="P172" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="Q172" t="s" s="2">
         <v>38</v>
       </c>
@@ -22600,13 +22710,13 @@
         <v>38</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>42</v>
@@ -22620,10 +22730,10 @@
         <v>449</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22643,19 +22753,23 @@
         <v>38</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L173" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>47</v>
+        <v>653</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="O173" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="P173" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="Q173" t="s" s="2">
         <v>38</v>
       </c>
@@ -22703,7 +22817,7 @@
         <v>38</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>49</v>
+        <v>657</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>39</v>
@@ -22712,10 +22826,10 @@
         <v>45</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="174">
@@ -22723,14 +22837,16 @@
         <v>449</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="D174" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="D174" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="E174" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" t="s" s="2">
@@ -22740,25 +22856,25 @@
         <v>40</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J174" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>136</v>
+        <v>660</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>199</v>
+        <v>595</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" t="s" s="2">
@@ -22784,31 +22900,31 @@
         <v>38</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>38</v>
+        <v>597</v>
       </c>
       <c r="AB174" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC174" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE174" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>39</v>
@@ -22820,7 +22936,7 @@
         <v>42</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175">
@@ -22828,14 +22944,12 @@
         <v>449</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="D175" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
         <v>38</v>
       </c>
@@ -22847,7 +22961,7 @@
         <v>45</v>
       </c>
       <c r="I175" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J175" t="s" s="2">
         <v>38</v>
@@ -22856,13 +22970,13 @@
         <v>38</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>637</v>
+        <v>46</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>638</v>
+        <v>47</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
@@ -22874,7 +22988,7 @@
         <v>38</v>
       </c>
       <c r="T175" t="s" s="2">
-        <v>38</v>
+        <v>662</v>
       </c>
       <c r="U175" t="s" s="2">
         <v>38</v>
@@ -22913,19 +23027,19 @@
         <v>38</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="176">
@@ -22933,26 +23047,24 @@
         <v>449</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="D176" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H176" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>38</v>
@@ -22961,15 +23073,17 @@
         <v>38</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>640</v>
+        <v>51</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>641</v>
+        <v>136</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="O176" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P176" s="2"/>
       <c r="Q176" t="s" s="2">
         <v>38</v>
@@ -23006,16 +23120,16 @@
         <v>38</v>
       </c>
       <c r="AC176" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD176" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE176" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>56</v>
@@ -23038,14 +23152,12 @@
         <v>449</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="D177" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>38</v>
       </c>
@@ -23054,28 +23166,32 @@
         <v>39</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K177" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="J177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="L177" t="s" s="2">
-        <v>643</v>
+        <v>303</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>644</v>
+        <v>609</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
+        <v>610</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="P177" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="Q177" t="s" s="2">
         <v>38</v>
       </c>
@@ -23123,7 +23239,7 @@
         <v>38</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>56</v>
+        <v>613</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>39</v>
@@ -23135,7 +23251,7 @@
         <v>42</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178">
@@ -23143,20 +23259,18 @@
         <v>449</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="D178" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H178" t="s" s="2">
         <v>45</v>
@@ -23168,19 +23282,23 @@
         <v>38</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>646</v>
+        <v>46</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="P178" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="Q178" t="s" s="2">
         <v>38</v>
       </c>
@@ -23228,19 +23346,19 @@
         <v>38</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>56</v>
+        <v>657</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179">
@@ -23248,10 +23366,10 @@
         <v>449</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23262,10 +23380,10 @@
         <v>39</v>
       </c>
       <c r="H179" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J179" t="s" s="2">
         <v>38</v>
@@ -23274,17 +23392,15 @@
         <v>95</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>46</v>
+        <v>667</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="O179" s="2"/>
       <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
         <v>38</v>
@@ -23333,13 +23449,13 @@
         <v>38</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>42</v>
@@ -23353,10 +23469,10 @@
         <v>449</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23367,7 +23483,7 @@
         <v>39</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>38</v>
@@ -23376,16 +23492,16 @@
         <v>38</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>333</v>
+        <v>46</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>654</v>
+        <v>47</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>655</v>
+        <v>48</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -23436,19 +23552,19 @@
         <v>38</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>656</v>
+        <v>49</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>336</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181">
@@ -23456,14 +23572,14 @@
         <v>449</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" t="s" s="2">
@@ -23482,16 +23598,16 @@
         <v>38</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>658</v>
+        <v>51</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>659</v>
+        <v>136</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>660</v>
+        <v>199</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>661</v>
+        <v>138</v>
       </c>
       <c r="P181" s="2"/>
       <c r="Q181" t="s" s="2">
@@ -23529,19 +23645,19 @@
         <v>38</v>
       </c>
       <c r="AC181" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD181" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE181" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>657</v>
+        <v>56</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>39</v>
@@ -23553,7 +23669,7 @@
         <v>42</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182">
@@ -23561,12 +23677,14 @@
         <v>449</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="D182" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="D182" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="E182" t="s" s="2">
         <v>38</v>
       </c>
@@ -23575,29 +23693,27 @@
         <v>39</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J182" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="O182" s="2"/>
       <c r="P182" s="2"/>
       <c r="Q182" t="s" s="2">
         <v>38</v>
@@ -23622,10 +23738,10 @@
         <v>38</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="Z182" t="s" s="2">
-        <v>665</v>
+        <v>38</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>38</v>
@@ -23646,7 +23762,7 @@
         <v>38</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>662</v>
+        <v>56</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>39</v>
@@ -23658,7 +23774,7 @@
         <v>42</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="183">
@@ -23666,12 +23782,14 @@
         <v>449</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="D183" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="D183" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E183" t="s" s="2">
         <v>38</v>
       </c>
@@ -23680,7 +23798,7 @@
         <v>39</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>95</v>
@@ -23689,20 +23807,18 @@
         <v>38</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>80</v>
+        <v>676</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O183" s="2"/>
       <c r="P183" s="2"/>
       <c r="Q183" t="s" s="2">
         <v>38</v>
@@ -23727,13 +23843,13 @@
         <v>38</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>669</v>
+        <v>38</v>
       </c>
       <c r="AA183" t="s" s="2">
-        <v>670</v>
+        <v>38</v>
       </c>
       <c r="AB183" t="s" s="2">
         <v>38</v>
@@ -23751,7 +23867,7 @@
         <v>38</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>666</v>
+        <v>56</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>39</v>
@@ -23763,7 +23879,7 @@
         <v>42</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="184">
@@ -23771,12 +23887,14 @@
         <v>449</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C184" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="D184" s="2"/>
+      <c r="D184" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="E184" t="s" s="2">
         <v>38</v>
       </c>
@@ -23797,17 +23915,15 @@
         <v>38</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>675</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O184" s="2"/>
       <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
         <v>38</v>
@@ -23856,19 +23972,19 @@
         <v>38</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>671</v>
+        <v>56</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="185">
@@ -23876,43 +23992,43 @@
         <v>449</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="D185" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="D185" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="E185" t="s" s="2">
-        <v>677</v>
+        <v>38</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H185" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I185" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J185" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>681</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="O185" s="2"/>
       <c r="P185" s="2"/>
       <c r="Q185" t="s" s="2">
         <v>38</v>
@@ -23961,7 +24077,7 @@
         <v>38</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>676</v>
+        <v>56</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>39</v>
@@ -23973,7 +24089,7 @@
         <v>42</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>190</v>
+        <v>43</v>
       </c>
     </row>
     <row r="186">
@@ -23981,14 +24097,14 @@
         <v>449</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>683</v>
+        <v>38</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" t="s" s="2">
@@ -24007,16 +24123,16 @@
         <v>95</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>228</v>
+        <v>687</v>
       </c>
       <c r="P186" s="2"/>
       <c r="Q186" t="s" s="2">
@@ -24066,7 +24182,7 @@
         <v>38</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>39</v>
@@ -24078,7 +24194,7 @@
         <v>42</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>229</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187">
@@ -24086,10 +24202,10 @@
         <v>449</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -24100,10 +24216,10 @@
         <v>39</v>
       </c>
       <c r="H187" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J187" t="s" s="2">
         <v>38</v>
@@ -24112,17 +24228,15 @@
         <v>95</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
         <v>38</v>
@@ -24171,19 +24285,19 @@
         <v>38</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>190</v>
+        <v>336</v>
       </c>
     </row>
     <row r="188">
@@ -24191,10 +24305,10 @@
         <v>449</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -24205,7 +24319,7 @@
         <v>39</v>
       </c>
       <c r="H188" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I188" t="s" s="2">
         <v>38</v>
@@ -24214,19 +24328,19 @@
         <v>38</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>241</v>
+        <v>697</v>
       </c>
       <c r="P188" s="2"/>
       <c r="Q188" t="s" s="2">
@@ -24276,19 +24390,19 @@
         <v>38</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>190</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189">
@@ -24296,10 +24410,10 @@
         <v>449</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -24313,7 +24427,7 @@
         <v>40</v>
       </c>
       <c r="I189" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J189" t="s" s="2">
         <v>38</v>
@@ -24322,16 +24436,16 @@
         <v>95</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="O189" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
@@ -24357,10 +24471,10 @@
         <v>38</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="Z189" t="s" s="2">
-        <v>38</v>
+        <v>701</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>38</v>
@@ -24381,7 +24495,7 @@
         <v>38</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>39</v>
@@ -24393,7 +24507,7 @@
         <v>42</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>190</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190">
@@ -24401,10 +24515,10 @@
         <v>449</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -24415,10 +24529,10 @@
         <v>39</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J190" t="s" s="2">
         <v>38</v>
@@ -24430,10 +24544,10 @@
         <v>80</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>208</v>
@@ -24462,13 +24576,13 @@
         <v>38</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="Z190" t="s" s="2">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="AA190" t="s" s="2">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="AB190" t="s" s="2">
         <v>38</v>
@@ -24486,13 +24600,13 @@
         <v>38</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>42</v>
@@ -24506,10 +24620,10 @@
         <v>449</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24520,10 +24634,10 @@
         <v>39</v>
       </c>
       <c r="H191" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J191" t="s" s="2">
         <v>38</v>
@@ -24532,16 +24646,16 @@
         <v>38</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="P191" s="2"/>
       <c r="Q191" t="s" s="2">
@@ -24591,13 +24705,13 @@
         <v>38</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>42</v>
@@ -24611,14 +24725,14 @@
         <v>449</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>38</v>
+        <v>713</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" t="s" s="2">
@@ -24628,24 +24742,26 @@
         <v>40</v>
       </c>
       <c r="I192" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J192" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>192</v>
+        <v>714</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="O192" s="2"/>
+        <v>716</v>
+      </c>
+      <c r="O192" t="s" s="2">
+        <v>717</v>
+      </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
         <v>38</v>
@@ -24694,7 +24810,7 @@
         <v>38</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>39</v>
@@ -24706,7 +24822,7 @@
         <v>42</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193">
@@ -24714,14 +24830,14 @@
         <v>449</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
-        <v>38</v>
+        <v>719</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" t="s" s="2">
@@ -24737,18 +24853,20 @@
         <v>38</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>47</v>
+        <v>720</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O193" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
         <v>38</v>
@@ -24797,7 +24915,7 @@
         <v>38</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>49</v>
+        <v>718</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>39</v>
@@ -24806,10 +24924,10 @@
         <v>45</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>38</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194">
@@ -24817,42 +24935,42 @@
         <v>449</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I194" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J194" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>51</v>
+        <v>405</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>136</v>
+        <v>723</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>199</v>
+        <v>724</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
@@ -24890,31 +25008,31 @@
         <v>38</v>
       </c>
       <c r="AC194" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD194" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE194" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>56</v>
+        <v>722</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="195">
@@ -24922,46 +25040,44 @@
         <v>449</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H195" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I195" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="K195" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>51</v>
+        <v>726</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>202</v>
+        <v>727</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>203</v>
+        <v>728</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="P195" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
         <v>38</v>
       </c>
@@ -25009,19 +25125,19 @@
         <v>38</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>204</v>
+        <v>725</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196">
@@ -25029,10 +25145,10 @@
         <v>449</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -25040,31 +25156,31 @@
       </c>
       <c r="F196" s="2"/>
       <c r="G196" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H196" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I196" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J196" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
@@ -25114,19 +25230,19 @@
         <v>38</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197">
@@ -25134,10 +25250,10 @@
         <v>449</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25157,16 +25273,16 @@
         <v>38</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>208</v>
@@ -25195,13 +25311,13 @@
         <v>38</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>38</v>
+        <v>735</v>
       </c>
       <c r="AA197" t="s" s="2">
-        <v>38</v>
+        <v>736</v>
       </c>
       <c r="AB197" t="s" s="2">
         <v>38</v>
@@ -25219,7 +25335,7 @@
         <v>38</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>39</v>
@@ -25239,10 +25355,10 @@
         <v>449</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25253,7 +25369,7 @@
         <v>39</v>
       </c>
       <c r="H198" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I198" t="s" s="2">
         <v>38</v>
@@ -25265,16 +25381,16 @@
         <v>38</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>46</v>
+        <v>738</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>177</v>
+        <v>741</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
@@ -25324,13 +25440,13 @@
         <v>38</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>42</v>
@@ -25344,10 +25460,10 @@
         <v>449</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25373,10 +25489,10 @@
         <v>192</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
@@ -25427,7 +25543,7 @@
         <v>38</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>39</v>
@@ -25447,10 +25563,10 @@
         <v>449</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25550,10 +25666,10 @@
         <v>449</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25655,10 +25771,10 @@
         <v>449</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -25762,10 +25878,10 @@
         <v>449</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -25773,7 +25889,7 @@
       </c>
       <c r="F203" s="2"/>
       <c r="G203" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H203" t="s" s="2">
         <v>45</v>
@@ -25791,10 +25907,10 @@
         <v>46</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>729</v>
+        <v>750</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>177</v>
@@ -25847,10 +25963,10 @@
         <v>38</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="AH203" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI203" t="s" s="2">
         <v>45</v>
@@ -25867,10 +25983,10 @@
         <v>449</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -25896,10 +26012,10 @@
         <v>80</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>208</v>
@@ -25928,13 +26044,13 @@
         <v>38</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="Z204" t="s" s="2">
-        <v>733</v>
+        <v>38</v>
       </c>
       <c r="AA204" t="s" s="2">
-        <v>734</v>
+        <v>38</v>
       </c>
       <c r="AB204" t="s" s="2">
         <v>38</v>
@@ -25952,7 +26068,7 @@
         <v>38</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>39</v>
@@ -25969,13 +26085,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>29</v>
+        <v>754</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>29</v>
+        <v>754</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -25986,7 +26102,7 @@
         <v>39</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>38</v>
@@ -25998,15 +26114,17 @@
         <v>38</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>29</v>
+        <v>755</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O205" s="2"/>
+        <v>756</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
         <v>38</v>
@@ -26055,30 +26173,30 @@
         <v>38</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>29</v>
+        <v>754</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>44</v>
+        <v>757</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>44</v>
+        <v>757</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26089,7 +26207,7 @@
         <v>39</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>38</v>
@@ -26101,13 +26219,13 @@
         <v>38</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>47</v>
+        <v>758</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>48</v>
+        <v>759</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
@@ -26158,30 +26276,30 @@
         <v>38</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>49</v>
+        <v>757</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>50</v>
+        <v>760</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>50</v>
+        <v>760</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26192,7 +26310,7 @@
         <v>39</v>
       </c>
       <c r="H207" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I207" t="s" s="2">
         <v>38</v>
@@ -26204,13 +26322,13 @@
         <v>38</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
@@ -26249,53 +26367,53 @@
         <v>38</v>
       </c>
       <c r="AC207" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD207" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE207" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>57</v>
+        <v>761</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>57</v>
+        <v>761</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H208" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I208" t="s" s="2">
         <v>38</v>
@@ -26307,16 +26425,16 @@
         <v>38</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
@@ -26324,7 +26442,7 @@
       </c>
       <c r="R208" s="2"/>
       <c r="S208" t="s" s="2">
-        <v>735</v>
+        <v>38</v>
       </c>
       <c r="T208" t="s" s="2">
         <v>38</v>
@@ -26354,74 +26472,78 @@
         <v>38</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD208" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE208" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>62</v>
+        <v>762</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>62</v>
+        <v>762</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I209" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>737</v>
+        <v>51</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P209" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="Q209" t="s" s="2">
         <v>38</v>
       </c>
@@ -26469,30 +26591,30 @@
         <v>38</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>29</v>
+        <v>763</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>29</v>
+        <v>763</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26503,7 +26625,7 @@
         <v>39</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>38</v>
@@ -26515,15 +26637,17 @@
         <v>38</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>29</v>
+        <v>764</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O210" s="2"/>
+        <v>765</v>
+      </c>
+      <c r="O210" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
         <v>38</v>
@@ -26572,30 +26696,30 @@
         <v>38</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>29</v>
+        <v>763</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>44</v>
+        <v>766</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>44</v>
+        <v>766</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -26618,15 +26742,17 @@
         <v>38</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>47</v>
+        <v>767</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O211" s="2"/>
+        <v>768</v>
+      </c>
+      <c r="O211" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
         <v>38</v>
@@ -26651,13 +26777,13 @@
         <v>38</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>38</v>
+        <v>769</v>
       </c>
       <c r="AA211" t="s" s="2">
-        <v>38</v>
+        <v>770</v>
       </c>
       <c r="AB211" t="s" s="2">
         <v>38</v>
@@ -26675,7 +26801,7 @@
         <v>38</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>49</v>
+        <v>766</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>39</v>
@@ -26684,21 +26810,21 @@
         <v>45</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -26709,7 +26835,7 @@
         <v>39</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>38</v>
@@ -26721,13 +26847,13 @@
         <v>38</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M212" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>52</v>
+        <v>470</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
@@ -26766,19 +26892,19 @@
         <v>38</v>
       </c>
       <c r="AC212" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD212" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE212" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>39</v>
@@ -26795,13 +26921,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -26809,7 +26935,7 @@
       </c>
       <c r="F213" s="2"/>
       <c r="G213" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>45</v>
@@ -26824,24 +26950,22 @@
         <v>38</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O213" s="2"/>
       <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R213" s="2"/>
       <c r="S213" t="s" s="2">
-        <v>738</v>
+        <v>38</v>
       </c>
       <c r="T213" t="s" s="2">
         <v>38</v>
@@ -26883,10 +27007,10 @@
         <v>38</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH213" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI213" t="s" s="2">
         <v>45</v>
@@ -26900,13 +27024,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -26917,7 +27041,7 @@
         <v>39</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>38</v>
@@ -26929,13 +27053,13 @@
         <v>38</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>405</v>
+        <v>51</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
@@ -26974,42 +27098,42 @@
         <v>38</v>
       </c>
       <c r="AC214" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD214" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE214" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>340</v>
+        <v>467</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -27017,10 +27141,10 @@
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>38</v>
@@ -27032,22 +27156,24 @@
         <v>38</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O215" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O215" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R215" s="2"/>
       <c r="S215" t="s" s="2">
-        <v>38</v>
+        <v>771</v>
       </c>
       <c r="T215" t="s" s="2">
         <v>38</v>
@@ -27089,30 +27215,30 @@
         <v>38</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>340</v>
+        <v>467</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27135,13 +27261,13 @@
         <v>38</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>46</v>
+        <v>773</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -27192,7 +27318,7 @@
         <v>38</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>39</v>
@@ -27201,21 +27327,21 @@
         <v>45</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27226,7 +27352,7 @@
         <v>39</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>38</v>
@@ -27238,13 +27364,13 @@
         <v>38</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M217" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>52</v>
+        <v>483</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -27283,19 +27409,19 @@
         <v>38</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD217" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE217" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>39</v>
@@ -27312,13 +27438,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27326,7 +27452,7 @@
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>45</v>
@@ -27341,24 +27467,22 @@
         <v>38</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O218" s="2"/>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
-        <v>740</v>
+        <v>38</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>38</v>
@@ -27400,10 +27524,10 @@
         <v>38</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>45</v>
@@ -27417,13 +27541,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27434,7 +27558,7 @@
         <v>39</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>38</v>
@@ -27446,13 +27570,13 @@
         <v>38</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
@@ -27491,42 +27615,42 @@
         <v>38</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27534,10 +27658,10 @@
       </c>
       <c r="F220" s="2"/>
       <c r="G220" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>38</v>
@@ -27549,22 +27673,24 @@
         <v>38</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O220" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P220" s="2"/>
       <c r="Q220" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R220" s="2"/>
       <c r="S220" t="s" s="2">
-        <v>38</v>
+        <v>774</v>
       </c>
       <c r="T220" t="s" s="2">
         <v>38</v>
@@ -27606,30 +27732,30 @@
         <v>38</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AH220" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -27652,13 +27778,13 @@
         <v>38</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
@@ -27709,7 +27835,7 @@
         <v>38</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>39</v>
@@ -27718,21 +27844,21 @@
         <v>45</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -27743,7 +27869,7 @@
         <v>39</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I222" t="s" s="2">
         <v>38</v>
@@ -27755,13 +27881,13 @@
         <v>38</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M222" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>52</v>
+        <v>343</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -27800,19 +27926,19 @@
         <v>38</v>
       </c>
       <c r="AC222" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD222" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE222" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>39</v>
@@ -27829,13 +27955,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -27843,7 +27969,7 @@
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>45</v>
@@ -27858,24 +27984,22 @@
         <v>38</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O223" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O223" s="2"/>
       <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R223" s="2"/>
       <c r="S223" t="s" s="2">
-        <v>743</v>
+        <v>38</v>
       </c>
       <c r="T223" t="s" s="2">
         <v>38</v>
@@ -27917,10 +28041,10 @@
         <v>38</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH223" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI223" t="s" s="2">
         <v>45</v>
@@ -27934,13 +28058,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -27951,7 +28075,7 @@
         <v>39</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>38</v>
@@ -27963,13 +28087,13 @@
         <v>38</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
@@ -28008,30 +28132,755 @@
         <v>38</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD224" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE224" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK224" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F225" s="2"/>
+      <c r="G225" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P225" s="2"/>
+      <c r="Q225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R225" s="2"/>
+      <c r="S225" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F226" s="2"/>
+      <c r="G226" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N226" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R226" s="2"/>
+      <c r="S226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F227" s="2"/>
+      <c r="G227" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R227" s="2"/>
+      <c r="S227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F228" s="2"/>
+      <c r="G228" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R228" s="2"/>
+      <c r="S228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F229" s="2"/>
+      <c r="G229" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
+      <c r="Q229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R229" s="2"/>
+      <c r="S229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF229" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ229" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK229" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F230" s="2"/>
+      <c r="G230" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O230" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P230" s="2"/>
+      <c r="Q230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R230" s="2"/>
+      <c r="S230" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F231" s="2"/>
+      <c r="G231" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N231" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O231" s="2"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R231" s="2"/>
+      <c r="S231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG231" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH231" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI231" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK231" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T15:25:12+00:00</t>
+    <t>2023-10-19T16:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T16:10:03+00:00</t>
+    <t>2023-10-20T07:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T08:59:58+00:00</t>
+    <t>2023-10-20T10:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:14:02+00:00</t>
+    <t>2023-10-20T10:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>iso:code:3166:FR</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:34:54+00:00</t>
+    <t>2023-10-20T10:58:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:58:43+00:00</t>
+    <t>2023-10-20T11:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>France</t>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T11:42:03+00:00</t>
+    <t>2023-10-20T11:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T11:56:25+00:00</t>
+    <t>2023-10-23T16:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T16:47:01+00:00</t>
+    <t>2023-10-23T17:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T17:13:00+00:00</t>
+    <t>2023-10-24T08:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:06:31+00:00</t>
+    <t>2023-10-24T08:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:15:22+00:00</t>
+    <t>2023-10-26T14:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T14:31:05+00:00</t>
+    <t>2023-11-02T12:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:47:44+00:00</t>
+    <t>2023-11-06T08:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8183" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8183" uniqueCount="821">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:27:10+00:00</t>
+    <t>2023-12-23T14:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2343,7 +2343,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-group)
 </t>
   </si>
   <si>
@@ -2392,6 +2392,10 @@
   </si>
   <si>
     <t>ResearchStudy.site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-location)
+</t>
   </si>
   <si>
     <t>Lieux / Countries of Recruitment</t>
@@ -4199,7 +4203,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="199">
@@ -4215,7 +4219,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="201">
@@ -4367,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="221">
@@ -4383,7 +4387,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="223">
@@ -4535,7 +4539,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="243">
@@ -4551,7 +4555,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="245">
@@ -4679,7 +4683,7 @@
         <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="262">
@@ -4703,7 +4707,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="265">
@@ -4719,7 +4723,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="267">
@@ -25506,13 +25510,13 @@
         <v>133</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>449</v>
+        <v>769</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>279</v>
@@ -25585,10 +25589,10 @@
         <v>487</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25614,10 +25618,10 @@
         <v>118</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>246</v>
@@ -25649,10 +25653,10 @@
         <v>210</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AA198" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AB198" t="s" s="2">
         <v>76</v>
@@ -25670,7 +25674,7 @@
         <v>76</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>77</v>
@@ -25690,10 +25694,10 @@
         <v>487</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25716,16 +25720,16 @@
         <v>76</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
@@ -25775,7 +25779,7 @@
         <v>76</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>77</v>
@@ -25795,10 +25799,10 @@
         <v>487</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25824,10 +25828,10 @@
         <v>230</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
@@ -25878,7 +25882,7 @@
         <v>76</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>77</v>
@@ -25898,10 +25902,10 @@
         <v>487</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -26001,10 +26005,10 @@
         <v>487</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -26106,10 +26110,10 @@
         <v>487</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -26213,10 +26217,10 @@
         <v>487</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -26242,10 +26246,10 @@
         <v>84</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>215</v>
@@ -26298,7 +26302,7 @@
         <v>76</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>83</v>
@@ -26318,10 +26322,10 @@
         <v>487</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26347,10 +26351,10 @@
         <v>118</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>246</v>
@@ -26403,7 +26407,7 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>77</v>
@@ -26423,10 +26427,10 @@
         <v>487</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26452,10 +26456,10 @@
         <v>84</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>215</v>
@@ -26508,7 +26512,7 @@
         <v>76</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>77</v>
@@ -26528,10 +26532,10 @@
         <v>487</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26557,10 +26561,10 @@
         <v>230</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
@@ -26611,7 +26615,7 @@
         <v>76</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>77</v>
@@ -26631,10 +26635,10 @@
         <v>487</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26734,10 +26738,10 @@
         <v>487</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26839,10 +26843,10 @@
         <v>487</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26946,10 +26950,10 @@
         <v>487</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -26975,10 +26979,10 @@
         <v>84</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>215</v>
@@ -27031,7 +27035,7 @@
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
@@ -27051,10 +27055,10 @@
         <v>487</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -27080,10 +27084,10 @@
         <v>118</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>246</v>
@@ -27115,10 +27119,10 @@
         <v>154</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AA212" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AB212" t="s" s="2">
         <v>76</v>
@@ -27136,7 +27140,7 @@
         <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>77</v>
@@ -27508,7 +27512,7 @@
       </c>
       <c r="R216" s="2"/>
       <c r="S216" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="T216" t="s" s="2">
         <v>76</v>
@@ -27596,7 +27600,7 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M217" t="s" s="2">
         <v>102</v>
@@ -28025,7 +28029,7 @@
       </c>
       <c r="R221" s="2"/>
       <c r="S221" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T221" t="s" s="2">
         <v>76</v>
@@ -28542,7 +28546,7 @@
       </c>
       <c r="R226" s="2"/>
       <c r="S226" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="T226" t="s" s="2">
         <v>76</v>
@@ -29059,7 +29063,7 @@
       </c>
       <c r="R231" s="2"/>
       <c r="S231" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="T231" t="s" s="2">
         <v>76</v>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T09:08:43+00:00</t>
+    <t>2024-01-11T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2297,7 +2297,7 @@
 </t>
   </si>
   <si>
-    <t>References and dependencies</t>
+    <t>Publications et résumé des résultats / Publications about the study and Summary results</t>
   </si>
   <si>
     <t>Citations, references and other related documents.</t>
@@ -24779,7 +24779,7 @@
         <v>78</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J190" t="s" s="2">
         <v>76</v>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T11:17:12+00:00</t>
+    <t>2024-01-15T10:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T10:25:07+00:00</t>
+    <t>2024-01-15T15:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:13:31+00:00</t>
+    <t>2024-01-15T15:15:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8216" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8348" uniqueCount="840">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:15:33+00:00</t>
+    <t>2024-01-22T13:46:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2380,6 +2380,53 @@
   </si>
   <si>
     <t>Identifies the start date and the expected (or actual, depending on status) end date for the study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1
+per-1</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.end</t>
+  </si>
+  <si>
+    <t>Date à laquelle l'essai se termine (la date initiale est prévisionnelle) / Completion date</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
   </si>
   <si>
     <t>ResearchStudy.sponsor</t>
@@ -4216,7 +4263,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>815</v>
+        <v>830</v>
       </c>
     </row>
     <row r="199">
@@ -4232,7 +4279,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>816</v>
+        <v>831</v>
       </c>
     </row>
     <row r="201">
@@ -4384,7 +4431,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>818</v>
+        <v>833</v>
       </c>
     </row>
     <row r="221">
@@ -4400,7 +4447,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>819</v>
+        <v>834</v>
       </c>
     </row>
     <row r="223">
@@ -4552,7 +4599,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>820</v>
+        <v>835</v>
       </c>
     </row>
     <row r="243">
@@ -4568,7 +4615,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>821</v>
+        <v>836</v>
       </c>
     </row>
     <row r="245">
@@ -4696,7 +4743,7 @@
         <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>822</v>
+        <v>837</v>
       </c>
     </row>
     <row r="262">
@@ -4720,7 +4767,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>823</v>
+        <v>838</v>
       </c>
     </row>
     <row r="265">
@@ -4736,7 +4783,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>824</v>
+        <v>839</v>
       </c>
     </row>
     <row r="267">
@@ -4874,7 +4921,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK233"/>
+  <dimension ref="A1:AK237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -25409,26 +25456,24 @@
         <v>83</v>
       </c>
       <c r="I196" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J196" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>766</v>
+        <v>85</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O196" s="2"/>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
         <v>76</v>
@@ -25477,7 +25522,7 @@
         <v>76</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>765</v>
+        <v>87</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>77</v>
@@ -25486,10 +25531,10 @@
         <v>83</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197">
@@ -25497,21 +25542,21 @@
         <v>491</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H197" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I197" t="s" s="2">
         <v>76</v>
@@ -25520,19 +25565,19 @@
         <v>76</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>769</v>
+        <v>89</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>770</v>
+        <v>174</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>771</v>
+        <v>237</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" t="s" s="2">
@@ -25570,31 +25615,31 @@
         <v>76</v>
       </c>
       <c r="AC197" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD197" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE197" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>768</v>
+        <v>94</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
     </row>
     <row r="198">
@@ -25602,10 +25647,10 @@
         <v>491</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25616,10 +25661,10 @@
         <v>77</v>
       </c>
       <c r="H198" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I198" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J198" t="s" s="2">
         <v>76</v>
@@ -25628,16 +25673,16 @@
         <v>133</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>283</v>
+        <v>771</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
@@ -25693,13 +25738,13 @@
         <v>77</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>80</v>
+        <v>773</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="199">
@@ -25707,10 +25752,10 @@
         <v>491</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25724,7 +25769,7 @@
         <v>83</v>
       </c>
       <c r="I199" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J199" t="s" s="2">
         <v>76</v>
@@ -25733,22 +25778,24 @@
         <v>133</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>118</v>
+        <v>768</v>
       </c>
       <c r="M199" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="N199" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="O199" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R199" s="2"/>
+      <c r="R199" t="s" s="2">
+        <v>778</v>
+      </c>
       <c r="S199" t="s" s="2">
         <v>76</v>
       </c>
@@ -25768,32 +25815,32 @@
         <v>76</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG199" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="AA199" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="AB199" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC199" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD199" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE199" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF199" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG199" t="s" s="2">
-        <v>776</v>
-      </c>
       <c r="AH199" t="s" s="2">
         <v>77</v>
       </c>
@@ -25801,7 +25848,7 @@
         <v>83</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>80</v>
+        <v>773</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>104</v>
@@ -25812,10 +25859,10 @@
         <v>491</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25826,28 +25873,28 @@
         <v>77</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I200" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J200" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="N200" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="M200" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>784</v>
-      </c>
       <c r="O200" t="s" s="2">
-        <v>785</v>
+        <v>283</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" t="s" s="2">
@@ -25897,19 +25944,19 @@
         <v>76</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="201">
@@ -25917,10 +25964,10 @@
         <v>491</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25931,7 +25978,7 @@
         <v>77</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I201" t="s" s="2">
         <v>76</v>
@@ -25940,18 +25987,20 @@
         <v>76</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>230</v>
+        <v>784</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="O201" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="O201" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
         <v>76</v>
@@ -26000,19 +26049,19 @@
         <v>76</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="202">
@@ -26020,10 +26069,10 @@
         <v>491</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -26034,27 +26083,29 @@
         <v>77</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I202" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J202" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>84</v>
+        <v>788</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>85</v>
+        <v>789</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O202" s="2"/>
+        <v>790</v>
+      </c>
+      <c r="O202" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
         <v>76</v>
@@ -26103,19 +26154,19 @@
         <v>76</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>87</v>
+        <v>787</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203">
@@ -26123,21 +26174,21 @@
         <v>491</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H203" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I203" t="s" s="2">
         <v>76</v>
@@ -26146,19 +26197,19 @@
         <v>76</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>174</v>
+        <v>792</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>237</v>
+        <v>793</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
@@ -26184,43 +26235,43 @@
         <v>76</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z203" t="s" s="2">
-        <v>76</v>
+        <v>794</v>
       </c>
       <c r="AA203" t="s" s="2">
-        <v>76</v>
+        <v>795</v>
       </c>
       <c r="AB203" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC203" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD203" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE203" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>94</v>
+        <v>791</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="204">
@@ -26228,14 +26279,14 @@
         <v>491</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
@@ -26248,26 +26299,24 @@
         <v>76</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>89</v>
+        <v>797</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>240</v>
+        <v>798</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>241</v>
+        <v>799</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P204" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
         <v>76</v>
       </c>
@@ -26315,7 +26364,7 @@
         <v>76</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>242</v>
+        <v>796</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>77</v>
@@ -26327,7 +26376,7 @@
         <v>80</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="205">
@@ -26335,10 +26384,10 @@
         <v>491</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26346,10 +26395,10 @@
       </c>
       <c r="F205" s="2"/>
       <c r="G205" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>76</v>
@@ -26361,17 +26410,15 @@
         <v>76</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="O205" s="2"/>
       <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
         <v>76</v>
@@ -26420,13 +26467,13 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>80</v>
@@ -26440,10 +26487,10 @@
         <v>491</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26466,17 +26513,15 @@
         <v>76</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>796</v>
+        <v>85</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O206" s="2"/>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
         <v>76</v>
@@ -26525,7 +26570,7 @@
         <v>76</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>795</v>
+        <v>87</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>77</v>
@@ -26534,10 +26579,10 @@
         <v>83</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207">
@@ -26545,21 +26590,21 @@
         <v>491</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H207" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I207" t="s" s="2">
         <v>76</v>
@@ -26571,16 +26616,16 @@
         <v>76</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>799</v>
+        <v>174</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>800</v>
+        <v>237</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
@@ -26618,31 +26663,31 @@
         <v>76</v>
       </c>
       <c r="AC207" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD207" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE207" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>798</v>
+        <v>94</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="208">
@@ -26650,14 +26695,14 @@
         <v>491</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" t="s" s="2">
@@ -26670,22 +26715,26 @@
         <v>76</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>802</v>
+        <v>240</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="O208" s="2"/>
-      <c r="P208" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O208" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P208" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q208" t="s" s="2">
         <v>76</v>
       </c>
@@ -26733,7 +26782,7 @@
         <v>76</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>801</v>
+        <v>242</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>77</v>
@@ -26745,7 +26794,7 @@
         <v>80</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="209">
@@ -26753,10 +26802,10 @@
         <v>491</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26764,7 +26813,7 @@
       </c>
       <c r="F209" s="2"/>
       <c r="G209" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>83</v>
@@ -26782,12 +26831,14 @@
         <v>84</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>85</v>
+        <v>808</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O209" s="2"/>
+        <v>809</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
         <v>76</v>
@@ -26836,19 +26887,19 @@
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>87</v>
+        <v>807</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI209" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="210">
@@ -26856,21 +26907,21 @@
         <v>491</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>76</v>
@@ -26882,16 +26933,16 @@
         <v>76</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>174</v>
+        <v>811</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>237</v>
+        <v>812</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
@@ -26929,31 +26980,31 @@
         <v>76</v>
       </c>
       <c r="AC210" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD210" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE210" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>94</v>
+        <v>810</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="211">
@@ -26961,46 +27012,44 @@
         <v>491</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I211" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>240</v>
+        <v>814</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>241</v>
+        <v>815</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P211" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
         <v>76</v>
       </c>
@@ -27048,19 +27097,19 @@
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>242</v>
+        <v>813</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="212">
@@ -27068,10 +27117,10 @@
         <v>491</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -27082,7 +27131,7 @@
         <v>77</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>76</v>
@@ -27094,17 +27143,15 @@
         <v>76</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="O212" s="2"/>
       <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
         <v>76</v>
@@ -27153,13 +27200,13 @@
         <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>80</v>
@@ -27173,10 +27220,10 @@
         <v>491</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -27199,17 +27246,15 @@
         <v>76</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>811</v>
+        <v>85</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O213" s="2"/>
       <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
         <v>76</v>
@@ -27234,13 +27279,13 @@
         <v>76</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="Z213" t="s" s="2">
-        <v>813</v>
+        <v>76</v>
       </c>
       <c r="AA213" t="s" s="2">
-        <v>814</v>
+        <v>76</v>
       </c>
       <c r="AB213" t="s" s="2">
         <v>76</v>
@@ -27258,7 +27303,7 @@
         <v>76</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>810</v>
+        <v>87</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>77</v>
@@ -27267,25 +27312,25 @@
         <v>83</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>31</v>
+        <v>820</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>31</v>
+        <v>820</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
@@ -27304,15 +27349,17 @@
         <v>76</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O214" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
         <v>76</v>
@@ -27349,19 +27396,19 @@
         <v>76</v>
       </c>
       <c r="AC214" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD214" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE214" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>77</v>
@@ -27378,45 +27425,49 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>82</v>
+        <v>821</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>82</v>
+        <v>821</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O215" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P215" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q215" t="s" s="2">
         <v>76</v>
       </c>
@@ -27464,30 +27515,30 @@
         <v>76</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>88</v>
+        <v>822</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>88</v>
+        <v>822</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27498,7 +27549,7 @@
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>76</v>
@@ -27510,15 +27561,17 @@
         <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>31</v>
+        <v>823</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O216" s="2"/>
+        <v>824</v>
+      </c>
+      <c r="O216" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P216" s="2"/>
       <c r="Q216" t="s" s="2">
         <v>76</v>
@@ -27555,42 +27608,42 @@
         <v>76</v>
       </c>
       <c r="AC216" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD216" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE216" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>94</v>
+        <v>822</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>95</v>
+        <v>825</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>95</v>
+        <v>825</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27598,7 +27651,7 @@
       </c>
       <c r="F217" s="2"/>
       <c r="G217" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
         <v>83</v>
@@ -27613,16 +27666,16 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>97</v>
+        <v>826</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>98</v>
+        <v>827</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="P217" s="2"/>
       <c r="Q217" t="s" s="2">
@@ -27630,7 +27683,7 @@
       </c>
       <c r="R217" s="2"/>
       <c r="S217" t="s" s="2">
-        <v>815</v>
+        <v>76</v>
       </c>
       <c r="T217" t="s" s="2">
         <v>76</v>
@@ -27648,13 +27701,13 @@
         <v>76</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>76</v>
+        <v>828</v>
       </c>
       <c r="AA217" t="s" s="2">
-        <v>76</v>
+        <v>829</v>
       </c>
       <c r="AB217" t="s" s="2">
         <v>76</v>
@@ -27672,19 +27725,19 @@
         <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>95</v>
+        <v>825</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="218">
@@ -27692,10 +27745,10 @@
         <v>509</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27706,7 +27759,7 @@
         <v>77</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>76</v>
@@ -27718,13 +27771,13 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>817</v>
+        <v>79</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
@@ -27775,30 +27828,30 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27809,7 +27862,7 @@
         <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
@@ -27821,13 +27874,13 @@
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>525</v>
+        <v>86</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
@@ -27878,30 +27931,30 @@
         <v>76</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27912,7 +27965,7 @@
         <v>77</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>76</v>
@@ -27924,13 +27977,13 @@
         <v>76</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
@@ -27969,42 +28022,42 @@
         <v>76</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD220" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -28012,10 +28065,10 @@
       </c>
       <c r="F221" s="2"/>
       <c r="G221" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>76</v>
@@ -28027,22 +28080,24 @@
         <v>76</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O221" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O221" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P221" s="2"/>
       <c r="Q221" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R221" s="2"/>
       <c r="S221" t="s" s="2">
-        <v>76</v>
+        <v>830</v>
       </c>
       <c r="T221" t="s" s="2">
         <v>76</v>
@@ -28072,42 +28127,42 @@
         <v>76</v>
       </c>
       <c r="AC221" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD221" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE221" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH221" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -28115,7 +28170,7 @@
       </c>
       <c r="F222" s="2"/>
       <c r="G222" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>83</v>
@@ -28130,24 +28185,22 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>96</v>
+        <v>832</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O222" s="2"/>
       <c r="P222" s="2"/>
       <c r="Q222" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R222" s="2"/>
       <c r="S222" t="s" s="2">
-        <v>818</v>
+        <v>76</v>
       </c>
       <c r="T222" t="s" s="2">
         <v>76</v>
@@ -28189,19 +28242,19 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="223">
@@ -28209,10 +28262,10 @@
         <v>522</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -28223,7 +28276,7 @@
         <v>77</v>
       </c>
       <c r="H223" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I223" t="s" s="2">
         <v>76</v>
@@ -28235,13 +28288,13 @@
         <v>76</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>103</v>
+        <v>525</v>
       </c>
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
@@ -28292,30 +28345,30 @@
         <v>76</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28326,7 +28379,7 @@
         <v>77</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
@@ -28338,13 +28391,13 @@
         <v>76</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>385</v>
+        <v>86</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
@@ -28395,30 +28448,30 @@
         <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28429,7 +28482,7 @@
         <v>77</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>76</v>
@@ -28441,13 +28494,13 @@
         <v>76</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
@@ -28486,42 +28539,42 @@
         <v>76</v>
       </c>
       <c r="AC225" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD225" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE225" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28529,10 +28582,10 @@
       </c>
       <c r="F226" s="2"/>
       <c r="G226" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H226" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I226" t="s" s="2">
         <v>76</v>
@@ -28544,22 +28597,24 @@
         <v>76</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O226" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P226" s="2"/>
       <c r="Q226" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R226" s="2"/>
       <c r="S226" t="s" s="2">
-        <v>76</v>
+        <v>833</v>
       </c>
       <c r="T226" t="s" s="2">
         <v>76</v>
@@ -28589,42 +28644,42 @@
         <v>76</v>
       </c>
       <c r="AC226" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD226" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE226" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28632,7 +28687,7 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>83</v>
@@ -28647,24 +28702,22 @@
         <v>76</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O227" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O227" s="2"/>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R227" s="2"/>
       <c r="S227" t="s" s="2">
-        <v>820</v>
+        <v>76</v>
       </c>
       <c r="T227" t="s" s="2">
         <v>76</v>
@@ -28706,19 +28759,19 @@
         <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="228">
@@ -28726,10 +28779,10 @@
         <v>382</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -28740,7 +28793,7 @@
         <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>76</v>
@@ -28752,13 +28805,13 @@
         <v>76</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>103</v>
+        <v>385</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
@@ -28809,30 +28862,30 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28843,7 +28896,7 @@
         <v>77</v>
       </c>
       <c r="H229" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I229" t="s" s="2">
         <v>76</v>
@@ -28855,13 +28908,13 @@
         <v>76</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>517</v>
+        <v>86</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
@@ -28912,30 +28965,30 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -28946,7 +28999,7 @@
         <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -28958,13 +29011,13 @@
         <v>76</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
@@ -29003,42 +29056,42 @@
         <v>76</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD230" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -29046,10 +29099,10 @@
       </c>
       <c r="F231" s="2"/>
       <c r="G231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I231" t="s" s="2">
         <v>76</v>
@@ -29061,22 +29114,24 @@
         <v>76</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O231" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O231" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R231" s="2"/>
       <c r="S231" t="s" s="2">
-        <v>76</v>
+        <v>835</v>
       </c>
       <c r="T231" t="s" s="2">
         <v>76</v>
@@ -29106,42 +29161,42 @@
         <v>76</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD231" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -29149,7 +29204,7 @@
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H232" t="s" s="2">
         <v>83</v>
@@ -29164,24 +29219,22 @@
         <v>76</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O232" s="2"/>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R232" s="2"/>
       <c r="S232" t="s" s="2">
-        <v>823</v>
+        <v>76</v>
       </c>
       <c r="T232" t="s" s="2">
         <v>76</v>
@@ -29223,19 +29276,19 @@
         <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI232" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="233">
@@ -29243,10 +29296,10 @@
         <v>514</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -29257,7 +29310,7 @@
         <v>77</v>
       </c>
       <c r="H233" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I233" t="s" s="2">
         <v>76</v>
@@ -29269,13 +29322,13 @@
         <v>76</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>103</v>
+        <v>517</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
@@ -29326,18 +29379,432 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI233" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ233" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK233" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H234" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R234" s="2"/>
+      <c r="S234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG234" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI234" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK234" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F235" s="2"/>
+      <c r="G235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L235" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R235" s="2"/>
+      <c r="S235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC235" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD235" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF235" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG235" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ235" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK235" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F236" s="2"/>
+      <c r="G236" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H236" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O236" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P236" s="2"/>
+      <c r="Q236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R236" s="2"/>
+      <c r="S236" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="T236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG236" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH236" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI236" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK236" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C237" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H237" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L237" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R237" s="2"/>
+      <c r="S237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG237" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI237" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ237" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK237" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8348" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8510" uniqueCount="854">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T13:46:22+00:00</t>
+    <t>2024-01-24T10:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1649,6 +1649,53 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t>eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary}
+</t>
+  </si>
+  <si>
+    <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.url</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.value[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-label-r5</t>
   </si>
   <si>
@@ -1656,7 +1703,7 @@
 </t>
   </si>
   <si>
-    <t>autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
+    <t>Autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
   </si>
   <si>
     <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
@@ -2334,10 +2381,6 @@
   </si>
   <si>
     <t>ResearchStudy.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
   </si>
   <si>
     <t>Résumé de l'essai / Summary Results</t>
@@ -4263,7 +4306,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>830</v>
+        <v>844</v>
       </c>
     </row>
     <row r="199">
@@ -4279,7 +4322,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>831</v>
+        <v>845</v>
       </c>
     </row>
     <row r="201">
@@ -4431,7 +4474,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>833</v>
+        <v>847</v>
       </c>
     </row>
     <row r="221">
@@ -4447,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>834</v>
+        <v>848</v>
       </c>
     </row>
     <row r="223">
@@ -4599,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>835</v>
+        <v>849</v>
       </c>
     </row>
     <row r="243">
@@ -4615,7 +4658,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>836</v>
+        <v>850</v>
       </c>
     </row>
     <row r="245">
@@ -4743,7 +4786,7 @@
         <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>837</v>
+        <v>851</v>
       </c>
     </row>
     <row r="262">
@@ -4767,7 +4810,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>838</v>
+        <v>852</v>
       </c>
     </row>
     <row r="265">
@@ -4783,7 +4826,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>839</v>
+        <v>853</v>
       </c>
     </row>
     <row r="267">
@@ -4921,7 +4964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK237"/>
+  <dimension ref="A1:AK242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4931,9 +4974,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.55078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="63.5" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="43.16796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="29.953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -18915,7 +18958,7 @@
         <v>507</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>294</v>
+        <v>527</v>
       </c>
       <c r="E134" t="s" s="2">
         <v>76</v>
@@ -18925,7 +18968,7 @@
         <v>77</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>133</v>
@@ -18937,13 +18980,13 @@
         <v>76</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -19014,46 +19057,42 @@
         <v>491</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P135" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
         <v>76</v>
       </c>
@@ -19089,31 +19128,31 @@
         <v>76</v>
       </c>
       <c r="AC135" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136">
@@ -19121,10 +19160,10 @@
         <v>491</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -19135,7 +19174,7 @@
         <v>77</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>76</v>
@@ -19144,21 +19183,19 @@
         <v>76</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>532</v>
+        <v>31</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>533</v>
+        <v>90</v>
       </c>
       <c r="O136" s="2"/>
-      <c r="P136" t="s" s="2">
-        <v>534</v>
-      </c>
+      <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
         <v>76</v>
       </c>
@@ -19194,10 +19231,10 @@
         <v>76</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>535</v>
+        <v>91</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>536</v>
+        <v>92</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>76</v>
@@ -19206,7 +19243,7 @@
         <v>93</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>531</v>
+        <v>94</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>77</v>
@@ -19218,7 +19255,7 @@
         <v>80</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="137">
@@ -19226,52 +19263,50 @@
         <v>491</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>539</v>
+        <v>97</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O137" s="2"/>
-      <c r="P137" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R137" s="2"/>
       <c r="S137" t="s" s="2">
-        <v>76</v>
+        <v>537</v>
       </c>
       <c r="T137" t="s" s="2">
         <v>76</v>
@@ -19313,19 +19348,19 @@
         <v>76</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>531</v>
+        <v>95</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138">
@@ -19333,10 +19368,10 @@
         <v>491</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -19344,7 +19379,7 @@
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>83</v>
@@ -19359,13 +19394,13 @@
         <v>76</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>84</v>
+        <v>540</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -19416,7 +19451,7 @@
         <v>76</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>77</v>
@@ -19425,10 +19460,10 @@
         <v>83</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139">
@@ -19436,14 +19471,16 @@
         <v>491</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="D139" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="D139" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="E139" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" t="s" s="2">
@@ -19453,7 +19490,7 @@
         <v>78</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J139" t="s" s="2">
         <v>76</v>
@@ -19462,17 +19499,15 @@
         <v>76</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>89</v>
+        <v>542</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>174</v>
+        <v>543</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
         <v>76</v>
@@ -19509,19 +19544,19 @@
         <v>76</v>
       </c>
       <c r="AC139" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD139" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>77</v>
@@ -19541,21 +19576,21 @@
         <v>491</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>545</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>76</v>
@@ -19564,22 +19599,22 @@
         <v>133</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>546</v>
+        <v>179</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>547</v>
+        <v>180</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>548</v>
+        <v>176</v>
       </c>
       <c r="P140" t="s" s="2">
-        <v>549</v>
+        <v>181</v>
       </c>
       <c r="Q140" t="s" s="2">
         <v>76</v>
@@ -19589,7 +19624,7 @@
         <v>76</v>
       </c>
       <c r="T140" t="s" s="2">
-        <v>550</v>
+        <v>76</v>
       </c>
       <c r="U140" t="s" s="2">
         <v>76</v>
@@ -19604,43 +19639,43 @@
         <v>76</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>551</v>
+        <v>76</v>
       </c>
       <c r="AA140" t="s" s="2">
-        <v>552</v>
+        <v>76</v>
       </c>
       <c r="AB140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC140" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD140" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>553</v>
+        <v>182</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141">
@@ -19648,10 +19683,10 @@
         <v>491</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19662,7 +19697,7 @@
         <v>77</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I141" t="s" s="2">
         <v>76</v>
@@ -19674,19 +19709,17 @@
         <v>133</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="Q141" t="s" s="2">
         <v>76</v>
@@ -19711,37 +19744,37 @@
         <v>76</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>560</v>
+        <v>76</v>
       </c>
       <c r="AA141" t="s" s="2">
-        <v>561</v>
+        <v>76</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC141" t="s" s="2">
-        <v>76</v>
+        <v>550</v>
       </c>
       <c r="AD141" t="s" s="2">
-        <v>76</v>
+        <v>551</v>
       </c>
       <c r="AE141" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>80</v>
@@ -19755,12 +19788,14 @@
         <v>491</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="D142" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="D142" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="E142" t="s" s="2">
         <v>76</v>
       </c>
@@ -19772,7 +19807,7 @@
         <v>83</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J142" t="s" s="2">
         <v>76</v>
@@ -19781,19 +19816,17 @@
         <v>133</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>76</v>
@@ -19806,7 +19839,7 @@
         <v>76</v>
       </c>
       <c r="U142" t="s" s="2">
-        <v>569</v>
+        <v>76</v>
       </c>
       <c r="V142" t="s" s="2">
         <v>76</v>
@@ -19842,13 +19875,13 @@
         <v>76</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>80</v>
@@ -19862,10 +19895,10 @@
         <v>491</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19885,20 +19918,18 @@
         <v>76</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L143" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>573</v>
+        <v>85</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O143" s="2"/>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>76</v>
@@ -19911,7 +19942,7 @@
         <v>76</v>
       </c>
       <c r="U143" t="s" s="2">
-        <v>576</v>
+        <v>76</v>
       </c>
       <c r="V143" t="s" s="2">
         <v>76</v>
@@ -19947,7 +19978,7 @@
         <v>76</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>577</v>
+        <v>87</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>77</v>
@@ -19956,10 +19987,10 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144">
@@ -19967,21 +19998,21 @@
         <v>491</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>76</v>
@@ -19990,19 +20021,19 @@
         <v>76</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>580</v>
+        <v>174</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>581</v>
+        <v>237</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -20040,31 +20071,31 @@
         <v>76</v>
       </c>
       <c r="AC144" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD144" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE144" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>582</v>
+        <v>94</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
     </row>
     <row r="145">
@@ -20072,10 +20103,10 @@
         <v>491</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -20083,7 +20114,7 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>83</v>
@@ -20092,24 +20123,26 @@
         <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>447</v>
+        <v>150</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="P145" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="P145" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="Q145" t="s" s="2">
         <v>76</v>
       </c>
@@ -20118,7 +20151,7 @@
         <v>76</v>
       </c>
       <c r="T145" t="s" s="2">
-        <v>76</v>
+        <v>565</v>
       </c>
       <c r="U145" t="s" s="2">
         <v>76</v>
@@ -20133,13 +20166,13 @@
         <v>76</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>76</v>
+        <v>566</v>
       </c>
       <c r="AA145" t="s" s="2">
-        <v>76</v>
+        <v>567</v>
       </c>
       <c r="AB145" t="s" s="2">
         <v>76</v>
@@ -20157,7 +20190,7 @@
         <v>76</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>77</v>
@@ -20169,7 +20202,7 @@
         <v>80</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146">
@@ -20177,14 +20210,12 @@
         <v>491</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="D146" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
         <v>76</v>
       </c>
@@ -20193,10 +20224,10 @@
         <v>77</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>76</v>
@@ -20205,17 +20236,19 @@
         <v>133</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="P146" t="s" s="2">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="Q146" t="s" s="2">
         <v>76</v>
@@ -20240,13 +20273,13 @@
         <v>76</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>76</v>
+        <v>575</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>76</v>
+        <v>576</v>
       </c>
       <c r="AB146" t="s" s="2">
         <v>76</v>
@@ -20264,13 +20297,13 @@
         <v>76</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>80</v>
@@ -20284,10 +20317,10 @@
         <v>491</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -20307,19 +20340,23 @@
         <v>76</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P147" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="Q147" t="s" s="2">
         <v>76</v>
       </c>
@@ -20331,7 +20368,7 @@
         <v>76</v>
       </c>
       <c r="U147" t="s" s="2">
-        <v>76</v>
+        <v>584</v>
       </c>
       <c r="V147" t="s" s="2">
         <v>76</v>
@@ -20367,7 +20404,7 @@
         <v>76</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>87</v>
+        <v>585</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>77</v>
@@ -20376,10 +20413,10 @@
         <v>83</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148">
@@ -20387,21 +20424,21 @@
         <v>491</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>76</v>
@@ -20410,19 +20447,19 @@
         <v>76</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>174</v>
+        <v>588</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>237</v>
+        <v>589</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>176</v>
+        <v>590</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
@@ -20436,7 +20473,7 @@
         <v>76</v>
       </c>
       <c r="U148" t="s" s="2">
-        <v>76</v>
+        <v>591</v>
       </c>
       <c r="V148" t="s" s="2">
         <v>76</v>
@@ -20460,31 +20497,31 @@
         <v>76</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD148" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>94</v>
+        <v>592</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149">
@@ -20492,10 +20529,10 @@
         <v>491</v>
       </c>
       <c r="B149" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C149" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="C149" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20503,7 +20540,7 @@
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>83</v>
@@ -20512,26 +20549,24 @@
         <v>76</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>547</v>
+        <v>596</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="P149" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
         <v>76</v>
       </c>
@@ -20540,7 +20575,7 @@
         <v>76</v>
       </c>
       <c r="T149" t="s" s="2">
-        <v>595</v>
+        <v>76</v>
       </c>
       <c r="U149" t="s" s="2">
         <v>76</v>
@@ -20555,13 +20590,13 @@
         <v>76</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>551</v>
+        <v>76</v>
       </c>
       <c r="AA149" t="s" s="2">
-        <v>552</v>
+        <v>76</v>
       </c>
       <c r="AB149" t="s" s="2">
         <v>76</v>
@@ -20579,7 +20614,7 @@
         <v>76</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>77</v>
@@ -20591,7 +20626,7 @@
         <v>80</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>104</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150">
@@ -20599,10 +20634,10 @@
         <v>491</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20625,20 +20660,18 @@
         <v>133</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>118</v>
+        <v>447</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="P150" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
         <v>76</v>
       </c>
@@ -20662,13 +20695,13 @@
         <v>76</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>560</v>
+        <v>76</v>
       </c>
       <c r="AA150" t="s" s="2">
-        <v>561</v>
+        <v>76</v>
       </c>
       <c r="AB150" t="s" s="2">
         <v>76</v>
@@ -20686,7 +20719,7 @@
         <v>76</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>77</v>
@@ -20698,7 +20731,7 @@
         <v>80</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="151">
@@ -20706,12 +20739,14 @@
         <v>491</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="D151" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="D151" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="E151" t="s" s="2">
         <v>76</v>
       </c>
@@ -20720,10 +20755,10 @@
         <v>77</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>76</v>
@@ -20732,19 +20767,17 @@
         <v>133</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>565</v>
+        <v>606</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="Q151" t="s" s="2">
         <v>76</v>
@@ -20757,7 +20790,7 @@
         <v>76</v>
       </c>
       <c r="U151" t="s" s="2">
-        <v>569</v>
+        <v>76</v>
       </c>
       <c r="V151" t="s" s="2">
         <v>76</v>
@@ -20793,13 +20826,13 @@
         <v>76</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>80</v>
@@ -20813,10 +20846,10 @@
         <v>491</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20836,20 +20869,18 @@
         <v>76</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L152" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>573</v>
+        <v>85</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O152" s="2"/>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
         <v>76</v>
@@ -20862,7 +20893,7 @@
         <v>76</v>
       </c>
       <c r="U152" t="s" s="2">
-        <v>576</v>
+        <v>76</v>
       </c>
       <c r="V152" t="s" s="2">
         <v>76</v>
@@ -20898,7 +20929,7 @@
         <v>76</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>577</v>
+        <v>87</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>77</v>
@@ -20907,10 +20938,10 @@
         <v>83</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153">
@@ -20918,21 +20949,21 @@
         <v>491</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>76</v>
@@ -20941,19 +20972,19 @@
         <v>76</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>580</v>
+        <v>174</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>581</v>
+        <v>237</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
@@ -20991,31 +21022,31 @@
         <v>76</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE153" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>582</v>
+        <v>94</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154">
@@ -21023,10 +21054,10 @@
         <v>491</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -21034,7 +21065,7 @@
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>83</v>
@@ -21043,24 +21074,26 @@
         <v>76</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>447</v>
+        <v>150</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="P154" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="P154" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="Q154" t="s" s="2">
         <v>76</v>
       </c>
@@ -21069,7 +21102,7 @@
         <v>76</v>
       </c>
       <c r="T154" t="s" s="2">
-        <v>76</v>
+        <v>610</v>
       </c>
       <c r="U154" t="s" s="2">
         <v>76</v>
@@ -21084,13 +21117,13 @@
         <v>76</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>76</v>
+        <v>566</v>
       </c>
       <c r="AA154" t="s" s="2">
-        <v>76</v>
+        <v>567</v>
       </c>
       <c r="AB154" t="s" s="2">
         <v>76</v>
@@ -21108,7 +21141,7 @@
         <v>76</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>77</v>
@@ -21120,7 +21153,7 @@
         <v>80</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155">
@@ -21128,10 +21161,10 @@
         <v>491</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -21145,7 +21178,7 @@
         <v>83</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>76</v>
@@ -21154,18 +21187,20 @@
         <v>133</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P155" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="P155" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="Q155" t="s" s="2">
         <v>76</v>
       </c>
@@ -21189,13 +21224,13 @@
         <v>76</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>76</v>
+        <v>575</v>
       </c>
       <c r="AA155" t="s" s="2">
-        <v>76</v>
+        <v>576</v>
       </c>
       <c r="AB155" t="s" s="2">
         <v>76</v>
@@ -21213,7 +21248,7 @@
         <v>76</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>77</v>
@@ -21233,10 +21268,10 @@
         <v>491</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -21247,7 +21282,7 @@
         <v>77</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I156" t="s" s="2">
         <v>76</v>
@@ -21259,18 +21294,20 @@
         <v>133</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>605</v>
+        <v>96</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="P156" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="P156" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="Q156" t="s" s="2">
         <v>76</v>
       </c>
@@ -21282,7 +21319,7 @@
         <v>76</v>
       </c>
       <c r="U156" t="s" s="2">
-        <v>76</v>
+        <v>584</v>
       </c>
       <c r="V156" t="s" s="2">
         <v>76</v>
@@ -21318,19 +21355,19 @@
         <v>76</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157">
@@ -21338,21 +21375,21 @@
         <v>491</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>609</v>
+        <v>76</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>76</v>
@@ -21364,20 +21401,18 @@
         <v>133</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>610</v>
+        <v>84</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="P157" t="s" s="2">
-        <v>613</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
         <v>76</v>
       </c>
@@ -21389,7 +21424,7 @@
         <v>76</v>
       </c>
       <c r="U157" t="s" s="2">
-        <v>76</v>
+        <v>591</v>
       </c>
       <c r="V157" t="s" s="2">
         <v>76</v>
@@ -21425,19 +21460,19 @@
         <v>76</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="158">
@@ -21448,7 +21483,7 @@
         <v>614</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21456,31 +21491,31 @@
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
@@ -21506,13 +21541,13 @@
         <v>76</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>617</v>
+        <v>76</v>
       </c>
       <c r="AA158" t="s" s="2">
-        <v>618</v>
+        <v>76</v>
       </c>
       <c r="AB158" t="s" s="2">
         <v>76</v>
@@ -21530,10 +21565,10 @@
         <v>76</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>83</v>
@@ -21542,7 +21577,7 @@
         <v>80</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>104</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159">
@@ -21550,10 +21585,10 @@
         <v>491</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21576,16 +21611,16 @@
         <v>133</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>118</v>
+        <v>447</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>246</v>
+        <v>602</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
@@ -21611,13 +21646,13 @@
         <v>76</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>622</v>
+        <v>76</v>
       </c>
       <c r="AA159" t="s" s="2">
-        <v>623</v>
+        <v>76</v>
       </c>
       <c r="AB159" t="s" s="2">
         <v>76</v>
@@ -21635,7 +21670,7 @@
         <v>76</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>77</v>
@@ -21647,7 +21682,7 @@
         <v>80</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160">
@@ -21655,10 +21690,10 @@
         <v>491</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21681,16 +21716,16 @@
         <v>133</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
@@ -21716,11 +21751,13 @@
         <v>76</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z160" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA160" t="s" s="2">
-        <v>627</v>
+        <v>76</v>
       </c>
       <c r="AB160" t="s" s="2">
         <v>76</v>
@@ -21738,7 +21775,7 @@
         <v>76</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>77</v>
@@ -21758,10 +21795,10 @@
         <v>491</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21775,7 +21812,7 @@
         <v>78</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>76</v>
@@ -21784,16 +21821,16 @@
         <v>133</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>118</v>
+        <v>620</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
@@ -21819,11 +21856,13 @@
         <v>76</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z161" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA161" t="s" s="2">
-        <v>631</v>
+        <v>76</v>
       </c>
       <c r="AB161" t="s" s="2">
         <v>76</v>
@@ -21841,7 +21880,7 @@
         <v>76</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>77</v>
@@ -21853,7 +21892,7 @@
         <v>80</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="162">
@@ -21861,14 +21900,14 @@
         <v>491</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>76</v>
+        <v>624</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" t="s" s="2">
@@ -21887,18 +21926,20 @@
         <v>133</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>118</v>
+        <v>625</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P162" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="P162" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="Q162" t="s" s="2">
         <v>76</v>
       </c>
@@ -21922,10 +21963,10 @@
         <v>76</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>635</v>
+        <v>76</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>76</v>
@@ -21946,7 +21987,7 @@
         <v>76</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>77</v>
@@ -21958,7 +21999,7 @@
         <v>80</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="163">
@@ -21966,10 +22007,10 @@
         <v>491</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21977,31 +22018,31 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>133</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
@@ -22027,13 +22068,13 @@
         <v>76</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="AB163" t="s" s="2">
         <v>76</v>
@@ -22042,22 +22083,22 @@
         <v>76</v>
       </c>
       <c r="AD163" t="s" s="2">
-        <v>641</v>
+        <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>80</v>
@@ -22071,14 +22112,12 @@
         <v>491</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D164" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>76</v>
       </c>
@@ -22087,10 +22126,10 @@
         <v>77</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J164" t="s" s="2">
         <v>76</v>
@@ -22102,10 +22141,10 @@
         <v>118</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>246</v>
@@ -22134,13 +22173,13 @@
         <v>76</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AA164" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AB164" t="s" s="2">
         <v>76</v>
@@ -22158,13 +22197,13 @@
         <v>76</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>80</v>
@@ -22178,10 +22217,10 @@
         <v>491</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -22195,24 +22234,26 @@
         <v>83</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>85</v>
+        <v>640</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O165" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
         <v>76</v>
@@ -22222,7 +22263,7 @@
         <v>76</v>
       </c>
       <c r="T165" t="s" s="2">
-        <v>647</v>
+        <v>76</v>
       </c>
       <c r="U165" t="s" s="2">
         <v>76</v>
@@ -22237,13 +22278,11 @@
         <v>76</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Z165" s="2"/>
       <c r="AA165" t="s" s="2">
-        <v>76</v>
+        <v>642</v>
       </c>
       <c r="AB165" t="s" s="2">
         <v>76</v>
@@ -22261,7 +22300,7 @@
         <v>76</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>87</v>
+        <v>639</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>77</v>
@@ -22270,10 +22309,10 @@
         <v>83</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166">
@@ -22281,14 +22320,14 @@
         <v>491</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
@@ -22298,25 +22337,25 @@
         <v>78</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J166" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>174</v>
+        <v>644</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>237</v>
+        <v>645</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
@@ -22342,31 +22381,29 @@
         <v>76</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Z166" s="2"/>
       <c r="AA166" t="s" s="2">
-        <v>76</v>
+        <v>646</v>
       </c>
       <c r="AB166" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC166" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD166" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>94</v>
+        <v>643</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>77</v>
@@ -22378,7 +22415,7 @@
         <v>80</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="167">
@@ -22386,10 +22423,10 @@
         <v>491</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -22412,20 +22449,18 @@
         <v>133</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="P167" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
         <v>76</v>
       </c>
@@ -22449,10 +22484,10 @@
         <v>76</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>76</v>
+        <v>650</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>76</v>
@@ -22473,7 +22508,7 @@
         <v>76</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>77</v>
@@ -22493,10 +22528,10 @@
         <v>491</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22507,27 +22542,29 @@
         <v>77</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J168" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>85</v>
+        <v>652</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O168" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P168" s="2"/>
       <c r="Q168" t="s" s="2">
         <v>76</v>
@@ -22552,13 +22589,13 @@
         <v>76</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>76</v>
+        <v>654</v>
       </c>
       <c r="AA168" t="s" s="2">
-        <v>76</v>
+        <v>655</v>
       </c>
       <c r="AB168" t="s" s="2">
         <v>76</v>
@@ -22567,28 +22604,28 @@
         <v>76</v>
       </c>
       <c r="AD168" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AE168" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>87</v>
+        <v>651</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169">
@@ -22596,14 +22633,16 @@
         <v>491</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="D169" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="D169" t="s" s="2">
+        <v>658</v>
+      </c>
       <c r="E169" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" t="s" s="2">
@@ -22613,25 +22652,25 @@
         <v>78</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J169" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>174</v>
+        <v>659</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>237</v>
+        <v>653</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" t="s" s="2">
@@ -22657,31 +22696,31 @@
         <v>76</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>76</v>
+        <v>654</v>
       </c>
       <c r="AA169" t="s" s="2">
-        <v>76</v>
+        <v>655</v>
       </c>
       <c r="AB169" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC169" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD169" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>94</v>
+        <v>651</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>77</v>
@@ -22693,7 +22732,7 @@
         <v>80</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170">
@@ -22701,10 +22740,10 @@
         <v>491</v>
       </c>
       <c r="B170" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C170" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22724,23 +22763,19 @@
         <v>76</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>663</v>
+        <v>85</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="P170" t="s" s="2">
-        <v>666</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
         <v>76</v>
       </c>
@@ -22749,7 +22784,7 @@
         <v>76</v>
       </c>
       <c r="T170" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="U170" t="s" s="2">
         <v>76</v>
@@ -22788,7 +22823,7 @@
         <v>76</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>668</v>
+        <v>87</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>77</v>
@@ -22797,10 +22832,10 @@
         <v>83</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171">
@@ -22808,21 +22843,21 @@
         <v>491</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H171" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I171" t="s" s="2">
         <v>76</v>
@@ -22831,19 +22866,19 @@
         <v>76</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>671</v>
+        <v>174</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>672</v>
+        <v>237</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>673</v>
+        <v>176</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
@@ -22881,31 +22916,31 @@
         <v>76</v>
       </c>
       <c r="AC171" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE171" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>674</v>
+        <v>94</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="172">
@@ -22913,10 +22948,10 @@
         <v>491</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22927,7 +22962,7 @@
         <v>77</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>76</v>
@@ -22939,19 +22974,19 @@
         <v>133</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>150</v>
+        <v>345</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>215</v>
+        <v>669</v>
       </c>
       <c r="P172" t="s" s="2">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="Q172" t="s" s="2">
         <v>76</v>
@@ -23000,13 +23035,13 @@
         <v>76</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>80</v>
@@ -23020,10 +23055,10 @@
         <v>491</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -23043,23 +23078,19 @@
         <v>76</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L173" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>683</v>
+        <v>85</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P173" t="s" s="2">
-        <v>685</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
       <c r="Q173" t="s" s="2">
         <v>76</v>
       </c>
@@ -23107,7 +23138,7 @@
         <v>76</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>686</v>
+        <v>87</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>77</v>
@@ -23116,10 +23147,10 @@
         <v>83</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174">
@@ -23127,21 +23158,21 @@
         <v>491</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>76</v>
@@ -23150,23 +23181,21 @@
         <v>76</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>689</v>
+        <v>174</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>690</v>
+        <v>237</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="P174" t="s" s="2">
-        <v>692</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P174" s="2"/>
       <c r="Q174" t="s" s="2">
         <v>76</v>
       </c>
@@ -23202,31 +23231,31 @@
         <v>76</v>
       </c>
       <c r="AC174" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE174" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>693</v>
+        <v>94</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175">
@@ -23234,10 +23263,10 @@
         <v>491</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -23260,19 +23289,19 @@
         <v>133</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="P175" t="s" s="2">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="Q175" t="s" s="2">
         <v>76</v>
@@ -23282,7 +23311,7 @@
         <v>76</v>
       </c>
       <c r="T175" t="s" s="2">
-        <v>76</v>
+        <v>682</v>
       </c>
       <c r="U175" t="s" s="2">
         <v>76</v>
@@ -23321,7 +23350,7 @@
         <v>76</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>77</v>
@@ -23341,14 +23370,12 @@
         <v>491</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D176" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
         <v>76</v>
       </c>
@@ -23357,10 +23384,10 @@
         <v>77</v>
       </c>
       <c r="H176" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>76</v>
@@ -23369,16 +23396,16 @@
         <v>133</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>638</v>
+        <v>687</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>246</v>
+        <v>688</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" t="s" s="2">
@@ -23404,13 +23431,13 @@
         <v>76</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>639</v>
+        <v>76</v>
       </c>
       <c r="AA176" t="s" s="2">
-        <v>640</v>
+        <v>76</v>
       </c>
       <c r="AB176" t="s" s="2">
         <v>76</v>
@@ -23428,13 +23455,13 @@
         <v>76</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>636</v>
+        <v>689</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>80</v>
@@ -23448,10 +23475,10 @@
         <v>491</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -23471,19 +23498,23 @@
         <v>76</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>85</v>
+        <v>692</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
+        <v>693</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="P177" t="s" s="2">
+        <v>694</v>
+      </c>
       <c r="Q177" t="s" s="2">
         <v>76</v>
       </c>
@@ -23492,7 +23523,7 @@
         <v>76</v>
       </c>
       <c r="T177" t="s" s="2">
-        <v>705</v>
+        <v>76</v>
       </c>
       <c r="U177" t="s" s="2">
         <v>76</v>
@@ -23531,7 +23562,7 @@
         <v>76</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>87</v>
+        <v>695</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>77</v>
@@ -23540,10 +23571,10 @@
         <v>83</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178">
@@ -23551,21 +23582,21 @@
         <v>491</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>649</v>
+        <v>697</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>76</v>
@@ -23574,21 +23605,23 @@
         <v>76</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>174</v>
+        <v>698</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>237</v>
+        <v>699</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P178" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="P178" t="s" s="2">
+        <v>700</v>
+      </c>
       <c r="Q178" t="s" s="2">
         <v>76</v>
       </c>
@@ -23624,31 +23657,31 @@
         <v>76</v>
       </c>
       <c r="AC178" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD178" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE178" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>94</v>
+        <v>701</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179">
@@ -23656,10 +23689,10 @@
         <v>491</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>651</v>
+        <v>703</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23670,7 +23703,7 @@
         <v>77</v>
       </c>
       <c r="H179" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I179" t="s" s="2">
         <v>76</v>
@@ -23682,19 +23715,19 @@
         <v>133</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>345</v>
+        <v>189</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>652</v>
+        <v>704</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>653</v>
+        <v>705</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>654</v>
+        <v>706</v>
       </c>
       <c r="P179" t="s" s="2">
-        <v>655</v>
+        <v>707</v>
       </c>
       <c r="Q179" t="s" s="2">
         <v>76</v>
@@ -23743,13 +23776,13 @@
         <v>76</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>656</v>
+        <v>708</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>80</v>
@@ -23763,10 +23796,10 @@
         <v>491</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23774,7 +23807,7 @@
       </c>
       <c r="F180" s="2"/>
       <c r="G180" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H180" t="s" s="2">
         <v>83</v>
@@ -23792,16 +23825,16 @@
         <v>84</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="P180" t="s" s="2">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="Q180" t="s" s="2">
         <v>76</v>
@@ -23850,7 +23883,7 @@
         <v>76</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>77</v>
@@ -23870,12 +23903,14 @@
         <v>491</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="D181" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>717</v>
+      </c>
       <c r="E181" t="s" s="2">
         <v>76</v>
       </c>
@@ -23896,15 +23931,17 @@
         <v>133</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>710</v>
+        <v>118</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="O181" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="O181" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P181" s="2"/>
       <c r="Q181" t="s" s="2">
         <v>76</v>
@@ -23929,13 +23966,13 @@
         <v>76</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z181" t="s" s="2">
-        <v>76</v>
+        <v>654</v>
       </c>
       <c r="AA181" t="s" s="2">
-        <v>76</v>
+        <v>655</v>
       </c>
       <c r="AB181" t="s" s="2">
         <v>76</v>
@@ -23953,7 +23990,7 @@
         <v>76</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>709</v>
+        <v>651</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>77</v>
@@ -23973,10 +24010,10 @@
         <v>491</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>713</v>
+        <v>661</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -24017,7 +24054,7 @@
         <v>76</v>
       </c>
       <c r="T182" t="s" s="2">
-        <v>76</v>
+        <v>720</v>
       </c>
       <c r="U182" t="s" s="2">
         <v>76</v>
@@ -24076,10 +24113,10 @@
         <v>491</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>714</v>
+        <v>664</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -24181,14 +24218,12 @@
         <v>491</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="D184" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
         <v>76</v>
       </c>
@@ -24197,28 +24232,32 @@
         <v>77</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K184" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="J184" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K184" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L184" t="s" s="2">
-        <v>716</v>
+        <v>345</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>717</v>
+        <v>667</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
+        <v>668</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="P184" t="s" s="2">
+        <v>670</v>
+      </c>
       <c r="Q184" t="s" s="2">
         <v>76</v>
       </c>
@@ -24266,7 +24305,7 @@
         <v>76</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>94</v>
+        <v>671</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>77</v>
@@ -24278,7 +24317,7 @@
         <v>80</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185">
@@ -24286,44 +24325,46 @@
         <v>491</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="D185" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K185" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="J185" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K185" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L185" t="s" s="2">
-        <v>719</v>
+        <v>84</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
+        <v>712</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="P185" t="s" s="2">
+        <v>714</v>
+      </c>
       <c r="Q185" t="s" s="2">
         <v>76</v>
       </c>
@@ -24371,19 +24412,19 @@
         <v>76</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>94</v>
+        <v>715</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186">
@@ -24391,14 +24432,12 @@
         <v>491</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
         <v>76</v>
       </c>
@@ -24407,7 +24446,7 @@
         <v>77</v>
       </c>
       <c r="H186" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I186" t="s" s="2">
         <v>133</v>
@@ -24416,16 +24455,16 @@
         <v>76</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>108</v>
+        <v>727</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -24476,7 +24515,7 @@
         <v>76</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>94</v>
+        <v>724</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>77</v>
@@ -24488,7 +24527,7 @@
         <v>80</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187">
@@ -24496,14 +24535,12 @@
         <v>491</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="D187" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
         <v>76</v>
       </c>
@@ -24524,13 +24561,13 @@
         <v>76</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>725</v>
+        <v>84</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>726</v>
+        <v>85</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
@@ -24581,19 +24618,19 @@
         <v>76</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188">
@@ -24601,21 +24638,21 @@
         <v>491</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H188" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I188" t="s" s="2">
         <v>76</v>
@@ -24624,19 +24661,19 @@
         <v>76</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>728</v>
+        <v>174</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>729</v>
+        <v>237</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>730</v>
+        <v>176</v>
       </c>
       <c r="P188" s="2"/>
       <c r="Q188" t="s" s="2">
@@ -24674,31 +24711,31 @@
         <v>76</v>
       </c>
       <c r="AC188" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD188" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE188" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>731</v>
+        <v>94</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="189">
@@ -24706,12 +24743,14 @@
         <v>491</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="D189" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="D189" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="E189" t="s" s="2">
         <v>76</v>
       </c>
@@ -24720,25 +24759,25 @@
         <v>77</v>
       </c>
       <c r="H189" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I189" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J189" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>375</v>
+        <v>731</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>734</v>
+        <v>117</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
@@ -24789,7 +24828,7 @@
         <v>76</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>735</v>
+        <v>94</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>77</v>
@@ -24801,7 +24840,7 @@
         <v>80</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
     </row>
     <row r="190">
@@ -24809,12 +24848,14 @@
         <v>491</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="D190" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="D190" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E190" t="s" s="2">
         <v>76</v>
       </c>
@@ -24823,7 +24864,7 @@
         <v>77</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I190" t="s" s="2">
         <v>133</v>
@@ -24835,17 +24876,15 @@
         <v>76</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="O190" t="s" s="2">
-        <v>740</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="O190" s="2"/>
       <c r="P190" s="2"/>
       <c r="Q190" t="s" s="2">
         <v>76</v>
@@ -24894,7 +24933,7 @@
         <v>76</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>736</v>
+        <v>94</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>77</v>
@@ -24906,7 +24945,7 @@
         <v>80</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="191">
@@ -24914,12 +24953,14 @@
         <v>491</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="D191" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="D191" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E191" t="s" s="2">
         <v>76</v>
       </c>
@@ -24928,29 +24969,27 @@
         <v>77</v>
       </c>
       <c r="H191" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J191" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>118</v>
+        <v>737</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O191" s="2"/>
       <c r="P191" s="2"/>
       <c r="Q191" t="s" s="2">
         <v>76</v>
@@ -24975,10 +25014,10 @@
         <v>76</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z191" t="s" s="2">
-        <v>744</v>
+        <v>76</v>
       </c>
       <c r="AA191" t="s" s="2">
         <v>76</v>
@@ -24999,7 +25038,7 @@
         <v>76</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>741</v>
+        <v>94</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>77</v>
@@ -25011,7 +25050,7 @@
         <v>80</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="192">
@@ -25019,12 +25058,14 @@
         <v>491</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="D192" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="D192" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="E192" t="s" s="2">
         <v>76</v>
       </c>
@@ -25033,29 +25074,27 @@
         <v>77</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I192" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J192" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>118</v>
+        <v>740</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O192" s="2"/>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
         <v>76</v>
@@ -25080,13 +25119,13 @@
         <v>76</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>748</v>
+        <v>76</v>
       </c>
       <c r="AA192" t="s" s="2">
-        <v>749</v>
+        <v>76</v>
       </c>
       <c r="AB192" t="s" s="2">
         <v>76</v>
@@ -25104,7 +25143,7 @@
         <v>76</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>745</v>
+        <v>94</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>77</v>
@@ -25116,7 +25155,7 @@
         <v>80</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193">
@@ -25124,10 +25163,10 @@
         <v>491</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -25141,25 +25180,25 @@
         <v>83</v>
       </c>
       <c r="I193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K193" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="J193" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K193" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L193" t="s" s="2">
-        <v>751</v>
+        <v>84</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
@@ -25209,7 +25248,7 @@
         <v>76</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>77</v>
@@ -25229,14 +25268,14 @@
         <v>491</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>756</v>
+        <v>76</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" t="s" s="2">
@@ -25246,7 +25285,7 @@
         <v>78</v>
       </c>
       <c r="I194" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J194" t="s" s="2">
         <v>76</v>
@@ -25255,17 +25294,15 @@
         <v>133</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>757</v>
+        <v>375</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>760</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="O194" s="2"/>
       <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
         <v>76</v>
@@ -25314,7 +25351,7 @@
         <v>76</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>77</v>
@@ -25326,7 +25363,7 @@
         <v>80</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>228</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195">
@@ -25334,42 +25371,42 @@
         <v>491</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
-        <v>762</v>
+        <v>76</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H195" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I195" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J195" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>267</v>
+        <v>752</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>270</v>
+        <v>755</v>
       </c>
       <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
@@ -25419,19 +25456,19 @@
         <v>76</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
     </row>
     <row r="196">
@@ -25439,10 +25476,10 @@
         <v>491</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -25453,7 +25490,7 @@
         <v>77</v>
       </c>
       <c r="H196" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I196" t="s" s="2">
         <v>76</v>
@@ -25462,18 +25499,20 @@
         <v>76</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>85</v>
+        <v>757</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O196" s="2"/>
+        <v>758</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
         <v>76</v>
@@ -25498,10 +25537,10 @@
         <v>76</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>76</v>
+        <v>759</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>76</v>
@@ -25522,19 +25561,19 @@
         <v>76</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>87</v>
+        <v>756</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="197">
@@ -25542,14 +25581,14 @@
         <v>491</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" t="s" s="2">
@@ -25559,25 +25598,25 @@
         <v>78</v>
       </c>
       <c r="I197" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J197" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>174</v>
+        <v>761</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>237</v>
+        <v>762</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" t="s" s="2">
@@ -25603,31 +25642,31 @@
         <v>76</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>76</v>
+        <v>763</v>
       </c>
       <c r="AA197" t="s" s="2">
-        <v>76</v>
+        <v>764</v>
       </c>
       <c r="AB197" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC197" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD197" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE197" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>94</v>
+        <v>760</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>77</v>
@@ -25639,7 +25678,7 @@
         <v>80</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="198">
@@ -25647,10 +25686,10 @@
         <v>491</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25664,25 +25703,25 @@
         <v>83</v>
       </c>
       <c r="I198" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J198" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L198" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="O198" t="s" s="2">
         <v>768</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>771</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
@@ -25732,7 +25771,7 @@
         <v>76</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>77</v>
@@ -25741,7 +25780,7 @@
         <v>83</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>773</v>
+        <v>80</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>104</v>
@@ -25752,21 +25791,21 @@
         <v>491</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
-        <v>76</v>
+        <v>770</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H199" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I199" t="s" s="2">
         <v>133</v>
@@ -25778,24 +25817,22 @@
         <v>133</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R199" t="s" s="2">
-        <v>778</v>
-      </c>
+      <c r="R199" s="2"/>
       <c r="S199" t="s" s="2">
         <v>76</v>
       </c>
@@ -25839,19 +25876,19 @@
         <v>76</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>773</v>
+        <v>80</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200">
@@ -25859,14 +25896,14 @@
         <v>491</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
-        <v>76</v>
+        <v>776</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" t="s" s="2">
@@ -25876,7 +25913,7 @@
         <v>83</v>
       </c>
       <c r="I200" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J200" t="s" s="2">
         <v>76</v>
@@ -25885,16 +25922,16 @@
         <v>133</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>447</v>
+        <v>267</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" t="s" s="2">
@@ -25944,7 +25981,7 @@
         <v>76</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>77</v>
@@ -25956,7 +25993,7 @@
         <v>80</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>228</v>
+        <v>271</v>
       </c>
     </row>
     <row r="201">
@@ -25964,10 +26001,10 @@
         <v>491</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25987,20 +26024,18 @@
         <v>76</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>784</v>
+        <v>84</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>785</v>
+        <v>85</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O201" s="2"/>
       <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
         <v>76</v>
@@ -26049,7 +26084,7 @@
         <v>76</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>783</v>
+        <v>87</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>77</v>
@@ -26058,10 +26093,10 @@
         <v>83</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202">
@@ -26069,14 +26104,14 @@
         <v>491</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" t="s" s="2">
@@ -26086,25 +26121,25 @@
         <v>78</v>
       </c>
       <c r="I202" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J202" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>788</v>
+        <v>89</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>789</v>
+        <v>174</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>790</v>
+        <v>237</v>
       </c>
       <c r="O202" t="s" s="2">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
@@ -26142,19 +26177,19 @@
         <v>76</v>
       </c>
       <c r="AC202" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD202" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE202" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>787</v>
+        <v>94</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>77</v>
@@ -26166,7 +26201,7 @@
         <v>80</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
     </row>
     <row r="203">
@@ -26174,10 +26209,10 @@
         <v>491</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -26200,16 +26235,16 @@
         <v>133</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>118</v>
+        <v>782</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>246</v>
+        <v>785</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
@@ -26235,13 +26270,13 @@
         <v>76</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z203" t="s" s="2">
-        <v>794</v>
+        <v>76</v>
       </c>
       <c r="AA203" t="s" s="2">
-        <v>795</v>
+        <v>76</v>
       </c>
       <c r="AB203" t="s" s="2">
         <v>76</v>
@@ -26259,7 +26294,7 @@
         <v>76</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>77</v>
@@ -26268,7 +26303,7 @@
         <v>83</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>80</v>
+        <v>787</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>104</v>
@@ -26279,10 +26314,10 @@
         <v>491</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -26293,34 +26328,36 @@
         <v>77</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I204" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J204" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R204" s="2"/>
+      <c r="R204" t="s" s="2">
+        <v>792</v>
+      </c>
       <c r="S204" t="s" s="2">
         <v>76</v>
       </c>
@@ -26364,16 +26401,16 @@
         <v>76</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>80</v>
+        <v>787</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>104</v>
@@ -26384,10 +26421,10 @@
         <v>491</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26398,27 +26435,29 @@
         <v>77</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J205" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>230</v>
+        <v>447</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="O205" s="2"/>
+        <v>796</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
         <v>76</v>
@@ -26467,19 +26506,19 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206">
@@ -26487,10 +26526,10 @@
         <v>491</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26510,18 +26549,20 @@
         <v>76</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>84</v>
+        <v>798</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>85</v>
+        <v>799</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O206" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="O206" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
         <v>76</v>
@@ -26570,7 +26611,7 @@
         <v>76</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>87</v>
+        <v>797</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>77</v>
@@ -26579,10 +26620,10 @@
         <v>83</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207">
@@ -26590,14 +26631,14 @@
         <v>491</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" t="s" s="2">
@@ -26607,25 +26648,25 @@
         <v>78</v>
       </c>
       <c r="I207" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J207" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>89</v>
+        <v>802</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>174</v>
+        <v>803</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>237</v>
+        <v>804</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
@@ -26663,19 +26704,19 @@
         <v>76</v>
       </c>
       <c r="AC207" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD207" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE207" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>94</v>
+        <v>801</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>77</v>
@@ -26687,7 +26728,7 @@
         <v>80</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>81</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208">
@@ -26695,46 +26736,44 @@
         <v>491</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H208" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I208" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K208" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>240</v>
+        <v>806</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>241</v>
+        <v>807</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P208" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
         <v>76</v>
       </c>
@@ -26758,13 +26797,13 @@
         <v>76</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z208" t="s" s="2">
-        <v>76</v>
+        <v>808</v>
       </c>
       <c r="AA208" t="s" s="2">
-        <v>76</v>
+        <v>809</v>
       </c>
       <c r="AB208" t="s" s="2">
         <v>76</v>
@@ -26782,19 +26821,19 @@
         <v>76</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>242</v>
+        <v>805</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="209">
@@ -26802,10 +26841,10 @@
         <v>491</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26813,10 +26852,10 @@
       </c>
       <c r="F209" s="2"/>
       <c r="G209" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I209" t="s" s="2">
         <v>76</v>
@@ -26828,16 +26867,16 @@
         <v>76</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>84</v>
+        <v>811</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>215</v>
+        <v>814</v>
       </c>
       <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
@@ -26887,13 +26926,13 @@
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>80</v>
@@ -26907,10 +26946,10 @@
         <v>491</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26921,7 +26960,7 @@
         <v>77</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>76</v>
@@ -26933,17 +26972,15 @@
         <v>76</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="O210" s="2"/>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
         <v>76</v>
@@ -26992,13 +27029,13 @@
         <v>76</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>80</v>
@@ -27012,10 +27049,10 @@
         <v>491</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -27041,14 +27078,12 @@
         <v>84</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>814</v>
+        <v>85</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="O211" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O211" s="2"/>
       <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
         <v>76</v>
@@ -27097,7 +27132,7 @@
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>813</v>
+        <v>87</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
@@ -27106,10 +27141,10 @@
         <v>83</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212">
@@ -27117,14 +27152,14 @@
         <v>491</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" t="s" s="2">
@@ -27143,15 +27178,17 @@
         <v>76</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>817</v>
+        <v>174</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="O212" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O212" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
         <v>76</v>
@@ -27188,19 +27225,19 @@
         <v>76</v>
       </c>
       <c r="AC212" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD212" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>816</v>
+        <v>94</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>77</v>
@@ -27212,7 +27249,7 @@
         <v>80</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="213">
@@ -27220,42 +27257,46 @@
         <v>491</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P213" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q213" t="s" s="2">
         <v>76</v>
       </c>
@@ -27303,19 +27344,19 @@
         <v>76</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="214">
@@ -27323,21 +27364,21 @@
         <v>491</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>76</v>
@@ -27349,16 +27390,16 @@
         <v>76</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>174</v>
+        <v>822</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>237</v>
+        <v>823</v>
       </c>
       <c r="O214" t="s" s="2">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
@@ -27396,31 +27437,31 @@
         <v>76</v>
       </c>
       <c r="AC214" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD214" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE214" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>94</v>
+        <v>821</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="215">
@@ -27428,46 +27469,44 @@
         <v>491</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>240</v>
+        <v>825</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>241</v>
+        <v>826</v>
       </c>
       <c r="O215" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P215" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
         <v>76</v>
       </c>
@@ -27515,19 +27554,19 @@
         <v>76</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>242</v>
+        <v>824</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="216">
@@ -27535,10 +27574,10 @@
         <v>491</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27564,10 +27603,10 @@
         <v>84</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>215</v>
@@ -27620,7 +27659,7 @@
         <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
@@ -27640,10 +27679,10 @@
         <v>491</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27654,7 +27693,7 @@
         <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>76</v>
@@ -27666,17 +27705,15 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="O217" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="O217" s="2"/>
       <c r="P217" s="2"/>
       <c r="Q217" t="s" s="2">
         <v>76</v>
@@ -27701,13 +27738,13 @@
         <v>76</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>828</v>
+        <v>76</v>
       </c>
       <c r="AA217" t="s" s="2">
-        <v>829</v>
+        <v>76</v>
       </c>
       <c r="AB217" t="s" s="2">
         <v>76</v>
@@ -27725,13 +27762,13 @@
         <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ217" t="s" s="2">
         <v>80</v>
@@ -27742,13 +27779,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>31</v>
+        <v>833</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>31</v>
+        <v>833</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27759,7 +27796,7 @@
         <v>77</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>76</v>
@@ -27771,13 +27808,13 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>512</v>
+        <v>86</v>
       </c>
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
@@ -27828,41 +27865,41 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>82</v>
+        <v>834</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>82</v>
+        <v>834</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
@@ -27874,15 +27911,17 @@
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O219" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
         <v>76</v>
@@ -27919,74 +27958,78 @@
         <v>76</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>88</v>
+        <v>835</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>88</v>
+        <v>835</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L220" t="s" s="2">
         <v>89</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P220" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28022,19 +28065,19 @@
         <v>76</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD220" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
@@ -28051,13 +28094,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>95</v>
+        <v>836</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>95</v>
+        <v>836</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -28065,7 +28108,7 @@
       </c>
       <c r="F221" s="2"/>
       <c r="G221" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
         <v>83</v>
@@ -28080,16 +28123,16 @@
         <v>76</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>97</v>
+        <v>837</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>98</v>
+        <v>838</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="P221" s="2"/>
       <c r="Q221" t="s" s="2">
@@ -28097,7 +28140,7 @@
       </c>
       <c r="R221" s="2"/>
       <c r="S221" t="s" s="2">
-        <v>830</v>
+        <v>76</v>
       </c>
       <c r="T221" t="s" s="2">
         <v>76</v>
@@ -28139,30 +28182,30 @@
         <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>95</v>
+        <v>836</v>
       </c>
       <c r="AH221" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI221" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>100</v>
+        <v>839</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>100</v>
+        <v>839</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -28185,15 +28228,17 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>832</v>
+        <v>118</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>102</v>
+        <v>840</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O222" s="2"/>
+        <v>841</v>
+      </c>
+      <c r="O222" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P222" s="2"/>
       <c r="Q222" t="s" s="2">
         <v>76</v>
@@ -28218,13 +28263,13 @@
         <v>76</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>76</v>
+        <v>842</v>
       </c>
       <c r="AA222" t="s" s="2">
-        <v>76</v>
+        <v>843</v>
       </c>
       <c r="AB222" t="s" s="2">
         <v>76</v>
@@ -28242,7 +28287,7 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>100</v>
+        <v>839</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>77</v>
@@ -28259,7 +28304,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>31</v>
@@ -28294,7 +28339,7 @@
         <v>31</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
@@ -28362,7 +28407,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>82</v>
@@ -28465,7 +28510,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>88</v>
@@ -28568,7 +28613,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>95</v>
@@ -28614,7 +28659,7 @@
       </c>
       <c r="R226" s="2"/>
       <c r="S226" t="s" s="2">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="T226" t="s" s="2">
         <v>76</v>
@@ -28673,7 +28718,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>100</v>
@@ -28702,7 +28747,7 @@
         <v>76</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>447</v>
+        <v>846</v>
       </c>
       <c r="M227" t="s" s="2">
         <v>102</v>
@@ -28776,7 +28821,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>31</v>
@@ -28811,7 +28856,7 @@
         <v>31</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>385</v>
+        <v>525</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
@@ -28879,7 +28924,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>82</v>
@@ -28982,7 +29027,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>88</v>
@@ -29085,7 +29130,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>95</v>
@@ -29131,7 +29176,7 @@
       </c>
       <c r="R231" s="2"/>
       <c r="S231" t="s" s="2">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="T231" t="s" s="2">
         <v>76</v>
@@ -29190,7 +29235,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>100</v>
@@ -29219,7 +29264,7 @@
         <v>76</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>113</v>
+        <v>447</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>102</v>
@@ -29293,7 +29338,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>31</v>
@@ -29328,7 +29373,7 @@
         <v>31</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>517</v>
+        <v>385</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
@@ -29396,7 +29441,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>82</v>
@@ -29499,7 +29544,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>88</v>
@@ -29602,7 +29647,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>95</v>
@@ -29648,7 +29693,7 @@
       </c>
       <c r="R236" s="2"/>
       <c r="S236" t="s" s="2">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="T236" t="s" s="2">
         <v>76</v>
@@ -29707,7 +29752,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>100</v>
@@ -29736,7 +29781,7 @@
         <v>76</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="M237" t="s" s="2">
         <v>102</v>
@@ -29805,6 +29850,523 @@
         <v>80</v>
       </c>
       <c r="AK237" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C238" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L238" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R238" s="2"/>
+      <c r="S238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG238" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AH238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ238" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK238" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C239" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D239" s="2"/>
+      <c r="E239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F239" s="2"/>
+      <c r="G239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H239" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N239" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R239" s="2"/>
+      <c r="S239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG239" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI239" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK239" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F240" s="2"/>
+      <c r="G240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L240" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R240" s="2"/>
+      <c r="S240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC240" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD240" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF240" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG240" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ240" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK240" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F241" s="2"/>
+      <c r="G241" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O241" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P241" s="2"/>
+      <c r="Q241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R241" s="2"/>
+      <c r="S241" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG241" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH241" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI241" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK241" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C242" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F242" s="2"/>
+      <c r="G242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H242" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M242" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N242" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R242" s="2"/>
+      <c r="S242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG242" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI242" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ242" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK242" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8510" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8642" uniqueCount="864">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T10:06:27+00:00</t>
+    <t>2024-01-24T12:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1869,6 +1869,65 @@
     <t>Identifier.period</t>
   </si>
   <si>
+    <t>ResearchStudy.identifier:idPrimary.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.start</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date d'inscription au registre principal / Date of Registration in Primary Registry</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1
+per-1</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.end</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
     <t>ResearchStudy.identifier:idPrimary.assigner</t>
   </si>
   <si>
@@ -2434,42 +2493,13 @@
     <t>ResearchStudy.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
     <t>Starting time with inclusive boundary</t>
   </si>
   <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t>ele-1
-per-1</t>
-  </si>
-  <si>
     <t>ResearchStudy.period.end</t>
   </si>
   <si>
     <t>Date à laquelle l'essai se termine (la date initiale est prévisionnelle) / Completion date</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
   </si>
   <si>
     <t>ResearchStudy.sponsor</t>
@@ -4306,7 +4336,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>844</v>
+        <v>854</v>
       </c>
     </row>
     <row r="199">
@@ -4322,7 +4352,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>845</v>
+        <v>855</v>
       </c>
     </row>
     <row r="201">
@@ -4474,7 +4504,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>847</v>
+        <v>857</v>
       </c>
     </row>
     <row r="221">
@@ -4490,7 +4520,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>848</v>
+        <v>858</v>
       </c>
     </row>
     <row r="223">
@@ -4642,7 +4672,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>849</v>
+        <v>859</v>
       </c>
     </row>
     <row r="243">
@@ -4658,7 +4688,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>850</v>
+        <v>860</v>
       </c>
     </row>
     <row r="245">
@@ -4786,7 +4816,7 @@
         <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>851</v>
+        <v>861</v>
       </c>
     </row>
     <row r="262">
@@ -4810,7 +4840,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>852</v>
+        <v>862</v>
       </c>
     </row>
     <row r="265">
@@ -4826,7 +4856,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>853</v>
+        <v>863</v>
       </c>
     </row>
     <row r="267">
@@ -4964,7 +4994,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK242"/>
+  <dimension ref="A1:AK246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -20657,20 +20687,18 @@
         <v>76</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O150" s="2"/>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
         <v>76</v>
@@ -20719,7 +20747,7 @@
         <v>76</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>603</v>
+        <v>87</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>77</v>
@@ -20728,10 +20756,10 @@
         <v>83</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151">
@@ -20739,16 +20767,14 @@
         <v>491</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="D151" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
@@ -20758,27 +20784,27 @@
         <v>78</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>606</v>
+        <v>174</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O151" s="2"/>
-      <c r="P151" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
         <v>76</v>
       </c>
@@ -20814,19 +20840,19 @@
         <v>76</v>
       </c>
       <c r="AC151" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>546</v>
+        <v>94</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>77</v>
@@ -20838,7 +20864,7 @@
         <v>80</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152">
@@ -20846,10 +20872,10 @@
         <v>491</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20869,18 +20895,20 @@
         <v>76</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>84</v>
+        <v>604</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>85</v>
+        <v>605</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O152" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="O152" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
         <v>76</v>
@@ -20929,7 +20957,7 @@
         <v>76</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>87</v>
+        <v>608</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>77</v>
@@ -20938,10 +20966,10 @@
         <v>83</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>76</v>
+        <v>609</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153">
@@ -20949,21 +20977,21 @@
         <v>491</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>558</v>
+        <v>611</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>76</v>
@@ -20972,25 +21000,27 @@
         <v>76</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>89</v>
+        <v>604</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>174</v>
+        <v>612</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>237</v>
+        <v>613</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>176</v>
+        <v>614</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R153" s="2"/>
+      <c r="R153" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="S153" t="s" s="2">
         <v>76</v>
       </c>
@@ -21022,31 +21052,31 @@
         <v>76</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>94</v>
+        <v>616</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154">
@@ -21054,10 +21084,10 @@
         <v>491</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -21065,7 +21095,7 @@
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>83</v>
@@ -21074,26 +21104,24 @@
         <v>76</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>150</v>
+        <v>447</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="P154" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
         <v>76</v>
       </c>
@@ -21102,7 +21130,7 @@
         <v>76</v>
       </c>
       <c r="T154" t="s" s="2">
-        <v>610</v>
+        <v>76</v>
       </c>
       <c r="U154" t="s" s="2">
         <v>76</v>
@@ -21117,13 +21145,13 @@
         <v>76</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>566</v>
+        <v>76</v>
       </c>
       <c r="AA154" t="s" s="2">
-        <v>567</v>
+        <v>76</v>
       </c>
       <c r="AB154" t="s" s="2">
         <v>76</v>
@@ -21141,7 +21169,7 @@
         <v>76</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>568</v>
+        <v>622</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>77</v>
@@ -21153,7 +21181,7 @@
         <v>80</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155">
@@ -21161,12 +21189,14 @@
         <v>491</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="D155" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="D155" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="E155" t="s" s="2">
         <v>76</v>
       </c>
@@ -21175,10 +21205,10 @@
         <v>77</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>76</v>
@@ -21187,19 +21217,17 @@
         <v>133</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>571</v>
+        <v>625</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>76</v>
@@ -21224,13 +21252,13 @@
         <v>76</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>575</v>
+        <v>76</v>
       </c>
       <c r="AA155" t="s" s="2">
-        <v>576</v>
+        <v>76</v>
       </c>
       <c r="AB155" t="s" s="2">
         <v>76</v>
@@ -21248,13 +21276,13 @@
         <v>76</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>80</v>
@@ -21268,10 +21296,10 @@
         <v>491</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -21291,23 +21319,19 @@
         <v>76</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="P156" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
         <v>76</v>
       </c>
@@ -21319,7 +21343,7 @@
         <v>76</v>
       </c>
       <c r="U156" t="s" s="2">
-        <v>584</v>
+        <v>76</v>
       </c>
       <c r="V156" t="s" s="2">
         <v>76</v>
@@ -21355,7 +21379,7 @@
         <v>76</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>585</v>
+        <v>87</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>77</v>
@@ -21364,10 +21388,10 @@
         <v>83</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157">
@@ -21375,21 +21399,21 @@
         <v>491</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>76</v>
@@ -21398,19 +21422,19 @@
         <v>76</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>588</v>
+        <v>174</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>589</v>
+        <v>237</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>590</v>
+        <v>176</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
@@ -21424,7 +21448,7 @@
         <v>76</v>
       </c>
       <c r="U157" t="s" s="2">
-        <v>591</v>
+        <v>76</v>
       </c>
       <c r="V157" t="s" s="2">
         <v>76</v>
@@ -21448,31 +21472,31 @@
         <v>76</v>
       </c>
       <c r="AC157" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>592</v>
+        <v>94</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="158">
@@ -21480,10 +21504,10 @@
         <v>491</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21491,7 +21515,7 @@
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>83</v>
@@ -21500,24 +21524,26 @@
         <v>76</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="P158" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="P158" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="Q158" t="s" s="2">
         <v>76</v>
       </c>
@@ -21526,7 +21552,7 @@
         <v>76</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>76</v>
+        <v>629</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>76</v>
@@ -21541,13 +21567,13 @@
         <v>76</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>76</v>
+        <v>566</v>
       </c>
       <c r="AA158" t="s" s="2">
-        <v>76</v>
+        <v>567</v>
       </c>
       <c r="AB158" t="s" s="2">
         <v>76</v>
@@ -21565,7 +21591,7 @@
         <v>76</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>77</v>
@@ -21577,7 +21603,7 @@
         <v>80</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159">
@@ -21585,10 +21611,10 @@
         <v>491</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21611,18 +21637,20 @@
         <v>133</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>447</v>
+        <v>118</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="P159" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="P159" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="Q159" t="s" s="2">
         <v>76</v>
       </c>
@@ -21646,13 +21674,13 @@
         <v>76</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>76</v>
+        <v>575</v>
       </c>
       <c r="AA159" t="s" s="2">
-        <v>76</v>
+        <v>576</v>
       </c>
       <c r="AB159" t="s" s="2">
         <v>76</v>
@@ -21670,7 +21698,7 @@
         <v>76</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>77</v>
@@ -21682,7 +21710,7 @@
         <v>80</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160">
@@ -21690,10 +21718,10 @@
         <v>491</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21707,7 +21735,7 @@
         <v>83</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J160" t="s" s="2">
         <v>76</v>
@@ -21716,18 +21744,20 @@
         <v>133</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>618</v>
+        <v>581</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P160" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="P160" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="Q160" t="s" s="2">
         <v>76</v>
       </c>
@@ -21739,7 +21769,7 @@
         <v>76</v>
       </c>
       <c r="U160" t="s" s="2">
-        <v>76</v>
+        <v>584</v>
       </c>
       <c r="V160" t="s" s="2">
         <v>76</v>
@@ -21775,7 +21805,7 @@
         <v>76</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>77</v>
@@ -21795,10 +21825,10 @@
         <v>491</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21809,7 +21839,7 @@
         <v>77</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I161" t="s" s="2">
         <v>76</v>
@@ -21821,16 +21851,16 @@
         <v>133</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>620</v>
+        <v>84</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>283</v>
+        <v>590</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
@@ -21844,7 +21874,7 @@
         <v>76</v>
       </c>
       <c r="U161" t="s" s="2">
-        <v>76</v>
+        <v>591</v>
       </c>
       <c r="V161" t="s" s="2">
         <v>76</v>
@@ -21880,19 +21910,19 @@
         <v>76</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162">
@@ -21900,21 +21930,21 @@
         <v>491</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>624</v>
+        <v>76</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>76</v>
@@ -21926,20 +21956,18 @@
         <v>133</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>625</v>
+        <v>267</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="P162" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
         <v>76</v>
       </c>
@@ -21987,19 +22015,19 @@
         <v>76</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>228</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163">
@@ -22007,10 +22035,10 @@
         <v>491</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -22018,31 +22046,31 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>150</v>
+        <v>447</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>215</v>
+        <v>621</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
@@ -22068,13 +22096,13 @@
         <v>76</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>632</v>
+        <v>76</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>633</v>
+        <v>76</v>
       </c>
       <c r="AB163" t="s" s="2">
         <v>76</v>
@@ -22092,10 +22120,10 @@
         <v>76</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>83</v>
@@ -22104,7 +22132,7 @@
         <v>80</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164">
@@ -22112,10 +22140,10 @@
         <v>491</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -22129,7 +22157,7 @@
         <v>83</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J164" t="s" s="2">
         <v>76</v>
@@ -22138,16 +22166,16 @@
         <v>133</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
@@ -22173,13 +22201,13 @@
         <v>76</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>637</v>
+        <v>76</v>
       </c>
       <c r="AA164" t="s" s="2">
-        <v>638</v>
+        <v>76</v>
       </c>
       <c r="AB164" t="s" s="2">
         <v>76</v>
@@ -22197,7 +22225,7 @@
         <v>76</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>77</v>
@@ -22217,10 +22245,10 @@
         <v>491</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -22231,10 +22259,10 @@
         <v>77</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
         <v>76</v>
@@ -22243,7 +22271,7 @@
         <v>133</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>118</v>
+        <v>639</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>640</v>
@@ -22252,7 +22280,7 @@
         <v>641</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
@@ -22278,11 +22306,13 @@
         <v>76</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z165" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA165" t="s" s="2">
-        <v>642</v>
+        <v>76</v>
       </c>
       <c r="AB165" t="s" s="2">
         <v>76</v>
@@ -22300,19 +22330,19 @@
         <v>76</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="166">
@@ -22320,14 +22350,14 @@
         <v>491</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>76</v>
+        <v>643</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
@@ -22337,7 +22367,7 @@
         <v>78</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
         <v>76</v>
@@ -22346,18 +22376,20 @@
         <v>133</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>118</v>
+        <v>644</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P166" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="P166" t="s" s="2">
+        <v>647</v>
+      </c>
       <c r="Q166" t="s" s="2">
         <v>76</v>
       </c>
@@ -22381,11 +22413,13 @@
         <v>76</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z166" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA166" t="s" s="2">
-        <v>646</v>
+        <v>76</v>
       </c>
       <c r="AB166" t="s" s="2">
         <v>76</v>
@@ -22403,7 +22437,7 @@
         <v>76</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>77</v>
@@ -22415,7 +22449,7 @@
         <v>80</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167">
@@ -22423,10 +22457,10 @@
         <v>491</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -22434,31 +22468,31 @@
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
@@ -22484,13 +22518,13 @@
         <v>76</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AA167" t="s" s="2">
-        <v>76</v>
+        <v>652</v>
       </c>
       <c r="AB167" t="s" s="2">
         <v>76</v>
@@ -22508,13 +22542,13 @@
         <v>76</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>80</v>
@@ -22528,10 +22562,10 @@
         <v>491</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22542,10 +22576,10 @@
         <v>77</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J168" t="s" s="2">
         <v>76</v>
@@ -22557,10 +22591,10 @@
         <v>118</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>246</v>
@@ -22589,13 +22623,13 @@
         <v>76</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="AA168" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AB168" t="s" s="2">
         <v>76</v>
@@ -22604,22 +22638,22 @@
         <v>76</v>
       </c>
       <c r="AD168" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>80</v>
@@ -22633,14 +22667,12 @@
         <v>491</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="D169" t="s" s="2">
         <v>658</v>
       </c>
+      <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
         <v>76</v>
       </c>
@@ -22649,7 +22681,7 @@
         <v>77</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I169" t="s" s="2">
         <v>133</v>
@@ -22667,7 +22699,7 @@
         <v>659</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>246</v>
@@ -22696,13 +22728,11 @@
         <v>76</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Z169" s="2"/>
       <c r="AA169" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="AB169" t="s" s="2">
         <v>76</v>
@@ -22720,13 +22750,13 @@
         <v>76</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>80</v>
@@ -22740,10 +22770,10 @@
         <v>491</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22754,27 +22784,29 @@
         <v>77</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J170" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>85</v>
+        <v>663</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O170" s="2"/>
+        <v>664</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
         <v>76</v>
@@ -22784,58 +22816,56 @@
         <v>76</v>
       </c>
       <c r="T170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z170" s="2"/>
+      <c r="AA170" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG170" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="U170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AH170" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171">
@@ -22843,14 +22873,14 @@
         <v>491</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" t="s" s="2">
@@ -22866,19 +22896,19 @@
         <v>76</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>174</v>
+        <v>667</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>237</v>
+        <v>668</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
@@ -22904,10 +22934,10 @@
         <v>76</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z171" t="s" s="2">
-        <v>76</v>
+        <v>669</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>76</v>
@@ -22916,19 +22946,19 @@
         <v>76</v>
       </c>
       <c r="AC171" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE171" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>94</v>
+        <v>666</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>77</v>
@@ -22940,7 +22970,7 @@
         <v>80</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="172">
@@ -22948,10 +22978,10 @@
         <v>491</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22965,7 +22995,7 @@
         <v>78</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J172" t="s" s="2">
         <v>76</v>
@@ -22974,20 +23004,18 @@
         <v>133</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="P172" t="s" s="2">
-        <v>670</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
         <v>76</v>
       </c>
@@ -23011,13 +23039,13 @@
         <v>76</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>76</v>
+        <v>673</v>
       </c>
       <c r="AA172" t="s" s="2">
-        <v>76</v>
+        <v>674</v>
       </c>
       <c r="AB172" t="s" s="2">
         <v>76</v>
@@ -23026,16 +23054,16 @@
         <v>76</v>
       </c>
       <c r="AD172" t="s" s="2">
-        <v>76</v>
+        <v>675</v>
       </c>
       <c r="AE172" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>77</v>
@@ -23055,12 +23083,14 @@
         <v>491</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="D173" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="D173" t="s" s="2">
+        <v>677</v>
+      </c>
       <c r="E173" t="s" s="2">
         <v>76</v>
       </c>
@@ -23069,27 +23099,29 @@
         <v>77</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J173" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O173" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="O173" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P173" s="2"/>
       <c r="Q173" t="s" s="2">
         <v>76</v>
@@ -23114,13 +23146,13 @@
         <v>76</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z173" t="s" s="2">
-        <v>76</v>
+        <v>673</v>
       </c>
       <c r="AA173" t="s" s="2">
-        <v>76</v>
+        <v>674</v>
       </c>
       <c r="AB173" t="s" s="2">
         <v>76</v>
@@ -23138,19 +23170,19 @@
         <v>76</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>87</v>
+        <v>670</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174">
@@ -23158,21 +23190,21 @@
         <v>491</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>76</v>
@@ -23184,17 +23216,15 @@
         <v>76</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O174" s="2"/>
       <c r="P174" s="2"/>
       <c r="Q174" t="s" s="2">
         <v>76</v>
@@ -23204,7 +23234,7 @@
         <v>76</v>
       </c>
       <c r="T174" t="s" s="2">
-        <v>76</v>
+        <v>681</v>
       </c>
       <c r="U174" t="s" s="2">
         <v>76</v>
@@ -23231,31 +23261,31 @@
         <v>76</v>
       </c>
       <c r="AC174" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE174" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="175">
@@ -23263,21 +23293,21 @@
         <v>491</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H175" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I175" t="s" s="2">
         <v>76</v>
@@ -23286,23 +23316,21 @@
         <v>76</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>678</v>
+        <v>174</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>679</v>
+        <v>237</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="P175" t="s" s="2">
-        <v>681</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P175" s="2"/>
       <c r="Q175" t="s" s="2">
         <v>76</v>
       </c>
@@ -23311,7 +23339,7 @@
         <v>76</v>
       </c>
       <c r="T175" t="s" s="2">
-        <v>682</v>
+        <v>76</v>
       </c>
       <c r="U175" t="s" s="2">
         <v>76</v>
@@ -23338,31 +23366,31 @@
         <v>76</v>
       </c>
       <c r="AC175" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD175" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE175" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>683</v>
+        <v>94</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="176">
@@ -23384,7 +23412,7 @@
         <v>77</v>
       </c>
       <c r="H176" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I176" t="s" s="2">
         <v>76</v>
@@ -23396,7 +23424,7 @@
         <v>133</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>686</v>
@@ -23407,7 +23435,9 @@
       <c r="O176" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="P176" s="2"/>
+      <c r="P176" t="s" s="2">
+        <v>689</v>
+      </c>
       <c r="Q176" t="s" s="2">
         <v>76</v>
       </c>
@@ -23455,13 +23485,13 @@
         <v>76</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>80</v>
@@ -23475,10 +23505,10 @@
         <v>491</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -23498,23 +23528,19 @@
         <v>76</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>692</v>
+        <v>85</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P177" t="s" s="2">
-        <v>694</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
       <c r="Q177" t="s" s="2">
         <v>76</v>
       </c>
@@ -23562,7 +23588,7 @@
         <v>76</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>695</v>
+        <v>87</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>77</v>
@@ -23571,10 +23597,10 @@
         <v>83</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178">
@@ -23582,21 +23608,21 @@
         <v>491</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>76</v>
@@ -23605,23 +23631,21 @@
         <v>76</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>698</v>
+        <v>174</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>699</v>
+        <v>237</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P178" t="s" s="2">
-        <v>700</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P178" s="2"/>
       <c r="Q178" t="s" s="2">
         <v>76</v>
       </c>
@@ -23657,31 +23681,31 @@
         <v>76</v>
       </c>
       <c r="AC178" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD178" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE178" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>701</v>
+        <v>94</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="179">
@@ -23689,10 +23713,10 @@
         <v>491</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23715,19 +23739,19 @@
         <v>133</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="P179" t="s" s="2">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="Q179" t="s" s="2">
         <v>76</v>
@@ -23737,7 +23761,7 @@
         <v>76</v>
       </c>
       <c r="T179" t="s" s="2">
-        <v>76</v>
+        <v>701</v>
       </c>
       <c r="U179" t="s" s="2">
         <v>76</v>
@@ -23776,7 +23800,7 @@
         <v>76</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>77</v>
@@ -23796,10 +23820,10 @@
         <v>491</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23825,17 +23849,15 @@
         <v>84</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="P180" t="s" s="2">
-        <v>714</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="P180" s="2"/>
       <c r="Q180" t="s" s="2">
         <v>76</v>
       </c>
@@ -23883,7 +23905,7 @@
         <v>76</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>77</v>
@@ -23903,14 +23925,12 @@
         <v>491</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="D181" t="s" s="2">
-        <v>717</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
         <v>76</v>
       </c>
@@ -23919,10 +23939,10 @@
         <v>77</v>
       </c>
       <c r="H181" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I181" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J181" t="s" s="2">
         <v>76</v>
@@ -23931,18 +23951,20 @@
         <v>133</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>653</v>
+        <v>712</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P181" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="P181" t="s" s="2">
+        <v>713</v>
+      </c>
       <c r="Q181" t="s" s="2">
         <v>76</v>
       </c>
@@ -23966,13 +23988,13 @@
         <v>76</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z181" t="s" s="2">
-        <v>654</v>
+        <v>76</v>
       </c>
       <c r="AA181" t="s" s="2">
-        <v>655</v>
+        <v>76</v>
       </c>
       <c r="AB181" t="s" s="2">
         <v>76</v>
@@ -23990,13 +24012,13 @@
         <v>76</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>651</v>
+        <v>714</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>80</v>
@@ -24010,10 +24032,10 @@
         <v>491</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -24033,19 +24055,23 @@
         <v>76</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L182" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>85</v>
+        <v>717</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O182" s="2"/>
-      <c r="P182" s="2"/>
+        <v>718</v>
+      </c>
+      <c r="O182" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="P182" t="s" s="2">
+        <v>719</v>
+      </c>
       <c r="Q182" t="s" s="2">
         <v>76</v>
       </c>
@@ -24054,47 +24080,47 @@
         <v>76</v>
       </c>
       <c r="T182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG182" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="U182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AH182" t="s" s="2">
         <v>77</v>
       </c>
@@ -24102,10 +24128,10 @@
         <v>83</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183">
@@ -24116,18 +24142,18 @@
         <v>721</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>664</v>
+        <v>722</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>76</v>
@@ -24136,21 +24162,23 @@
         <v>76</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>174</v>
+        <v>723</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>237</v>
+        <v>724</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P183" s="2"/>
+        <v>725</v>
+      </c>
+      <c r="P183" t="s" s="2">
+        <v>726</v>
+      </c>
       <c r="Q183" t="s" s="2">
         <v>76</v>
       </c>
@@ -24186,31 +24214,31 @@
         <v>76</v>
       </c>
       <c r="AC183" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD183" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE183" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>94</v>
+        <v>727</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184">
@@ -24218,10 +24246,10 @@
         <v>491</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>666</v>
+        <v>729</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -24232,7 +24260,7 @@
         <v>77</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I184" t="s" s="2">
         <v>76</v>
@@ -24244,19 +24272,19 @@
         <v>133</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>345</v>
+        <v>84</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>667</v>
+        <v>730</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>668</v>
+        <v>731</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>669</v>
+        <v>732</v>
       </c>
       <c r="P184" t="s" s="2">
-        <v>670</v>
+        <v>733</v>
       </c>
       <c r="Q184" t="s" s="2">
         <v>76</v>
@@ -24305,13 +24333,13 @@
         <v>76</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>671</v>
+        <v>734</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>80</v>
@@ -24325,24 +24353,26 @@
         <v>491</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="D185" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="D185" t="s" s="2">
+        <v>736</v>
+      </c>
       <c r="E185" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H185" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I185" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J185" t="s" s="2">
         <v>76</v>
@@ -24351,20 +24381,18 @@
         <v>133</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="P185" t="s" s="2">
-        <v>714</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P185" s="2"/>
       <c r="Q185" t="s" s="2">
         <v>76</v>
       </c>
@@ -24388,13 +24416,13 @@
         <v>76</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>76</v>
+        <v>673</v>
       </c>
       <c r="AA185" t="s" s="2">
-        <v>76</v>
+        <v>674</v>
       </c>
       <c r="AB185" t="s" s="2">
         <v>76</v>
@@ -24412,13 +24440,13 @@
         <v>76</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>715</v>
+        <v>670</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>80</v>
@@ -24432,10 +24460,10 @@
         <v>491</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -24446,25 +24474,25 @@
         <v>77</v>
       </c>
       <c r="H186" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I186" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J186" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>725</v>
+        <v>84</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>726</v>
+        <v>85</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>727</v>
+        <v>86</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -24476,7 +24504,7 @@
         <v>76</v>
       </c>
       <c r="T186" t="s" s="2">
-        <v>76</v>
+        <v>739</v>
       </c>
       <c r="U186" t="s" s="2">
         <v>76</v>
@@ -24515,19 +24543,19 @@
         <v>76</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>724</v>
+        <v>87</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187">
@@ -24535,21 +24563,21 @@
         <v>491</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>728</v>
+        <v>683</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H187" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I187" t="s" s="2">
         <v>76</v>
@@ -24561,15 +24589,17 @@
         <v>76</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O187" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O187" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
         <v>76</v>
@@ -24606,31 +24636,31 @@
         <v>76</v>
       </c>
       <c r="AC187" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD187" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE187" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188">
@@ -24638,14 +24668,14 @@
         <v>491</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>729</v>
+        <v>685</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" t="s" s="2">
@@ -24661,21 +24691,23 @@
         <v>76</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>174</v>
+        <v>686</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>237</v>
+        <v>687</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P188" s="2"/>
+        <v>688</v>
+      </c>
+      <c r="P188" t="s" s="2">
+        <v>689</v>
+      </c>
       <c r="Q188" t="s" s="2">
         <v>76</v>
       </c>
@@ -24711,19 +24743,19 @@
         <v>76</v>
       </c>
       <c r="AC188" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD188" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE188" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>94</v>
+        <v>690</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>77</v>
@@ -24735,7 +24767,7 @@
         <v>80</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="189">
@@ -24743,44 +24775,46 @@
         <v>491</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C189" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="D189" t="s" s="2">
-        <v>114</v>
-      </c>
+      <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H189" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K189" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="J189" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L189" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="N189" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M189" t="s" s="2">
+      <c r="O189" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="N189" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
+      <c r="P189" t="s" s="2">
+        <v>733</v>
+      </c>
       <c r="Q189" t="s" s="2">
         <v>76</v>
       </c>
@@ -24828,19 +24862,19 @@
         <v>76</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>94</v>
+        <v>734</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190">
@@ -24848,14 +24882,12 @@
         <v>491</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="D190" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
         <v>76</v>
       </c>
@@ -24864,7 +24896,7 @@
         <v>77</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I190" t="s" s="2">
         <v>133</v>
@@ -24873,16 +24905,16 @@
         <v>76</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>23</v>
+        <v>746</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
@@ -24933,7 +24965,7 @@
         <v>76</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>94</v>
+        <v>743</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>77</v>
@@ -24945,7 +24977,7 @@
         <v>80</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191">
@@ -24953,14 +24985,12 @@
         <v>491</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="D191" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
         <v>76</v>
       </c>
@@ -24972,7 +25002,7 @@
         <v>83</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J191" t="s" s="2">
         <v>76</v>
@@ -24981,13 +25011,13 @@
         <v>76</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>737</v>
+        <v>84</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>738</v>
+        <v>85</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
@@ -25038,19 +25068,19 @@
         <v>76</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="192">
@@ -25058,23 +25088,21 @@
         <v>491</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="D192" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I192" t="s" s="2">
         <v>76</v>
@@ -25086,15 +25114,17 @@
         <v>76</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>740</v>
+        <v>89</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>741</v>
+        <v>174</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O192" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O192" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
         <v>76</v>
@@ -25131,16 +25161,16 @@
         <v>76</v>
       </c>
       <c r="AC192" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD192" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE192" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>94</v>
@@ -25163,12 +25193,14 @@
         <v>491</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="D193" s="2"/>
+        <v>748</v>
+      </c>
+      <c r="D193" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="E193" t="s" s="2">
         <v>76</v>
       </c>
@@ -25180,26 +25212,24 @@
         <v>83</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J193" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>84</v>
+        <v>750</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="O193" t="s" s="2">
-        <v>745</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O193" s="2"/>
       <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
         <v>76</v>
@@ -25248,19 +25278,19 @@
         <v>76</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>746</v>
+        <v>94</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="194">
@@ -25268,12 +25298,14 @@
         <v>491</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="D194" s="2"/>
+        <v>748</v>
+      </c>
+      <c r="D194" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E194" t="s" s="2">
         <v>76</v>
       </c>
@@ -25282,25 +25314,25 @@
         <v>77</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I194" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J194" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>375</v>
+        <v>753</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>749</v>
+        <v>23</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
@@ -25351,7 +25383,7 @@
         <v>76</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>750</v>
+        <v>94</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>77</v>
@@ -25363,7 +25395,7 @@
         <v>80</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
     </row>
     <row r="195">
@@ -25371,12 +25403,14 @@
         <v>491</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="D195" s="2"/>
+        <v>748</v>
+      </c>
+      <c r="D195" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E195" t="s" s="2">
         <v>76</v>
       </c>
@@ -25385,7 +25419,7 @@
         <v>77</v>
       </c>
       <c r="H195" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I195" t="s" s="2">
         <v>133</v>
@@ -25397,17 +25431,15 @@
         <v>76</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>755</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O195" s="2"/>
       <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
         <v>76</v>
@@ -25456,7 +25488,7 @@
         <v>76</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>751</v>
+        <v>94</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>77</v>
@@ -25468,7 +25500,7 @@
         <v>80</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="196">
@@ -25476,12 +25508,14 @@
         <v>491</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="D196" s="2"/>
+        <v>748</v>
+      </c>
+      <c r="D196" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="E196" t="s" s="2">
         <v>76</v>
       </c>
@@ -25490,7 +25524,7 @@
         <v>77</v>
       </c>
       <c r="H196" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I196" t="s" s="2">
         <v>76</v>
@@ -25499,20 +25533,18 @@
         <v>76</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>118</v>
+        <v>759</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O196" s="2"/>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
         <v>76</v>
@@ -25537,10 +25569,10 @@
         <v>76</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>759</v>
+        <v>76</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>76</v>
@@ -25561,7 +25593,7 @@
         <v>76</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>756</v>
+        <v>94</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>77</v>
@@ -25573,7 +25605,7 @@
         <v>80</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="197">
@@ -25581,10 +25613,10 @@
         <v>491</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25595,10 +25627,10 @@
         <v>77</v>
       </c>
       <c r="H197" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I197" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J197" t="s" s="2">
         <v>76</v>
@@ -25607,16 +25639,16 @@
         <v>133</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>246</v>
+        <v>764</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" t="s" s="2">
@@ -25642,13 +25674,13 @@
         <v>76</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="AA197" t="s" s="2">
-        <v>764</v>
+        <v>76</v>
       </c>
       <c r="AB197" t="s" s="2">
         <v>76</v>
@@ -25666,13 +25698,13 @@
         <v>76</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>80</v>
@@ -25686,10 +25718,10 @@
         <v>491</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25700,29 +25732,27 @@
         <v>77</v>
       </c>
       <c r="H198" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K198" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="J198" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K198" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L198" t="s" s="2">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="O198" t="s" s="2">
         <v>768</v>
       </c>
+      <c r="O198" s="2"/>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
         <v>76</v>
@@ -25771,19 +25801,19 @@
         <v>76</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>104</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199">
@@ -25791,14 +25821,14 @@
         <v>491</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
-        <v>770</v>
+        <v>76</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" t="s" s="2">
@@ -25814,7 +25844,7 @@
         <v>76</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L199" t="s" s="2">
         <v>771</v>
@@ -25876,7 +25906,7 @@
         <v>76</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>77</v>
@@ -25888,7 +25918,7 @@
         <v>80</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="200">
@@ -25903,14 +25933,14 @@
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
-        <v>776</v>
+        <v>76</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I200" t="s" s="2">
         <v>76</v>
@@ -25922,16 +25952,16 @@
         <v>133</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="M200" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="N200" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="N200" t="s" s="2">
-        <v>778</v>
-      </c>
       <c r="O200" t="s" s="2">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" t="s" s="2">
@@ -25957,10 +25987,10 @@
         <v>76</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>76</v>
+        <v>778</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>76</v>
@@ -25987,13 +26017,13 @@
         <v>77</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
     </row>
     <row r="201">
@@ -26015,27 +26045,29 @@
         <v>77</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I201" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J201" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>85</v>
+        <v>780</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O201" s="2"/>
+        <v>781</v>
+      </c>
+      <c r="O201" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
         <v>76</v>
@@ -26060,13 +26092,13 @@
         <v>76</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z201" t="s" s="2">
-        <v>76</v>
+        <v>782</v>
       </c>
       <c r="AA201" t="s" s="2">
-        <v>76</v>
+        <v>783</v>
       </c>
       <c r="AB201" t="s" s="2">
         <v>76</v>
@@ -26084,19 +26116,19 @@
         <v>76</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>87</v>
+        <v>779</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="202">
@@ -26104,24 +26136,24 @@
         <v>491</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I202" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J202" t="s" s="2">
         <v>76</v>
@@ -26130,16 +26162,16 @@
         <v>76</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>89</v>
+        <v>540</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>174</v>
+        <v>785</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>237</v>
+        <v>786</v>
       </c>
       <c r="O202" t="s" s="2">
-        <v>176</v>
+        <v>787</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
@@ -26177,31 +26209,31 @@
         <v>76</v>
       </c>
       <c r="AC202" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD202" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE202" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>94</v>
+        <v>784</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="203">
@@ -26209,24 +26241,24 @@
         <v>491</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
-        <v>76</v>
+        <v>789</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H203" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I203" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J203" t="s" s="2">
         <v>76</v>
@@ -26235,16 +26267,16 @@
         <v>133</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
@@ -26294,19 +26326,19 @@
         <v>76</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>787</v>
+        <v>80</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204">
@@ -26314,14 +26346,14 @@
         <v>491</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
-        <v>76</v>
+        <v>795</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
@@ -26331,7 +26363,7 @@
         <v>83</v>
       </c>
       <c r="I204" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J204" t="s" s="2">
         <v>76</v>
@@ -26340,24 +26372,22 @@
         <v>133</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>782</v>
+        <v>267</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>791</v>
+        <v>270</v>
       </c>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R204" t="s" s="2">
-        <v>792</v>
-      </c>
+      <c r="R204" s="2"/>
       <c r="S204" t="s" s="2">
         <v>76</v>
       </c>
@@ -26401,7 +26431,7 @@
         <v>76</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>77</v>
@@ -26410,10 +26440,10 @@
         <v>83</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>787</v>
+        <v>80</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>104</v>
+        <v>271</v>
       </c>
     </row>
     <row r="205">
@@ -26421,10 +26451,10 @@
         <v>491</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26438,26 +26468,24 @@
         <v>83</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J205" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>795</v>
+        <v>85</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O205" s="2"/>
       <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
         <v>76</v>
@@ -26506,7 +26534,7 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>794</v>
+        <v>87</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>77</v>
@@ -26515,10 +26543,10 @@
         <v>83</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206">
@@ -26526,21 +26554,21 @@
         <v>491</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>76</v>
@@ -26549,19 +26577,19 @@
         <v>76</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>798</v>
+        <v>89</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>799</v>
+        <v>174</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>800</v>
+        <v>237</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
@@ -26599,31 +26627,31 @@
         <v>76</v>
       </c>
       <c r="AC206" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD206" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE206" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>797</v>
+        <v>94</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
     </row>
     <row r="207">
@@ -26631,10 +26659,10 @@
         <v>491</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26645,10 +26673,10 @@
         <v>77</v>
       </c>
       <c r="H207" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I207" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J207" t="s" s="2">
         <v>76</v>
@@ -26657,16 +26685,16 @@
         <v>133</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>802</v>
+        <v>604</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>804</v>
+        <v>606</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>283</v>
+        <v>607</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
@@ -26716,19 +26744,19 @@
         <v>76</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>801</v>
+        <v>608</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="208">
@@ -26736,10 +26764,10 @@
         <v>491</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26753,7 +26781,7 @@
         <v>83</v>
       </c>
       <c r="I208" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J208" t="s" s="2">
         <v>76</v>
@@ -26762,22 +26790,24 @@
         <v>133</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>118</v>
+        <v>604</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>807</v>
+        <v>613</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>246</v>
+        <v>614</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R208" s="2"/>
+      <c r="R208" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="S208" t="s" s="2">
         <v>76</v>
       </c>
@@ -26797,13 +26827,13 @@
         <v>76</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z208" t="s" s="2">
-        <v>808</v>
+        <v>76</v>
       </c>
       <c r="AA208" t="s" s="2">
-        <v>809</v>
+        <v>76</v>
       </c>
       <c r="AB208" t="s" s="2">
         <v>76</v>
@@ -26821,7 +26851,7 @@
         <v>76</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>805</v>
+        <v>616</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>77</v>
@@ -26830,7 +26860,7 @@
         <v>83</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>104</v>
@@ -26841,10 +26871,10 @@
         <v>491</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26855,28 +26885,28 @@
         <v>77</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I209" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J209" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>811</v>
+        <v>447</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>814</v>
+        <v>283</v>
       </c>
       <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
@@ -26926,19 +26956,19 @@
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210">
@@ -26946,10 +26976,10 @@
         <v>491</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26960,7 +26990,7 @@
         <v>77</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>76</v>
@@ -26969,18 +26999,20 @@
         <v>76</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>230</v>
+        <v>808</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="O210" s="2"/>
+        <v>810</v>
+      </c>
+      <c r="O210" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
         <v>76</v>
@@ -27029,19 +27061,19 @@
         <v>76</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211">
@@ -27049,10 +27081,10 @@
         <v>491</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -27063,27 +27095,29 @@
         <v>77</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I211" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J211" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>84</v>
+        <v>812</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>85</v>
+        <v>813</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O211" s="2"/>
+        <v>814</v>
+      </c>
+      <c r="O211" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
         <v>76</v>
@@ -27132,19 +27166,19 @@
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>87</v>
+        <v>811</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212">
@@ -27152,21 +27186,21 @@
         <v>491</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>76</v>
@@ -27175,19 +27209,19 @@
         <v>76</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>174</v>
+        <v>816</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>237</v>
+        <v>817</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
@@ -27213,43 +27247,43 @@
         <v>76</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>76</v>
+        <v>818</v>
       </c>
       <c r="AA212" t="s" s="2">
-        <v>76</v>
+        <v>819</v>
       </c>
       <c r="AB212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC212" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD212" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>94</v>
+        <v>815</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="213">
@@ -27264,7 +27298,7 @@
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" t="s" s="2">
@@ -27277,26 +27311,24 @@
         <v>76</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>89</v>
+        <v>821</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>240</v>
+        <v>822</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>241</v>
+        <v>823</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P213" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
         <v>76</v>
       </c>
@@ -27344,7 +27376,7 @@
         <v>76</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>242</v>
+        <v>820</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>77</v>
@@ -27356,7 +27388,7 @@
         <v>80</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="214">
@@ -27364,10 +27396,10 @@
         <v>491</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -27375,10 +27407,10 @@
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>76</v>
@@ -27390,17 +27422,15 @@
         <v>76</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="O214" s="2"/>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
         <v>76</v>
@@ -27449,13 +27479,13 @@
         <v>76</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>80</v>
@@ -27469,10 +27499,10 @@
         <v>491</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -27495,17 +27525,15 @@
         <v>76</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>825</v>
+        <v>85</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="O215" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O215" s="2"/>
       <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
         <v>76</v>
@@ -27554,7 +27582,7 @@
         <v>76</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>824</v>
+        <v>87</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>77</v>
@@ -27563,10 +27591,10 @@
         <v>83</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216">
@@ -27574,21 +27602,21 @@
         <v>491</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>76</v>
@@ -27600,16 +27628,16 @@
         <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>828</v>
+        <v>174</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>829</v>
+        <v>237</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="P216" s="2"/>
       <c r="Q216" t="s" s="2">
@@ -27647,31 +27675,31 @@
         <v>76</v>
       </c>
       <c r="AC216" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD216" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE216" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>827</v>
+        <v>94</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217">
@@ -27686,7 +27714,7 @@
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" t="s" s="2">
@@ -27699,22 +27727,26 @@
         <v>76</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>831</v>
+        <v>240</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O217" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P217" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q217" t="s" s="2">
         <v>76</v>
       </c>
@@ -27762,7 +27794,7 @@
         <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>830</v>
+        <v>242</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
@@ -27774,7 +27806,7 @@
         <v>80</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="218">
@@ -27782,10 +27814,10 @@
         <v>491</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27793,7 +27825,7 @@
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>83</v>
@@ -27811,12 +27843,14 @@
         <v>84</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>85</v>
+        <v>832</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O218" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>76</v>
@@ -27865,19 +27899,19 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>87</v>
+        <v>831</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="219">
@@ -27892,14 +27926,14 @@
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
@@ -27911,16 +27945,16 @@
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>174</v>
+        <v>835</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>237</v>
+        <v>836</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
@@ -27958,31 +27992,31 @@
         <v>76</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>94</v>
+        <v>834</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="220">
@@ -27990,46 +28024,44 @@
         <v>491</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>240</v>
+        <v>838</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>241</v>
+        <v>839</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P220" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="P220" s="2"/>
       <c r="Q220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28077,19 +28109,19 @@
         <v>76</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>242</v>
+        <v>837</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ220" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221">
@@ -28097,10 +28129,10 @@
         <v>491</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -28111,7 +28143,7 @@
         <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>76</v>
@@ -28123,17 +28155,15 @@
         <v>76</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="O221" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="O221" s="2"/>
       <c r="P221" s="2"/>
       <c r="Q221" t="s" s="2">
         <v>76</v>
@@ -28182,13 +28212,13 @@
         <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ221" t="s" s="2">
         <v>80</v>
@@ -28202,10 +28232,10 @@
         <v>491</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -28228,17 +28258,15 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>840</v>
+        <v>85</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>841</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O222" s="2"/>
       <c r="P222" s="2"/>
       <c r="Q222" t="s" s="2">
         <v>76</v>
@@ -28263,13 +28291,13 @@
         <v>76</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>842</v>
+        <v>76</v>
       </c>
       <c r="AA222" t="s" s="2">
-        <v>843</v>
+        <v>76</v>
       </c>
       <c r="AB222" t="s" s="2">
         <v>76</v>
@@ -28287,7 +28315,7 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>839</v>
+        <v>87</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>77</v>
@@ -28296,25 +28324,25 @@
         <v>83</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>31</v>
+        <v>844</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>31</v>
+        <v>844</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
@@ -28333,15 +28361,17 @@
         <v>76</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O223" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>76</v>
@@ -28378,19 +28408,19 @@
         <v>76</v>
       </c>
       <c r="AC223" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD223" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE223" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
@@ -28407,45 +28437,49 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>82</v>
+        <v>845</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>82</v>
+        <v>845</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P224" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q224" t="s" s="2">
         <v>76</v>
       </c>
@@ -28493,30 +28527,30 @@
         <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>88</v>
+        <v>846</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>88</v>
+        <v>846</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28527,7 +28561,7 @@
         <v>77</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>76</v>
@@ -28539,15 +28573,17 @@
         <v>76</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>31</v>
+        <v>847</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O225" s="2"/>
+        <v>848</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P225" s="2"/>
       <c r="Q225" t="s" s="2">
         <v>76</v>
@@ -28584,42 +28620,42 @@
         <v>76</v>
       </c>
       <c r="AC225" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD225" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE225" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>94</v>
+        <v>846</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>95</v>
+        <v>849</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>95</v>
+        <v>849</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28627,7 +28663,7 @@
       </c>
       <c r="F226" s="2"/>
       <c r="G226" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H226" t="s" s="2">
         <v>83</v>
@@ -28642,16 +28678,16 @@
         <v>76</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>97</v>
+        <v>850</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>98</v>
+        <v>851</v>
       </c>
       <c r="O226" t="s" s="2">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="P226" s="2"/>
       <c r="Q226" t="s" s="2">
@@ -28659,7 +28695,7 @@
       </c>
       <c r="R226" s="2"/>
       <c r="S226" t="s" s="2">
-        <v>844</v>
+        <v>76</v>
       </c>
       <c r="T226" t="s" s="2">
         <v>76</v>
@@ -28677,13 +28713,13 @@
         <v>76</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="Z226" t="s" s="2">
-        <v>76</v>
+        <v>852</v>
       </c>
       <c r="AA226" t="s" s="2">
-        <v>76</v>
+        <v>853</v>
       </c>
       <c r="AB226" t="s" s="2">
         <v>76</v>
@@ -28701,19 +28737,19 @@
         <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>95</v>
+        <v>849</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI226" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227">
@@ -28721,10 +28757,10 @@
         <v>509</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28735,7 +28771,7 @@
         <v>77</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>76</v>
@@ -28747,13 +28783,13 @@
         <v>76</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>846</v>
+        <v>79</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
@@ -28804,30 +28840,30 @@
         <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -28838,7 +28874,7 @@
         <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>76</v>
@@ -28850,13 +28886,13 @@
         <v>76</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>525</v>
+        <v>86</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
@@ -28907,30 +28943,30 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28941,7 +28977,7 @@
         <v>77</v>
       </c>
       <c r="H229" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I229" t="s" s="2">
         <v>76</v>
@@ -28953,13 +28989,13 @@
         <v>76</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
@@ -28998,42 +29034,42 @@
         <v>76</v>
       </c>
       <c r="AC229" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD229" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE229" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -29041,10 +29077,10 @@
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -29056,22 +29092,24 @@
         <v>76</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O230" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O230" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P230" s="2"/>
       <c r="Q230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R230" s="2"/>
       <c r="S230" t="s" s="2">
-        <v>76</v>
+        <v>854</v>
       </c>
       <c r="T230" t="s" s="2">
         <v>76</v>
@@ -29101,42 +29139,42 @@
         <v>76</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD230" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH230" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -29144,7 +29182,7 @@
       </c>
       <c r="F231" s="2"/>
       <c r="G231" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H231" t="s" s="2">
         <v>83</v>
@@ -29159,24 +29197,22 @@
         <v>76</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>96</v>
+        <v>856</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O231" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O231" s="2"/>
       <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R231" s="2"/>
       <c r="S231" t="s" s="2">
-        <v>847</v>
+        <v>76</v>
       </c>
       <c r="T231" t="s" s="2">
         <v>76</v>
@@ -29218,19 +29254,19 @@
         <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH231" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI231" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="232">
@@ -29238,10 +29274,10 @@
         <v>522</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -29252,7 +29288,7 @@
         <v>77</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I232" t="s" s="2">
         <v>76</v>
@@ -29264,13 +29300,13 @@
         <v>76</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>103</v>
+        <v>525</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
@@ -29321,30 +29357,30 @@
         <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ232" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -29355,7 +29391,7 @@
         <v>77</v>
       </c>
       <c r="H233" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I233" t="s" s="2">
         <v>76</v>
@@ -29367,13 +29403,13 @@
         <v>76</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>385</v>
+        <v>86</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
@@ -29424,30 +29460,30 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI233" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29458,7 +29494,7 @@
         <v>77</v>
       </c>
       <c r="H234" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I234" t="s" s="2">
         <v>76</v>
@@ -29470,13 +29506,13 @@
         <v>76</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
@@ -29515,42 +29551,42 @@
         <v>76</v>
       </c>
       <c r="AC234" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD234" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -29558,10 +29594,10 @@
       </c>
       <c r="F235" s="2"/>
       <c r="G235" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I235" t="s" s="2">
         <v>76</v>
@@ -29573,22 +29609,24 @@
         <v>76</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O235" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R235" s="2"/>
       <c r="S235" t="s" s="2">
-        <v>76</v>
+        <v>857</v>
       </c>
       <c r="T235" t="s" s="2">
         <v>76</v>
@@ -29618,42 +29656,42 @@
         <v>76</v>
       </c>
       <c r="AC235" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD235" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE235" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH235" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -29661,7 +29699,7 @@
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H236" t="s" s="2">
         <v>83</v>
@@ -29676,24 +29714,22 @@
         <v>76</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O236" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O236" s="2"/>
       <c r="P236" s="2"/>
       <c r="Q236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R236" s="2"/>
       <c r="S236" t="s" s="2">
-        <v>849</v>
+        <v>76</v>
       </c>
       <c r="T236" t="s" s="2">
         <v>76</v>
@@ -29735,19 +29771,19 @@
         <v>76</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH236" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI236" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="237">
@@ -29755,10 +29791,10 @@
         <v>382</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -29769,7 +29805,7 @@
         <v>77</v>
       </c>
       <c r="H237" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I237" t="s" s="2">
         <v>76</v>
@@ -29781,13 +29817,13 @@
         <v>76</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>103</v>
+        <v>385</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
@@ -29838,30 +29874,30 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI237" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ237" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29872,7 +29908,7 @@
         <v>77</v>
       </c>
       <c r="H238" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I238" t="s" s="2">
         <v>76</v>
@@ -29884,13 +29920,13 @@
         <v>76</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>517</v>
+        <v>86</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
@@ -29941,30 +29977,30 @@
         <v>76</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK238" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -29975,7 +30011,7 @@
         <v>77</v>
       </c>
       <c r="H239" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I239" t="s" s="2">
         <v>76</v>
@@ -29987,13 +30023,13 @@
         <v>76</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
@@ -30032,42 +30068,42 @@
         <v>76</v>
       </c>
       <c r="AC239" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD239" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE239" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -30075,10 +30111,10 @@
       </c>
       <c r="F240" s="2"/>
       <c r="G240" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>76</v>
@@ -30090,22 +30126,24 @@
         <v>76</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O240" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O240" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P240" s="2"/>
       <c r="Q240" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R240" s="2"/>
       <c r="S240" t="s" s="2">
-        <v>76</v>
+        <v>859</v>
       </c>
       <c r="T240" t="s" s="2">
         <v>76</v>
@@ -30135,42 +30173,42 @@
         <v>76</v>
       </c>
       <c r="AC240" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD240" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE240" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH240" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ240" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -30178,7 +30216,7 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>83</v>
@@ -30193,24 +30231,22 @@
         <v>76</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O241" s="2"/>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R241" s="2"/>
       <c r="S241" t="s" s="2">
-        <v>852</v>
+        <v>76</v>
       </c>
       <c r="T241" t="s" s="2">
         <v>76</v>
@@ -30252,19 +30288,19 @@
         <v>76</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ241" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="242">
@@ -30272,10 +30308,10 @@
         <v>514</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -30286,7 +30322,7 @@
         <v>77</v>
       </c>
       <c r="H242" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I242" t="s" s="2">
         <v>76</v>
@@ -30298,13 +30334,13 @@
         <v>76</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>103</v>
+        <v>517</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
@@ -30355,18 +30391,432 @@
         <v>76</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ242" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK242" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C243" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D243" s="2"/>
+      <c r="E243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F243" s="2"/>
+      <c r="G243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L243" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N243" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R243" s="2"/>
+      <c r="S243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG243" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI243" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK243" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C244" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F244" s="2"/>
+      <c r="G244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L244" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N244" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="Q244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R244" s="2"/>
+      <c r="S244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC244" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD244" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF244" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG244" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ244" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK244" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C245" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F245" s="2"/>
+      <c r="G245" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H245" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L245" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M245" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N245" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O245" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P245" s="2"/>
+      <c r="Q245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R245" s="2"/>
+      <c r="S245" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="T245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG245" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH245" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI245" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK245" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C246" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F246" s="2"/>
+      <c r="G246" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H246" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L246" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N246" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R246" s="2"/>
+      <c r="S246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG246" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH246" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI246" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ246" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK246" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T12:52:29+00:00</t>
+    <t>2024-01-24T17:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T09:57:27+00:00</t>
+    <t>2024-02-15T13:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T13:54:33+00:00</t>
+    <t>2024-02-15T16:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2540,7 +2540,7 @@
     <t>ResearchStudy.description</t>
   </si>
   <si>
-    <t>Résumé de l'essai / Summary Results</t>
+    <t>Résumé de l'essai (description, durée de participation à l'essai clinique,etc) / Summary Results</t>
   </si>
   <si>
     <t>A full description of how the study is being conducted.</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:43:54+00:00</t>
+    <t>2024-02-15T17:28:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2165,7 +2165,7 @@
     <t>ResearchStudy.primaryPurposeType</t>
   </si>
   <si>
-    <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
+    <t>Objectif principal / Primary purpose</t>
   </si>
   <si>
     <t>The type of study based upon the intent of the study's activities. A classification of the intent of the study.</t>
@@ -26356,7 +26356,7 @@
         <v>83</v>
       </c>
       <c r="I200" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J200" t="s" s="2">
         <v>76</v>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T15:42:28+00:00</t>
+    <t>2024-02-19T18:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -15586,7 +15586,7 @@
         <v>83</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>76</v>
@@ -15798,7 +15798,7 @@
         <v>83</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>76</v>
@@ -35080,7 +35080,7 @@
         <v>83</v>
       </c>
       <c r="I279" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J279" t="s" s="2">
         <v>76</v>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:04:21+00:00</t>
+    <t>2024-02-25T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T14:21:10+00:00</t>
+    <t>2024-02-25T15:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T15:41:48+00:00</t>
+    <t>2024-02-26T09:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:09:46+00:00</t>
+    <t>2024-02-26T09:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:34:45+00:00</t>
+    <t>2024-02-26T09:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
